--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -448,7 +448,7 @@
         <v>東京</v>
       </c>
       <c r="E2" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F2" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -457,21 +457,21 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="I2" t="str">
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -480,30 +480,30 @@
         <v>東京</v>
       </c>
       <c r="E3" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I3" t="str">
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -512,10 +512,10 @@
         <v>東京</v>
       </c>
       <c r="E4" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -527,15 +527,15 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -544,10 +544,10 @@
         <v>東京</v>
       </c>
       <c r="E5" t="str">
-        <v>福岡</v>
+        <v>沖縄</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -559,91 +559,91 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
       </c>
       <c r="D6" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E6" t="str">
-        <v>伊勢</v>
+        <v>福岡</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I6" t="str">
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
       </c>
       <c r="D7" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="E7" t="str">
-        <v>東京</v>
+        <v>伊勢</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I7" t="str">
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
       </c>
       <c r="D8" t="str">
-        <v>八尾</v>
+        <v>大阪</v>
       </c>
       <c r="E8" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -655,47 +655,47 @@
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
       </c>
       <c r="D9" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E9" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I9" t="str">
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
@@ -707,27 +707,27 @@
         <v>大阪</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="I10" t="str">
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
@@ -745,21 +745,21 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I11" t="str">
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221411-大阪-j5rs41</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:14:11.920Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -777,18 +777,50 @@
         <v>2</v>
       </c>
       <c r="H12">
+        <v>50000</v>
+      </c>
+      <c r="I12" t="str">
+        <v>public</v>
+      </c>
+      <c r="J12" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B13" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D13" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E13" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F13" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>110000</v>
       </c>
-      <c r="I12" t="str">
-        <v>public</v>
-      </c>
-      <c r="J12" t="str">
+      <c r="I13" t="str">
+        <v>public</v>
+      </c>
+      <c r="J13" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -451,27 +451,27 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I2" t="str">
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -480,7 +480,7 @@
         <v>東京</v>
       </c>
       <c r="E3" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F3" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -489,21 +489,21 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="I3" t="str">
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -512,30 +512,30 @@
         <v>東京</v>
       </c>
       <c r="E4" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I4" t="str">
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -544,10 +544,10 @@
         <v>東京</v>
       </c>
       <c r="E5" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -559,15 +559,15 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -576,10 +576,10 @@
         <v>東京</v>
       </c>
       <c r="E6" t="str">
-        <v>福岡</v>
+        <v>沖縄</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -591,91 +591,91 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
       </c>
       <c r="D7" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E7" t="str">
-        <v>伊勢</v>
+        <v>福岡</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I7" t="str">
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
       </c>
       <c r="D8" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="E8" t="str">
-        <v>東京</v>
+        <v>伊勢</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I8" t="str">
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
       </c>
       <c r="D9" t="str">
-        <v>八尾</v>
+        <v>大阪</v>
       </c>
       <c r="E9" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -687,47 +687,47 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
       </c>
       <c r="D10" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E10" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I10" t="str">
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
@@ -739,27 +739,27 @@
         <v>大阪</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="I11" t="str">
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -777,21 +777,21 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221411-大阪-j5rs41</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:14:11.920Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -809,18 +809,50 @@
         <v>2</v>
       </c>
       <c r="H13">
+        <v>50000</v>
+      </c>
+      <c r="I13" t="str">
+        <v>public</v>
+      </c>
+      <c r="J13" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B14" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D14" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E14" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F14" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>110000</v>
       </c>
-      <c r="I13" t="str">
-        <v>public</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="I14" t="str">
+        <v>public</v>
+      </c>
+      <c r="J14" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,13 +436,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C2" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D2" t="str">
         <v>東京</v>
@@ -451,7 +451,7 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -463,15 +463,15 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -483,27 +483,27 @@
         <v>大阪</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I3" t="str">
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -512,7 +512,7 @@
         <v>東京</v>
       </c>
       <c r="E4" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F4" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -521,21 +521,21 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="I4" t="str">
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -544,30 +544,30 @@
         <v>東京</v>
       </c>
       <c r="E5" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I5" t="str">
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -576,10 +576,10 @@
         <v>東京</v>
       </c>
       <c r="E6" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -591,15 +591,15 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -608,10 +608,10 @@
         <v>東京</v>
       </c>
       <c r="E7" t="str">
-        <v>福岡</v>
+        <v>沖縄</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -623,91 +623,91 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
       </c>
       <c r="D8" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E8" t="str">
-        <v>伊勢</v>
+        <v>福岡</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I8" t="str">
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
       </c>
       <c r="D9" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="E9" t="str">
-        <v>東京</v>
+        <v>伊勢</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I9" t="str">
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
       </c>
       <c r="D10" t="str">
-        <v>八尾</v>
+        <v>大阪</v>
       </c>
       <c r="E10" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -719,47 +719,47 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
       </c>
       <c r="D11" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E11" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I11" t="str">
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -771,27 +771,27 @@
         <v>大阪</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -809,21 +809,21 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I13" t="str">
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221411-大阪-j5rs41</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:14:11.920Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
@@ -841,18 +841,50 @@
         <v>2</v>
       </c>
       <c r="H14">
+        <v>50000</v>
+      </c>
+      <c r="I14" t="str">
+        <v>public</v>
+      </c>
+      <c r="J14" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B15" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D15" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E15" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F15" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
         <v>110000</v>
       </c>
-      <c r="I14" t="str">
-        <v>public</v>
-      </c>
-      <c r="J14" t="str">
+      <c r="I15" t="str">
+        <v>public</v>
+      </c>
+      <c r="J15" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,13 +436,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C2" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D2" t="str">
         <v>東京</v>
@@ -451,7 +451,7 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -463,18 +463,18 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C3" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D3" t="str">
         <v>東京</v>
@@ -483,7 +483,7 @@
         <v>大阪</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -495,15 +495,15 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -515,27 +515,27 @@
         <v>大阪</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I4" t="str">
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -544,7 +544,7 @@
         <v>東京</v>
       </c>
       <c r="E5" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F5" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -553,21 +553,21 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="I5" t="str">
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -576,30 +576,30 @@
         <v>東京</v>
       </c>
       <c r="E6" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I6" t="str">
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -608,10 +608,10 @@
         <v>東京</v>
       </c>
       <c r="E7" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -623,15 +623,15 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
@@ -640,10 +640,10 @@
         <v>東京</v>
       </c>
       <c r="E8" t="str">
-        <v>福岡</v>
+        <v>沖縄</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -655,91 +655,91 @@
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
       </c>
       <c r="D9" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E9" t="str">
-        <v>伊勢</v>
+        <v>福岡</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I9" t="str">
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
       </c>
       <c r="D10" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="E10" t="str">
-        <v>東京</v>
+        <v>伊勢</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I10" t="str">
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
       </c>
       <c r="D11" t="str">
-        <v>八尾</v>
+        <v>大阪</v>
       </c>
       <c r="E11" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -751,47 +751,47 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
       </c>
       <c r="D12" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E12" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -803,27 +803,27 @@
         <v>大阪</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="I13" t="str">
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
@@ -841,21 +841,21 @@
         <v>2</v>
       </c>
       <c r="H14">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I14" t="str">
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221411-大阪-j5rs41</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:14:11.920Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
@@ -873,18 +873,50 @@
         <v>2</v>
       </c>
       <c r="H15">
+        <v>50000</v>
+      </c>
+      <c r="I15" t="str">
+        <v>public</v>
+      </c>
+      <c r="J15" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B16" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D16" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E16" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F16" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>110000</v>
       </c>
-      <c r="I15" t="str">
-        <v>public</v>
-      </c>
-      <c r="J15" t="str">
+      <c r="I16" t="str">
+        <v>public</v>
+      </c>
+      <c r="J16" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -451,7 +451,7 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -463,18 +463,18 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C3" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D3" t="str">
         <v>東京</v>
@@ -483,7 +483,7 @@
         <v>大阪</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -495,15 +495,15 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -515,7 +515,7 @@
         <v>大阪</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -527,18 +527,18 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C5" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D5" t="str">
         <v>東京</v>
@@ -547,27 +547,27 @@
         <v>大阪</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I5" t="str">
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -576,30 +576,30 @@
         <v>東京</v>
       </c>
       <c r="E6" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I6" t="str">
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -611,27 +611,27 @@
         <v>大阪</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I7" t="str">
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
@@ -640,30 +640,30 @@
         <v>東京</v>
       </c>
       <c r="E8" t="str">
-        <v>沖縄</v>
+        <v>京都</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I8" t="str">
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
@@ -672,10 +672,10 @@
         <v>東京</v>
       </c>
       <c r="E9" t="str">
-        <v>福岡</v>
+        <v>大阪</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -687,59 +687,59 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
       </c>
       <c r="D10" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E10" t="str">
-        <v>伊勢</v>
+        <v>沖縄</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I10" t="str">
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
       </c>
       <c r="D11" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E11" t="str">
-        <v>東京</v>
+        <v>福岡</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -751,111 +751,111 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
       </c>
       <c r="D12" t="str">
-        <v>八尾</v>
+        <v>調布</v>
       </c>
       <c r="E12" t="str">
-        <v>調布</v>
+        <v>伊勢</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
       </c>
       <c r="D13" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E13" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I13" t="str">
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
       </c>
       <c r="D14" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E14" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I14" t="str">
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
@@ -867,27 +867,27 @@
         <v>大阪</v>
       </c>
       <c r="F15" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="I15" t="str">
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
@@ -905,18 +905,82 @@
         <v>2</v>
       </c>
       <c r="H16">
+        <v>80000</v>
+      </c>
+      <c r="I16" t="str">
+        <v>public</v>
+      </c>
+      <c r="J16" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B17" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D17" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E17" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F17" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>50000</v>
+      </c>
+      <c r="I17" t="str">
+        <v>public</v>
+      </c>
+      <c r="J17" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B18" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D18" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E18" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F18" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>110000</v>
       </c>
-      <c r="I16" t="str">
-        <v>public</v>
-      </c>
-      <c r="J16" t="str">
+      <c r="I18" t="str">
+        <v>public</v>
+      </c>
+      <c r="J18" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -451,7 +451,7 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -463,15 +463,15 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -495,15 +495,15 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -515,7 +515,7 @@
         <v>大阪</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -527,18 +527,18 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C5" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D5" t="str">
         <v>東京</v>
@@ -547,7 +547,7 @@
         <v>大阪</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -559,18 +559,18 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C6" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D6" t="str">
         <v>東京</v>
@@ -579,7 +579,7 @@
         <v>大阪</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -591,15 +591,15 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -611,27 +611,27 @@
         <v>大阪</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I7" t="str">
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
@@ -640,7 +640,7 @@
         <v>東京</v>
       </c>
       <c r="E8" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F8" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -649,21 +649,21 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="I8" t="str">
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
@@ -672,30 +672,30 @@
         <v>東京</v>
       </c>
       <c r="E9" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I9" t="str">
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
@@ -704,10 +704,10 @@
         <v>東京</v>
       </c>
       <c r="E10" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -719,15 +719,15 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
@@ -736,10 +736,10 @@
         <v>東京</v>
       </c>
       <c r="E11" t="str">
-        <v>福岡</v>
+        <v>沖縄</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -751,91 +751,91 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
       </c>
       <c r="D12" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E12" t="str">
-        <v>伊勢</v>
+        <v>福岡</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
       </c>
       <c r="D13" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="E13" t="str">
-        <v>東京</v>
+        <v>伊勢</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I13" t="str">
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
       </c>
       <c r="D14" t="str">
-        <v>八尾</v>
+        <v>大阪</v>
       </c>
       <c r="E14" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -847,47 +847,47 @@
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
       </c>
       <c r="D15" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E15" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F15" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I15" t="str">
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
@@ -899,27 +899,27 @@
         <v>大阪</v>
       </c>
       <c r="F16" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="I16" t="str">
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
@@ -937,21 +937,21 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I17" t="str">
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221411-大阪-j5rs41</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:14:11.920Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
@@ -969,18 +969,50 @@
         <v>2</v>
       </c>
       <c r="H18">
+        <v>50000</v>
+      </c>
+      <c r="I18" t="str">
+        <v>public</v>
+      </c>
+      <c r="J18" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B19" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D19" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E19" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F19" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>110000</v>
       </c>
-      <c r="I18" t="str">
-        <v>public</v>
-      </c>
-      <c r="J18" t="str">
+      <c r="I19" t="str">
+        <v>public</v>
+      </c>
+      <c r="J19" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -463,15 +463,15 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -483,7 +483,7 @@
         <v>大阪</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -495,15 +495,15 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -515,7 +515,7 @@
         <v>大阪</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -527,15 +527,15 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -547,7 +547,7 @@
         <v>大阪</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -559,18 +559,18 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C6" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D6" t="str">
         <v>東京</v>
@@ -579,7 +579,7 @@
         <v>大阪</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -591,15 +591,15 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -611,7 +611,7 @@
         <v>大阪</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -623,15 +623,15 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
@@ -643,59 +643,59 @@
         <v>大阪</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I8" t="str">
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C9" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D9" t="str">
         <v>東京</v>
       </c>
       <c r="E9" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I9" t="str">
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
@@ -707,7 +707,7 @@
         <v>大阪</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -719,15 +719,15 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
@@ -736,30 +736,30 @@
         <v>東京</v>
       </c>
       <c r="E11" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I11" t="str">
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -768,7 +768,7 @@
         <v>東京</v>
       </c>
       <c r="E12" t="str">
-        <v>福岡</v>
+        <v>京都</v>
       </c>
       <c r="F12" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -777,65 +777,65 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
       </c>
       <c r="D13" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E13" t="str">
-        <v>伊勢</v>
+        <v>大阪</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I13" t="str">
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
       </c>
       <c r="D14" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E14" t="str">
-        <v>東京</v>
+        <v>沖縄</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -847,24 +847,24 @@
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
       </c>
       <c r="D15" t="str">
-        <v>八尾</v>
+        <v>東京</v>
       </c>
       <c r="E15" t="str">
-        <v>調布</v>
+        <v>福岡</v>
       </c>
       <c r="F15" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -879,91 +879,91 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
       </c>
       <c r="D16" t="str">
-        <v>東京</v>
+        <v>調布</v>
       </c>
       <c r="E16" t="str">
-        <v>大阪</v>
+        <v>伊勢</v>
       </c>
       <c r="F16" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>70000</v>
+        <v>45000</v>
       </c>
       <c r="I16" t="str">
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
       </c>
       <c r="D17" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E17" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F17" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I17" t="str">
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
       </c>
       <c r="D18" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E18" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -975,44 +975,140 @@
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
+        <v>20250818-212005-大阪-vg64er</v>
+      </c>
+      <c r="B19" t="str">
+        <v>2025-08-18T12:20:05.656Z</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D19" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E19" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F19" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>70000</v>
+      </c>
+      <c r="I19" t="str">
+        <v>public</v>
+      </c>
+      <c r="J19" t="str">
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>20250810-221902-大阪-dltcb7</v>
+      </c>
+      <c r="B20" t="str">
+        <v>2025-08-10T13:19:02.849Z</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D20" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E20" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F20" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>80000</v>
+      </c>
+      <c r="I20" t="str">
+        <v>public</v>
+      </c>
+      <c r="J20" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B21" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D21" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E21" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F21" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>50000</v>
+      </c>
+      <c r="I21" t="str">
+        <v>public</v>
+      </c>
+      <c r="J21" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
         <v>20250810-215528-大阪-5085hg</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B22" t="str">
         <v>2025-08-10T12:55:28.641Z</v>
       </c>
-      <c r="C19" t="str">
-        <v>Done</v>
-      </c>
-      <c r="D19" t="str">
-        <v>東京</v>
-      </c>
-      <c r="E19" t="str">
-        <v>大阪</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="C22" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D22" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E22" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F22" t="str">
         <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
         <v>110000</v>
       </c>
-      <c r="I19" t="str">
-        <v>public</v>
-      </c>
-      <c r="J19" t="str">
+      <c r="I22" t="str">
+        <v>public</v>
+      </c>
+      <c r="J22" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250910-160855-大阪-3mfppc</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-10T07:08:55.967Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -463,15 +463,15 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -495,15 +495,15 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -527,15 +527,15 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -559,15 +559,15 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -579,7 +579,7 @@
         <v>大阪</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -591,15 +591,15 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -623,15 +623,15 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
@@ -643,7 +643,7 @@
         <v>大阪</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -655,18 +655,18 @@
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C9" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D9" t="str">
         <v>東京</v>
@@ -675,7 +675,7 @@
         <v>大阪</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -687,18 +687,18 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C10" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D10" t="str">
         <v>東京</v>
@@ -707,7 +707,7 @@
         <v>大阪</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -719,15 +719,15 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
@@ -739,27 +739,27 @@
         <v>大阪</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I11" t="str">
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -768,7 +768,7 @@
         <v>東京</v>
       </c>
       <c r="E12" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F12" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -777,21 +777,21 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -800,30 +800,30 @@
         <v>東京</v>
       </c>
       <c r="E13" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I13" t="str">
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
@@ -832,10 +832,10 @@
         <v>東京</v>
       </c>
       <c r="E14" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -847,15 +847,15 @@
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
@@ -864,10 +864,10 @@
         <v>東京</v>
       </c>
       <c r="E15" t="str">
-        <v>福岡</v>
+        <v>沖縄</v>
       </c>
       <c r="F15" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -879,91 +879,91 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
       </c>
       <c r="D16" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E16" t="str">
-        <v>伊勢</v>
+        <v>福岡</v>
       </c>
       <c r="F16" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I16" t="str">
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
       </c>
       <c r="D17" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="E17" t="str">
-        <v>東京</v>
+        <v>伊勢</v>
       </c>
       <c r="F17" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I17" t="str">
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
       </c>
       <c r="D18" t="str">
-        <v>八尾</v>
+        <v>大阪</v>
       </c>
       <c r="E18" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -975,47 +975,47 @@
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
       </c>
       <c r="D19" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E19" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F19" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I19" t="str">
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C20" t="str">
         <v>Done</v>
@@ -1027,27 +1027,27 @@
         <v>大阪</v>
       </c>
       <c r="F20" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="I20" t="str">
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
@@ -1065,21 +1065,21 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I21" t="str">
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221411-大阪-j5rs41</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:14:11.920Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
@@ -1097,18 +1097,50 @@
         <v>2</v>
       </c>
       <c r="H22">
+        <v>50000</v>
+      </c>
+      <c r="I22" t="str">
+        <v>public</v>
+      </c>
+      <c r="J22" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B23" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D23" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E23" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F23" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <v>110000</v>
       </c>
-      <c r="I22" t="str">
-        <v>public</v>
-      </c>
-      <c r="J22" t="str">
+      <c r="I23" t="str">
+        <v>public</v>
+      </c>
+      <c r="J23" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250910-160855-大阪-3mfppc</v>
+        <v>20250910-170829-大阪-1uizuy</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-10T07:08:55.967Z</v>
+        <v>2025-09-10T08:08:29.669Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -463,15 +463,15 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250910-164739-大阪-k94vfx</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-10T07:47:39.254Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -495,18 +495,18 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250910-164415-大阪-ardukr</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-10T07:44:15.932Z</v>
       </c>
       <c r="C4" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D4" t="str">
         <v>東京</v>
@@ -515,7 +515,7 @@
         <v>大阪</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -527,18 +527,18 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250910-164116-大阪-dczoqr</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-10T07:41:16.470Z</v>
       </c>
       <c r="C5" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D5" t="str">
         <v>東京</v>
@@ -559,15 +559,15 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250910-160855-大阪-3mfppc</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-10T07:08:55.967Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -591,15 +591,15 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -611,7 +611,7 @@
         <v>大阪</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -623,15 +623,15 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
@@ -643,7 +643,7 @@
         <v>大阪</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -655,15 +655,15 @@
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
@@ -675,7 +675,7 @@
         <v>大阪</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -687,18 +687,18 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C10" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D10" t="str">
         <v>東京</v>
@@ -719,15 +719,15 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
@@ -739,7 +739,7 @@
         <v>大阪</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -751,15 +751,15 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -771,27 +771,27 @@
         <v>大阪</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -800,33 +800,33 @@
         <v>東京</v>
       </c>
       <c r="E13" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I13" t="str">
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C14" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D14" t="str">
         <v>東京</v>
@@ -835,7 +835,7 @@
         <v>大阪</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -847,15 +847,15 @@
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
@@ -864,10 +864,10 @@
         <v>東京</v>
       </c>
       <c r="E15" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F15" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -879,15 +879,15 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
@@ -896,7 +896,7 @@
         <v>東京</v>
       </c>
       <c r="E16" t="str">
-        <v>福岡</v>
+        <v>大阪</v>
       </c>
       <c r="F16" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -905,65 +905,65 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I16" t="str">
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
       </c>
       <c r="D17" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E17" t="str">
-        <v>伊勢</v>
+        <v>京都</v>
       </c>
       <c r="F17" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="I17" t="str">
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
       </c>
       <c r="D18" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E18" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -975,27 +975,27 @@
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
       </c>
       <c r="D19" t="str">
-        <v>八尾</v>
+        <v>東京</v>
       </c>
       <c r="E19" t="str">
-        <v>調布</v>
+        <v>沖縄</v>
       </c>
       <c r="F19" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1007,15 +1007,15 @@
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C20" t="str">
         <v>Done</v>
@@ -1024,74 +1024,74 @@
         <v>東京</v>
       </c>
       <c r="E20" t="str">
-        <v>大阪</v>
+        <v>福岡</v>
       </c>
       <c r="F20" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I20" t="str">
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
       </c>
       <c r="D21" t="str">
-        <v>東京</v>
+        <v>調布</v>
       </c>
       <c r="E21" t="str">
-        <v>大阪</v>
+        <v>伊勢</v>
       </c>
       <c r="F21" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="I21" t="str">
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
       </c>
       <c r="D22" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E22" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F22" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1103,44 +1103,172 @@
         <v>public</v>
       </c>
       <c r="J22" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
+        <v>20250818-213030-調布-uw1wed</v>
+      </c>
+      <c r="B23" t="str">
+        <v>2025-08-18T12:30:30.962Z</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D23" t="str">
+        <v>八尾</v>
+      </c>
+      <c r="E23" t="str">
+        <v>調布</v>
+      </c>
+      <c r="F23" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>50000</v>
+      </c>
+      <c r="I23" t="str">
+        <v>public</v>
+      </c>
+      <c r="J23" t="str">
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>20250818-212005-大阪-vg64er</v>
+      </c>
+      <c r="B24" t="str">
+        <v>2025-08-18T12:20:05.656Z</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D24" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E24" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F24" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>70000</v>
+      </c>
+      <c r="I24" t="str">
+        <v>public</v>
+      </c>
+      <c r="J24" t="str">
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>20250810-221902-大阪-dltcb7</v>
+      </c>
+      <c r="B25" t="str">
+        <v>2025-08-10T13:19:02.849Z</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D25" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E25" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F25" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>80000</v>
+      </c>
+      <c r="I25" t="str">
+        <v>public</v>
+      </c>
+      <c r="J25" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B26" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D26" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E26" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F26" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>50000</v>
+      </c>
+      <c r="I26" t="str">
+        <v>public</v>
+      </c>
+      <c r="J26" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
         <v>20250810-215528-大阪-5085hg</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B27" t="str">
         <v>2025-08-10T12:55:28.641Z</v>
       </c>
-      <c r="C23" t="str">
-        <v>Done</v>
-      </c>
-      <c r="D23" t="str">
-        <v>東京</v>
-      </c>
-      <c r="E23" t="str">
-        <v>大阪</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="C27" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D27" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E27" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F27" t="str">
         <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
         <v>110000</v>
       </c>
-      <c r="I23" t="str">
-        <v>public</v>
-      </c>
-      <c r="J23" t="str">
+      <c r="I27" t="str">
+        <v>public</v>
+      </c>
+      <c r="J27" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250910-170829-大阪-1uizuy</v>
+        <v>20250911-154504-大阪-cs63fk</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-10T08:08:29.669Z</v>
+        <v>2025-09-11T06:45:04.334Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -451,7 +451,7 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -463,15 +463,15 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
+        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250910-164739-大阪-k94vfx</v>
+        <v>20250910-170829-大阪-1uizuy</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-10T07:47:39.254Z</v>
+        <v>2025-09-10T08:08:29.669Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -495,18 +495,18 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
+        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250910-164415-大阪-ardukr</v>
+        <v>20250910-164739-大阪-k94vfx</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-10T07:44:15.932Z</v>
+        <v>2025-09-10T07:47:39.254Z</v>
       </c>
       <c r="C4" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D4" t="str">
         <v>東京</v>
@@ -515,7 +515,7 @@
         <v>大阪</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -527,15 +527,15 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
+        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250910-164116-大阪-dczoqr</v>
+        <v>20250910-164415-大阪-ardukr</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-10T07:41:16.470Z</v>
+        <v>2025-09-10T07:44:15.932Z</v>
       </c>
       <c r="C5" t="str">
         <v>In Progress</v>
@@ -547,7 +547,7 @@
         <v>大阪</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -559,18 +559,18 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
+        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250910-160855-大阪-3mfppc</v>
+        <v>20250910-164116-大阪-dczoqr</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-10T07:08:55.967Z</v>
+        <v>2025-09-10T07:41:16.470Z</v>
       </c>
       <c r="C6" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D6" t="str">
         <v>東京</v>
@@ -591,15 +591,15 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250910-160855-大阪-3mfppc</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-10T07:08:55.967Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -623,15 +623,15 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
@@ -655,15 +655,15 @@
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
@@ -687,15 +687,15 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
@@ -719,15 +719,15 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
@@ -739,7 +739,7 @@
         <v>大阪</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -751,15 +751,15 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -783,15 +783,15 @@
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -803,7 +803,7 @@
         <v>大阪</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -815,18 +815,18 @@
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C14" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D14" t="str">
         <v>東京</v>
@@ -835,7 +835,7 @@
         <v>大阪</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -847,18 +847,18 @@
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C15" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D15" t="str">
         <v>東京</v>
@@ -867,7 +867,7 @@
         <v>大阪</v>
       </c>
       <c r="F15" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -879,15 +879,15 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
@@ -899,27 +899,27 @@
         <v>大阪</v>
       </c>
       <c r="F16" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I16" t="str">
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
@@ -928,7 +928,7 @@
         <v>東京</v>
       </c>
       <c r="E17" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F17" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -937,21 +937,21 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="I17" t="str">
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
@@ -960,30 +960,30 @@
         <v>東京</v>
       </c>
       <c r="E18" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I18" t="str">
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
@@ -992,10 +992,10 @@
         <v>東京</v>
       </c>
       <c r="E19" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F19" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1007,15 +1007,15 @@
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C20" t="str">
         <v>Done</v>
@@ -1024,10 +1024,10 @@
         <v>東京</v>
       </c>
       <c r="E20" t="str">
-        <v>福岡</v>
+        <v>沖縄</v>
       </c>
       <c r="F20" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1039,91 +1039,91 @@
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
       </c>
       <c r="D21" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E21" t="str">
-        <v>伊勢</v>
+        <v>福岡</v>
       </c>
       <c r="F21" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I21" t="str">
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
       </c>
       <c r="D22" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="E22" t="str">
-        <v>東京</v>
+        <v>伊勢</v>
       </c>
       <c r="F22" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I22" t="str">
         <v>public</v>
       </c>
       <c r="J22" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B23" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C23" t="str">
         <v>Done</v>
       </c>
       <c r="D23" t="str">
-        <v>八尾</v>
+        <v>大阪</v>
       </c>
       <c r="E23" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="F23" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1135,47 +1135,47 @@
         <v>public</v>
       </c>
       <c r="J23" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C24" t="str">
         <v>Done</v>
       </c>
       <c r="D24" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E24" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F24" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I24" t="str">
         <v>public</v>
       </c>
       <c r="J24" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C25" t="str">
         <v>Done</v>
@@ -1187,27 +1187,27 @@
         <v>大阪</v>
       </c>
       <c r="F25" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="I25" t="str">
         <v>public</v>
       </c>
       <c r="J25" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C26" t="str">
         <v>Done</v>
@@ -1225,21 +1225,21 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I26" t="str">
         <v>public</v>
       </c>
       <c r="J26" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221411-大阪-j5rs41</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:14:11.920Z</v>
       </c>
       <c r="C27" t="str">
         <v>Done</v>
@@ -1257,18 +1257,50 @@
         <v>2</v>
       </c>
       <c r="H27">
+        <v>50000</v>
+      </c>
+      <c r="I27" t="str">
+        <v>public</v>
+      </c>
+      <c r="J27" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B28" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D28" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E28" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F28" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
         <v>110000</v>
       </c>
-      <c r="I27" t="str">
-        <v>public</v>
-      </c>
-      <c r="J27" t="str">
+      <c r="I28" t="str">
+        <v>public</v>
+      </c>
+      <c r="J28" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J28"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250911-154504-大阪-cs63fk</v>
+        <v>20250911-161405-大阪-mlsbic</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-11T06:45:04.334Z</v>
+        <v>2025-09-11T07:14:05.655Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -451,7 +451,7 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -463,15 +463,15 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
+        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250910-170829-大阪-1uizuy</v>
+        <v>20250911-160441-大阪-rgd338</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-10T08:08:29.669Z</v>
+        <v>2025-09-11T07:04:41.302Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -495,15 +495,15 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
+        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250910-164739-大阪-k94vfx</v>
+        <v>20250911-154504-大阪-cs63fk</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-10T07:47:39.254Z</v>
+        <v>2025-09-11T06:45:04.334Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -515,7 +515,7 @@
         <v>大阪</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -527,18 +527,18 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
+        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250910-164415-大阪-ardukr</v>
+        <v>20250910-170829-大阪-1uizuy</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-10T07:44:15.932Z</v>
+        <v>2025-09-10T08:08:29.669Z</v>
       </c>
       <c r="C5" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D5" t="str">
         <v>東京</v>
@@ -547,7 +547,7 @@
         <v>大阪</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -559,18 +559,18 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
+        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250910-164116-大阪-dczoqr</v>
+        <v>20250910-164739-大阪-k94vfx</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-10T07:41:16.470Z</v>
+        <v>2025-09-10T07:47:39.254Z</v>
       </c>
       <c r="C6" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D6" t="str">
         <v>東京</v>
@@ -591,18 +591,18 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
+        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250910-160855-大阪-3mfppc</v>
+        <v>20250910-164415-大阪-ardukr</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-10T07:08:55.967Z</v>
+        <v>2025-09-10T07:44:15.932Z</v>
       </c>
       <c r="C7" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D7" t="str">
         <v>東京</v>
@@ -611,7 +611,7 @@
         <v>大阪</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -623,18 +623,18 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250910-164116-大阪-dczoqr</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-10T07:41:16.470Z</v>
       </c>
       <c r="C8" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D8" t="str">
         <v>東京</v>
@@ -655,15 +655,15 @@
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250910-160855-大阪-3mfppc</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-10T07:08:55.967Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
@@ -687,15 +687,15 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
@@ -719,15 +719,15 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
@@ -751,15 +751,15 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -771,7 +771,7 @@
         <v>大阪</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -783,15 +783,15 @@
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -803,7 +803,7 @@
         <v>大阪</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -815,15 +815,15 @@
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
@@ -835,7 +835,7 @@
         <v>大阪</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -847,18 +847,18 @@
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C15" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D15" t="str">
         <v>東京</v>
@@ -867,7 +867,7 @@
         <v>大阪</v>
       </c>
       <c r="F15" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -879,15 +879,15 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
@@ -899,7 +899,7 @@
         <v>大阪</v>
       </c>
       <c r="F16" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -911,18 +911,18 @@
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C17" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D17" t="str">
         <v>東京</v>
@@ -931,27 +931,27 @@
         <v>大阪</v>
       </c>
       <c r="F17" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I17" t="str">
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
@@ -960,30 +960,30 @@
         <v>東京</v>
       </c>
       <c r="E18" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I18" t="str">
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
@@ -995,27 +995,27 @@
         <v>大阪</v>
       </c>
       <c r="F19" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I19" t="str">
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C20" t="str">
         <v>Done</v>
@@ -1024,30 +1024,30 @@
         <v>東京</v>
       </c>
       <c r="E20" t="str">
-        <v>沖縄</v>
+        <v>京都</v>
       </c>
       <c r="F20" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I20" t="str">
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
@@ -1056,10 +1056,10 @@
         <v>東京</v>
       </c>
       <c r="E21" t="str">
-        <v>福岡</v>
+        <v>大阪</v>
       </c>
       <c r="F21" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1071,59 +1071,59 @@
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
       </c>
       <c r="D22" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E22" t="str">
-        <v>伊勢</v>
+        <v>沖縄</v>
       </c>
       <c r="F22" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I22" t="str">
         <v>public</v>
       </c>
       <c r="J22" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B23" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C23" t="str">
         <v>Done</v>
       </c>
       <c r="D23" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E23" t="str">
-        <v>東京</v>
+        <v>福岡</v>
       </c>
       <c r="F23" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1135,111 +1135,111 @@
         <v>public</v>
       </c>
       <c r="J23" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C24" t="str">
         <v>Done</v>
       </c>
       <c r="D24" t="str">
-        <v>八尾</v>
+        <v>調布</v>
       </c>
       <c r="E24" t="str">
-        <v>調布</v>
+        <v>伊勢</v>
       </c>
       <c r="F24" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I24" t="str">
         <v>public</v>
       </c>
       <c r="J24" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C25" t="str">
         <v>Done</v>
       </c>
       <c r="D25" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E25" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F25" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I25" t="str">
         <v>public</v>
       </c>
       <c r="J25" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C26" t="str">
         <v>Done</v>
       </c>
       <c r="D26" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E26" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F26" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I26" t="str">
         <v>public</v>
       </c>
       <c r="J26" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C27" t="str">
         <v>Done</v>
@@ -1251,27 +1251,27 @@
         <v>大阪</v>
       </c>
       <c r="F27" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="I27" t="str">
         <v>public</v>
       </c>
       <c r="J27" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C28" t="str">
         <v>Done</v>
@@ -1289,18 +1289,82 @@
         <v>2</v>
       </c>
       <c r="H28">
+        <v>80000</v>
+      </c>
+      <c r="I28" t="str">
+        <v>public</v>
+      </c>
+      <c r="J28" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B29" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D29" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E29" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F29" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>50000</v>
+      </c>
+      <c r="I29" t="str">
+        <v>public</v>
+      </c>
+      <c r="J29" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B30" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D30" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E30" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F30" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <v>110000</v>
       </c>
-      <c r="I28" t="str">
-        <v>public</v>
-      </c>
-      <c r="J28" t="str">
+      <c r="I30" t="str">
+        <v>public</v>
+      </c>
+      <c r="J30" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250911-161405-大阪-mlsbic</v>
+        <v>20250911-162549-大阪-cndhza</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-11T07:14:05.655Z</v>
+        <v>2025-09-11T07:25:49.950Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -451,7 +451,7 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -463,15 +463,15 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
+        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250911-160441-大阪-rgd338</v>
+        <v>20250911-162243-大阪-egffua</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-11T07:04:41.302Z</v>
+        <v>2025-09-11T07:22:43.935Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -483,7 +483,7 @@
         <v>大阪</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -495,27 +495,27 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
+        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250911-154504-大阪-cs63fk</v>
+        <v>20250911-161850-京都-er5zjf</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-11T06:45:04.334Z</v>
+        <v>2025-09-11T07:18:50.990Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
       </c>
       <c r="D4" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E4" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -527,15 +527,15 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
+        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250910-170829-大阪-1uizuy</v>
+        <v>20250911-161405-大阪-mlsbic</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-10T08:08:29.669Z</v>
+        <v>2025-09-11T07:14:05.655Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -559,15 +559,15 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
+        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250910-164739-大阪-k94vfx</v>
+        <v>20250911-160441-大阪-rgd338</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-10T07:47:39.254Z</v>
+        <v>2025-09-11T07:04:41.302Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -591,18 +591,18 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
+        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250910-164415-大阪-ardukr</v>
+        <v>20250911-154504-大阪-cs63fk</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-10T07:44:15.932Z</v>
+        <v>2025-09-11T06:45:04.334Z</v>
       </c>
       <c r="C7" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D7" t="str">
         <v>東京</v>
@@ -623,18 +623,18 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
+        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250910-164116-大阪-dczoqr</v>
+        <v>20250910-170829-大阪-1uizuy</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-10T07:41:16.470Z</v>
+        <v>2025-09-10T08:08:29.669Z</v>
       </c>
       <c r="C8" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D8" t="str">
         <v>東京</v>
@@ -655,15 +655,15 @@
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
+        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250910-160855-大阪-3mfppc</v>
+        <v>20250910-164739-大阪-k94vfx</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-10T07:08:55.967Z</v>
+        <v>2025-09-10T07:47:39.254Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
@@ -687,18 +687,18 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250910-164415-大阪-ardukr</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-10T07:44:15.932Z</v>
       </c>
       <c r="C10" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D10" t="str">
         <v>東京</v>
@@ -707,7 +707,7 @@
         <v>大阪</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -719,18 +719,18 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250910-164116-大阪-dczoqr</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-10T07:41:16.470Z</v>
       </c>
       <c r="C11" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D11" t="str">
         <v>東京</v>
@@ -751,15 +751,15 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250910-160855-大阪-3mfppc</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-10T07:08:55.967Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -783,15 +783,15 @@
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -815,15 +815,15 @@
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
@@ -835,7 +835,7 @@
         <v>大阪</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -847,15 +847,15 @@
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
@@ -867,7 +867,7 @@
         <v>大阪</v>
       </c>
       <c r="F15" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -879,15 +879,15 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
@@ -899,7 +899,7 @@
         <v>大阪</v>
       </c>
       <c r="F16" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -911,18 +911,18 @@
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C17" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D17" t="str">
         <v>東京</v>
@@ -931,7 +931,7 @@
         <v>大阪</v>
       </c>
       <c r="F17" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -943,15 +943,15 @@
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
@@ -963,7 +963,7 @@
         <v>大阪</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -975,15 +975,15 @@
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
@@ -995,59 +995,59 @@
         <v>大阪</v>
       </c>
       <c r="F19" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I19" t="str">
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C20" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D20" t="str">
         <v>東京</v>
       </c>
       <c r="E20" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F20" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I20" t="str">
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
@@ -1059,7 +1059,7 @@
         <v>大阪</v>
       </c>
       <c r="F21" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1071,15 +1071,15 @@
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
@@ -1088,30 +1088,30 @@
         <v>東京</v>
       </c>
       <c r="E22" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F22" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I22" t="str">
         <v>public</v>
       </c>
       <c r="J22" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B23" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C23" t="str">
         <v>Done</v>
@@ -1120,7 +1120,7 @@
         <v>東京</v>
       </c>
       <c r="E23" t="str">
-        <v>福岡</v>
+        <v>京都</v>
       </c>
       <c r="F23" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -1129,65 +1129,65 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I23" t="str">
         <v>public</v>
       </c>
       <c r="J23" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C24" t="str">
         <v>Done</v>
       </c>
       <c r="D24" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E24" t="str">
-        <v>伊勢</v>
+        <v>大阪</v>
       </c>
       <c r="F24" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I24" t="str">
         <v>public</v>
       </c>
       <c r="J24" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C25" t="str">
         <v>Done</v>
       </c>
       <c r="D25" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E25" t="str">
-        <v>東京</v>
+        <v>沖縄</v>
       </c>
       <c r="F25" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1199,24 +1199,24 @@
         <v>public</v>
       </c>
       <c r="J25" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C26" t="str">
         <v>Done</v>
       </c>
       <c r="D26" t="str">
-        <v>八尾</v>
+        <v>東京</v>
       </c>
       <c r="E26" t="str">
-        <v>調布</v>
+        <v>福岡</v>
       </c>
       <c r="F26" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -1231,91 +1231,91 @@
         <v>public</v>
       </c>
       <c r="J26" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C27" t="str">
         <v>Done</v>
       </c>
       <c r="D27" t="str">
-        <v>東京</v>
+        <v>調布</v>
       </c>
       <c r="E27" t="str">
-        <v>大阪</v>
+        <v>伊勢</v>
       </c>
       <c r="F27" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>70000</v>
+        <v>45000</v>
       </c>
       <c r="I27" t="str">
         <v>public</v>
       </c>
       <c r="J27" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C28" t="str">
         <v>Done</v>
       </c>
       <c r="D28" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E28" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F28" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I28" t="str">
         <v>public</v>
       </c>
       <c r="J28" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B29" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C29" t="str">
         <v>Done</v>
       </c>
       <c r="D29" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E29" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F29" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1327,44 +1327,140 @@
         <v>public</v>
       </c>
       <c r="J29" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
+        <v>20250818-212005-大阪-vg64er</v>
+      </c>
+      <c r="B30" t="str">
+        <v>2025-08-18T12:20:05.656Z</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D30" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E30" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F30" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>70000</v>
+      </c>
+      <c r="I30" t="str">
+        <v>public</v>
+      </c>
+      <c r="J30" t="str">
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>20250810-221902-大阪-dltcb7</v>
+      </c>
+      <c r="B31" t="str">
+        <v>2025-08-10T13:19:02.849Z</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D31" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E31" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F31" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>80000</v>
+      </c>
+      <c r="I31" t="str">
+        <v>public</v>
+      </c>
+      <c r="J31" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B32" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D32" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E32" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F32" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>50000</v>
+      </c>
+      <c r="I32" t="str">
+        <v>public</v>
+      </c>
+      <c r="J32" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
         <v>20250810-215528-大阪-5085hg</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B33" t="str">
         <v>2025-08-10T12:55:28.641Z</v>
       </c>
-      <c r="C30" t="str">
-        <v>Done</v>
-      </c>
-      <c r="D30" t="str">
-        <v>東京</v>
-      </c>
-      <c r="E30" t="str">
-        <v>大阪</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="C33" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D33" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E33" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F33" t="str">
         <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
         <v>110000</v>
       </c>
-      <c r="I30" t="str">
-        <v>public</v>
-      </c>
-      <c r="J30" t="str">
+      <c r="I33" t="str">
+        <v>public</v>
+      </c>
+      <c r="J33" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250911-162549-大阪-cndhza</v>
+        <v>20250917-170100-大阪-izkujb</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-11T07:25:49.950Z</v>
+        <v>2025-09-17T08:01:00.500Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -451,27 +451,27 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I2" t="str">
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
+        <v>20250917-170100-大阪-izkujb\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250911-162243-大阪-egffua</v>
+        <v>20250917-165847-大阪-1v7hb8</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-11T07:22:43.935Z</v>
+        <v>2025-09-17T07:58:47.182Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -483,7 +483,7 @@
         <v>大阪</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -495,27 +495,27 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
+        <v>20250917-165847-大阪-1v7hb8\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250911-161850-京都-er5zjf</v>
+        <v>20250917-165229-大阪-zhpmfd</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-11T07:18:50.990Z</v>
+        <v>2025-09-17T07:52:29.171Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
       </c>
       <c r="D4" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E4" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -527,24 +527,24 @@
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
+        <v>20250917-165229-大阪-zhpmfd\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250911-161405-大阪-mlsbic</v>
+        <v>20250917-155925-東京-7l550x</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-11T07:14:05.655Z</v>
+        <v>2025-09-17T06:59:25.268Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
       </c>
       <c r="D5" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E5" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F5" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -559,24 +559,24 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
+        <v>20250917-155925-東京-7l550x\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250911-160441-大阪-rgd338</v>
+        <v>20250917-155517-東京-oqqi9e</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-11T07:04:41.302Z</v>
+        <v>2025-09-17T06:55:17.310Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
       </c>
       <c r="D6" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E6" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F6" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -591,15 +591,15 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
+        <v>20250917-155517-東京-oqqi9e\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250911-154504-大阪-cs63fk</v>
+        <v>20250917-144210-大阪-t1t3yr</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-11T06:45:04.334Z</v>
+        <v>2025-09-17T05:42:10.359Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -611,7 +611,7 @@
         <v>大阪</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -623,24 +623,24 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
+        <v>20250917-144210-大阪-t1t3yr\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250910-170829-大阪-1uizuy</v>
+        <v>20250917-143022-岐阜-2xkbs4</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-10T08:08:29.669Z</v>
+        <v>2025-09-17T05:30:22.840Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
       </c>
       <c r="D8" t="str">
-        <v>東京</v>
+        <v>東京駅</v>
       </c>
       <c r="E8" t="str">
-        <v>大阪</v>
+        <v>岐阜</v>
       </c>
       <c r="F8" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -655,24 +655,24 @@
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
+        <v>20250917-143022-岐阜-2xkbs4\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250910-164739-大阪-k94vfx</v>
+        <v>20250917-141626-横浜-mey1cv</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-10T07:47:39.254Z</v>
+        <v>2025-09-17T05:16:26.756Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
       </c>
       <c r="D9" t="str">
-        <v>東京</v>
+        <v>仙台</v>
       </c>
       <c r="E9" t="str">
-        <v>大阪</v>
+        <v>横浜</v>
       </c>
       <c r="F9" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -687,27 +687,27 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
+        <v>20250917-141626-横浜-mey1cv\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250910-164415-大阪-ardukr</v>
+        <v>20250917-140019-京都-16k1ew</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-10T07:44:15.932Z</v>
+        <v>2025-09-17T05:00:19.591Z</v>
       </c>
       <c r="C10" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D10" t="str">
-        <v>東京</v>
+        <v>福島</v>
       </c>
       <c r="E10" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -719,18 +719,18 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
+        <v>20250917-140019-京都-16k1ew\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250910-164116-大阪-dczoqr</v>
+        <v>20250917-134945-大阪-z9si9i</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-09-10T07:41:16.470Z</v>
+        <v>2025-09-17T04:49:45.955Z</v>
       </c>
       <c r="C11" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D11" t="str">
         <v>東京</v>
@@ -739,7 +739,7 @@
         <v>大阪</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -751,15 +751,15 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
+        <v>20250917-134945-大阪-z9si9i\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250910-160855-大阪-3mfppc</v>
+        <v>20250917-132134-大阪-zcdcft</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-09-10T07:08:55.967Z</v>
+        <v>2025-09-17T04:21:34.198Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -771,7 +771,7 @@
         <v>大阪</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -783,15 +783,15 @@
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+        <v>20250917-132134-大阪-zcdcft\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250917-120131-大阪-4negwn</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-17T03:01:31.740Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -815,15 +815,15 @@
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250917-120131-大阪-4negwn\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250917-115024-大阪-3a938q</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-17T02:50:24.794Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
@@ -835,27 +835,27 @@
         <v>大阪</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="I14" t="str">
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250917-115024-大阪-3a938q\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250916-171639-大阪-luxz9w</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-16T08:16:39.598Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
@@ -879,15 +879,15 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250916-171639-大阪-luxz9w\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250916-165310-神戸-fdeba1</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-16T07:53:10.076Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
@@ -896,7 +896,7 @@
         <v>東京</v>
       </c>
       <c r="E16" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F16" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -911,15 +911,15 @@
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250916-165310-神戸-fdeba1\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250916-164156-神戸-6fhgph</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-16T07:41:56.301Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
@@ -928,30 +928,30 @@
         <v>東京</v>
       </c>
       <c r="E17" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F17" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>50000</v>
+        <v>32500</v>
       </c>
       <c r="I17" t="str">
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250916-164156-神戸-6fhgph\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250916-154813-京都-8jefpa</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-16T06:48:13.115Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
@@ -960,30 +960,30 @@
         <v>東京</v>
       </c>
       <c r="E18" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-25"}</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>50000</v>
+        <v>26666</v>
       </c>
       <c r="I18" t="str">
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250916-154813-京都-8jefpa\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250916-154642-京都-5b16gs</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-16T06:46:42.386Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
@@ -992,39 +992,39 @@
         <v>東京</v>
       </c>
       <c r="E19" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F19" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I19" t="str">
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250916-154642-京都-5b16gs\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250916-152429-神戸-uw4i9j</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-16T06:24:29.892Z</v>
       </c>
       <c r="C20" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D20" t="str">
         <v>東京</v>
       </c>
       <c r="E20" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F20" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1033,21 +1033,21 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="I20" t="str">
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250916-152429-神戸-uw4i9j\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250916-152105-神戸-gp72ow</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-16T06:21:05.339Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
@@ -1056,10 +1056,10 @@
         <v>東京</v>
       </c>
       <c r="E21" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F21" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1071,15 +1071,15 @@
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250916-152105-神戸-gp72ow\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250916-150238-神戸-zieafl</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-16T06:02:38.293Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
@@ -1088,30 +1088,30 @@
         <v>東京</v>
       </c>
       <c r="E22" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F22" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I22" t="str">
         <v>public</v>
       </c>
       <c r="J22" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250916-150238-神戸-zieafl\plan.xlsx</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250916-145449-神戸-upocb1</v>
       </c>
       <c r="B23" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-16T05:54:49.237Z</v>
       </c>
       <c r="C23" t="str">
         <v>Done</v>
@@ -1120,30 +1120,30 @@
         <v>東京</v>
       </c>
       <c r="E23" t="str">
-        <v>京都</v>
+        <v>神戸</v>
       </c>
       <c r="F23" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-22","end":"2025-09-23"}</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I23" t="str">
         <v>public</v>
       </c>
       <c r="J23" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250916-145449-神戸-upocb1\plan.xlsx</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250916-142942-神戸-2vft5n</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-09-16T05:29:42.473Z</v>
       </c>
       <c r="C24" t="str">
         <v>Done</v>
@@ -1152,10 +1152,10 @@
         <v>東京</v>
       </c>
       <c r="E24" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F24" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1167,15 +1167,15 @@
         <v>public</v>
       </c>
       <c r="J24" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250916-142942-神戸-2vft5n\plan.xlsx</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250911-162549-大阪-cndhza</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-09-11T07:25:49.950Z</v>
       </c>
       <c r="C25" t="str">
         <v>Done</v>
@@ -1184,10 +1184,10 @@
         <v>東京</v>
       </c>
       <c r="E25" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F25" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1199,15 +1199,15 @@
         <v>public</v>
       </c>
       <c r="J25" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250911-162243-大阪-egffua</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-09-11T07:22:43.935Z</v>
       </c>
       <c r="C26" t="str">
         <v>Done</v>
@@ -1216,10 +1216,10 @@
         <v>東京</v>
       </c>
       <c r="E26" t="str">
-        <v>福岡</v>
+        <v>大阪</v>
       </c>
       <c r="F26" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1231,59 +1231,59 @@
         <v>public</v>
       </c>
       <c r="J26" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250911-161850-京都-er5zjf</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-09-11T07:18:50.990Z</v>
       </c>
       <c r="C27" t="str">
         <v>Done</v>
       </c>
       <c r="D27" t="str">
-        <v>調布</v>
+        <v>大阪</v>
       </c>
       <c r="E27" t="str">
-        <v>伊勢</v>
+        <v>京都</v>
       </c>
       <c r="F27" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I27" t="str">
         <v>public</v>
       </c>
       <c r="J27" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250911-161405-大阪-mlsbic</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-09-11T07:14:05.655Z</v>
       </c>
       <c r="C28" t="str">
         <v>Done</v>
       </c>
       <c r="D28" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E28" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F28" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1295,27 +1295,27 @@
         <v>public</v>
       </c>
       <c r="J28" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250911-160441-大阪-rgd338</v>
       </c>
       <c r="B29" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-09-11T07:04:41.302Z</v>
       </c>
       <c r="C29" t="str">
         <v>Done</v>
       </c>
       <c r="D29" t="str">
-        <v>八尾</v>
+        <v>東京</v>
       </c>
       <c r="E29" t="str">
-        <v>調布</v>
+        <v>大阪</v>
       </c>
       <c r="F29" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1327,15 +1327,15 @@
         <v>public</v>
       </c>
       <c r="J29" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250911-154504-大阪-cs63fk</v>
       </c>
       <c r="B30" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-09-11T06:45:04.334Z</v>
       </c>
       <c r="C30" t="str">
         <v>Done</v>
@@ -1353,21 +1353,21 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I30" t="str">
         <v>public</v>
       </c>
       <c r="J30" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250910-170829-大阪-1uizuy</v>
       </c>
       <c r="B31" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-09-10T08:08:29.669Z</v>
       </c>
       <c r="C31" t="str">
         <v>Done</v>
@@ -1379,27 +1379,27 @@
         <v>大阪</v>
       </c>
       <c r="F31" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I31" t="str">
         <v>public</v>
       </c>
       <c r="J31" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250910-164739-大阪-k94vfx</v>
       </c>
       <c r="B32" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-09-10T07:47:39.254Z</v>
       </c>
       <c r="C32" t="str">
         <v>Done</v>
@@ -1411,7 +1411,7 @@
         <v>大阪</v>
       </c>
       <c r="F32" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1423,44 +1423,780 @@
         <v>public</v>
       </c>
       <c r="J32" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
+        <v>20250910-164415-大阪-ardukr</v>
+      </c>
+      <c r="B33" t="str">
+        <v>2025-09-10T07:44:15.932Z</v>
+      </c>
+      <c r="C33" t="str">
+        <v>In Progress</v>
+      </c>
+      <c r="D33" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E33" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F33" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>50000</v>
+      </c>
+      <c r="I33" t="str">
+        <v>public</v>
+      </c>
+      <c r="J33" t="str">
+        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>20250910-164116-大阪-dczoqr</v>
+      </c>
+      <c r="B34" t="str">
+        <v>2025-09-10T07:41:16.470Z</v>
+      </c>
+      <c r="C34" t="str">
+        <v>In Progress</v>
+      </c>
+      <c r="D34" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E34" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F34" t="str">
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>50000</v>
+      </c>
+      <c r="I34" t="str">
+        <v>public</v>
+      </c>
+      <c r="J34" t="str">
+        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>20250910-160855-大阪-3mfppc</v>
+      </c>
+      <c r="B35" t="str">
+        <v>2025-09-10T07:08:55.967Z</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D35" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E35" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F35" t="str">
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>50000</v>
+      </c>
+      <c r="I35" t="str">
+        <v>public</v>
+      </c>
+      <c r="J35" t="str">
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>20250910-154435-大阪-0n4m1i</v>
+      </c>
+      <c r="B36" t="str">
+        <v>2025-09-10T06:44:35.762Z</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D36" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E36" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F36" t="str">
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>50000</v>
+      </c>
+      <c r="I36" t="str">
+        <v>public</v>
+      </c>
+      <c r="J36" t="str">
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>20250910-153342-大阪-ycltn0</v>
+      </c>
+      <c r="B37" t="str">
+        <v>2025-09-10T06:33:42.594Z</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D37" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E37" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F37" t="str">
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>50000</v>
+      </c>
+      <c r="I37" t="str">
+        <v>public</v>
+      </c>
+      <c r="J37" t="str">
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>20250910-152827-大阪-zkdout</v>
+      </c>
+      <c r="B38" t="str">
+        <v>2025-09-10T06:28:27.488Z</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D38" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E38" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F38" t="str">
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>50000</v>
+      </c>
+      <c r="I38" t="str">
+        <v>public</v>
+      </c>
+      <c r="J38" t="str">
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>20250910-145936-大阪-78p72o</v>
+      </c>
+      <c r="B39" t="str">
+        <v>2025-09-10T05:59:36.175Z</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D39" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E39" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F39" t="str">
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>50000</v>
+      </c>
+      <c r="I39" t="str">
+        <v>public</v>
+      </c>
+      <c r="J39" t="str">
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>20250908-220434-大阪-b46o3s</v>
+      </c>
+      <c r="B40" t="str">
+        <v>2025-09-08T13:04:34.111Z</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D40" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E40" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F40" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>50000</v>
+      </c>
+      <c r="I40" t="str">
+        <v>public</v>
+      </c>
+      <c r="J40" t="str">
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>20250908-215229-大阪-f0qlk1</v>
+      </c>
+      <c r="B41" t="str">
+        <v>2025-09-08T12:52:29.938Z</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D41" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E41" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F41" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>50000</v>
+      </c>
+      <c r="I41" t="str">
+        <v>public</v>
+      </c>
+      <c r="J41" t="str">
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>20250906-173619-大阪-t3ac2v</v>
+      </c>
+      <c r="B42" t="str">
+        <v>2025-09-06T08:36:19.656Z</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D42" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E42" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F42" t="str">
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>50000</v>
+      </c>
+      <c r="I42" t="str">
+        <v>public</v>
+      </c>
+      <c r="J42" t="str">
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>20250906-172815-大阪-wzz7ig</v>
+      </c>
+      <c r="B43" t="str">
+        <v>2025-09-06T08:28:15.534Z</v>
+      </c>
+      <c r="C43" t="str">
+        <v>In Progress</v>
+      </c>
+      <c r="D43" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E43" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F43" t="str">
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>50000</v>
+      </c>
+      <c r="I43" t="str">
+        <v>public</v>
+      </c>
+      <c r="J43" t="str">
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>20250901-182353-大阪-3t1jzw</v>
+      </c>
+      <c r="B44" t="str">
+        <v>2025-09-01T09:23:53.534Z</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D44" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E44" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F44" t="str">
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>50000</v>
+      </c>
+      <c r="I44" t="str">
+        <v>public</v>
+      </c>
+      <c r="J44" t="str">
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>20250820-212053-大阪-1gkfou</v>
+      </c>
+      <c r="B45" t="str">
+        <v>2025-08-20T12:20:53.348Z</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D45" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E45" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F45" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>60000</v>
+      </c>
+      <c r="I45" t="str">
+        <v>public</v>
+      </c>
+      <c r="J45" t="str">
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>20250820-170346-京都-7c5mv9</v>
+      </c>
+      <c r="B46" t="str">
+        <v>2025-08-20T08:03:46.933Z</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D46" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E46" t="str">
+        <v>京都</v>
+      </c>
+      <c r="F46" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>65000</v>
+      </c>
+      <c r="I46" t="str">
+        <v>public</v>
+      </c>
+      <c r="J46" t="str">
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>20250820-164118-大阪-ejuebg</v>
+      </c>
+      <c r="B47" t="str">
+        <v>2025-08-20T07:41:18.385Z</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D47" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E47" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F47" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>50000</v>
+      </c>
+      <c r="I47" t="str">
+        <v>public</v>
+      </c>
+      <c r="J47" t="str">
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>20250818-230735-沖縄-hnc1c9</v>
+      </c>
+      <c r="B48" t="str">
+        <v>2025-08-18T14:07:35.390Z</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D48" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E48" t="str">
+        <v>沖縄</v>
+      </c>
+      <c r="F48" t="str">
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>50000</v>
+      </c>
+      <c r="I48" t="str">
+        <v>public</v>
+      </c>
+      <c r="J48" t="str">
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>20250818-225810-福岡-ujsgyv</v>
+      </c>
+      <c r="B49" t="str">
+        <v>2025-08-18T13:58:10.125Z</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D49" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E49" t="str">
+        <v>福岡</v>
+      </c>
+      <c r="F49" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>50000</v>
+      </c>
+      <c r="I49" t="str">
+        <v>public</v>
+      </c>
+      <c r="J49" t="str">
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>20250818-222943-伊勢-hk9oks</v>
+      </c>
+      <c r="B50" t="str">
+        <v>2025-08-18T13:29:43.544Z</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D50" t="str">
+        <v>調布</v>
+      </c>
+      <c r="E50" t="str">
+        <v>伊勢</v>
+      </c>
+      <c r="F50" t="str">
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>45000</v>
+      </c>
+      <c r="I50" t="str">
+        <v>public</v>
+      </c>
+      <c r="J50" t="str">
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>20250818-215150-東京-k7y53m</v>
+      </c>
+      <c r="B51" t="str">
+        <v>2025-08-18T12:51:50.553Z</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D51" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="E51" t="str">
+        <v>東京</v>
+      </c>
+      <c r="F51" t="str">
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>50000</v>
+      </c>
+      <c r="I51" t="str">
+        <v>public</v>
+      </c>
+      <c r="J51" t="str">
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>20250818-213030-調布-uw1wed</v>
+      </c>
+      <c r="B52" t="str">
+        <v>2025-08-18T12:30:30.962Z</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D52" t="str">
+        <v>八尾</v>
+      </c>
+      <c r="E52" t="str">
+        <v>調布</v>
+      </c>
+      <c r="F52" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>50000</v>
+      </c>
+      <c r="I52" t="str">
+        <v>public</v>
+      </c>
+      <c r="J52" t="str">
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>20250818-212005-大阪-vg64er</v>
+      </c>
+      <c r="B53" t="str">
+        <v>2025-08-18T12:20:05.656Z</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D53" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E53" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F53" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>70000</v>
+      </c>
+      <c r="I53" t="str">
+        <v>public</v>
+      </c>
+      <c r="J53" t="str">
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>20250810-221902-大阪-dltcb7</v>
+      </c>
+      <c r="B54" t="str">
+        <v>2025-08-10T13:19:02.849Z</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D54" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E54" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F54" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>80000</v>
+      </c>
+      <c r="I54" t="str">
+        <v>public</v>
+      </c>
+      <c r="J54" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B55" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D55" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E55" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F55" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>50000</v>
+      </c>
+      <c r="I55" t="str">
+        <v>public</v>
+      </c>
+      <c r="J55" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
         <v>20250810-215528-大阪-5085hg</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B56" t="str">
         <v>2025-08-10T12:55:28.641Z</v>
       </c>
-      <c r="C33" t="str">
-        <v>Done</v>
-      </c>
-      <c r="D33" t="str">
-        <v>東京</v>
-      </c>
-      <c r="E33" t="str">
-        <v>大阪</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="C56" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D56" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E56" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F56" t="str">
         <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
         <v>110000</v>
       </c>
-      <c r="I33" t="str">
-        <v>public</v>
-      </c>
-      <c r="J33" t="str">
+      <c r="I56" t="str">
+        <v>public</v>
+      </c>
+      <c r="J56" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J56"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250917-170100-大阪-izkujb</v>
+        <v>20250917-175112-大阪-v6bp8o</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-17T08:01:00.500Z</v>
+        <v>2025-09-17T08:51:12.139Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -451,27 +451,27 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I2" t="str">
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250917-170100-大阪-izkujb\plan.xlsx</v>
+        <v>20250917-175112-大阪-v6bp8o\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250917-165847-大阪-1v7hb8</v>
+        <v>20250917-174009-大阪-eeurxe</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-17T07:58:47.182Z</v>
+        <v>2025-09-17T08:40:09.687Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -483,7 +483,7 @@
         <v>大阪</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -495,15 +495,15 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250917-165847-大阪-1v7hb8\plan.xlsx</v>
+        <v>20250917-174009-大阪-eeurxe\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250917-165229-大阪-zhpmfd</v>
+        <v>20250917-170100-大阪-izkujb</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-17T07:52:29.171Z</v>
+        <v>2025-09-17T08:01:00.500Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -521,33 +521,33 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I4" t="str">
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250917-165229-大阪-zhpmfd\plan.xlsx</v>
+        <v>20250917-170100-大阪-izkujb\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250917-155925-東京-7l550x</v>
+        <v>20250917-165847-大阪-1v7hb8</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-17T06:59:25.268Z</v>
+        <v>2025-09-17T07:58:47.182Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
       </c>
       <c r="D5" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E5" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -559,27 +559,27 @@
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250917-155925-東京-7l550x\plan.xlsx</v>
+        <v>20250917-165847-大阪-1v7hb8\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250917-155517-東京-oqqi9e</v>
+        <v>20250917-165229-大阪-zhpmfd</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-17T06:55:17.310Z</v>
+        <v>2025-09-17T07:52:29.171Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
       </c>
       <c r="D6" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E6" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -591,24 +591,24 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250917-155517-東京-oqqi9e\plan.xlsx</v>
+        <v>20250917-165229-大阪-zhpmfd\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250917-144210-大阪-t1t3yr</v>
+        <v>20250917-155925-東京-7l550x</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-17T05:42:10.359Z</v>
+        <v>2025-09-17T06:59:25.268Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
       </c>
       <c r="D7" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E7" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F7" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -623,24 +623,24 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250917-144210-大阪-t1t3yr\plan.xlsx</v>
+        <v>20250917-155925-東京-7l550x\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250917-143022-岐阜-2xkbs4</v>
+        <v>20250917-155517-東京-oqqi9e</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-17T05:30:22.840Z</v>
+        <v>2025-09-17T06:55:17.310Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
       </c>
       <c r="D8" t="str">
-        <v>東京駅</v>
+        <v>大阪</v>
       </c>
       <c r="E8" t="str">
-        <v>岐阜</v>
+        <v>東京</v>
       </c>
       <c r="F8" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -655,24 +655,24 @@
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250917-143022-岐阜-2xkbs4\plan.xlsx</v>
+        <v>20250917-155517-東京-oqqi9e\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250917-141626-横浜-mey1cv</v>
+        <v>20250917-144210-大阪-t1t3yr</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-17T05:16:26.756Z</v>
+        <v>2025-09-17T05:42:10.359Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
       </c>
       <c r="D9" t="str">
-        <v>仙台</v>
+        <v>東京</v>
       </c>
       <c r="E9" t="str">
-        <v>横浜</v>
+        <v>大阪</v>
       </c>
       <c r="F9" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -687,27 +687,27 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250917-141626-横浜-mey1cv\plan.xlsx</v>
+        <v>20250917-144210-大阪-t1t3yr\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250917-140019-京都-16k1ew</v>
+        <v>20250917-143022-岐阜-2xkbs4</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-17T05:00:19.591Z</v>
+        <v>2025-09-17T05:30:22.840Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
       </c>
       <c r="D10" t="str">
-        <v>福島</v>
+        <v>東京駅</v>
       </c>
       <c r="E10" t="str">
-        <v>京都</v>
+        <v>岐阜</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -719,27 +719,27 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250917-140019-京都-16k1ew\plan.xlsx</v>
+        <v>20250917-143022-岐阜-2xkbs4\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250917-134945-大阪-z9si9i</v>
+        <v>20250917-141626-横浜-mey1cv</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-09-17T04:49:45.955Z</v>
+        <v>2025-09-17T05:16:26.756Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
       </c>
       <c r="D11" t="str">
-        <v>東京</v>
+        <v>仙台</v>
       </c>
       <c r="E11" t="str">
-        <v>大阪</v>
+        <v>横浜</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -751,24 +751,24 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250917-134945-大阪-z9si9i\plan.xlsx</v>
+        <v>20250917-141626-横浜-mey1cv\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250917-132134-大阪-zcdcft</v>
+        <v>20250917-140019-京都-16k1ew</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-09-17T04:21:34.198Z</v>
+        <v>2025-09-17T05:00:19.591Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
       </c>
       <c r="D12" t="str">
-        <v>東京</v>
+        <v>福島</v>
       </c>
       <c r="E12" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F12" t="str">
         <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
@@ -783,15 +783,15 @@
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250917-132134-大阪-zcdcft\plan.xlsx</v>
+        <v>20250917-140019-京都-16k1ew\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250917-120131-大阪-4negwn</v>
+        <v>20250917-134945-大阪-z9si9i</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-09-17T03:01:31.740Z</v>
+        <v>2025-09-17T04:49:45.955Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -803,7 +803,7 @@
         <v>大阪</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -815,15 +815,15 @@
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250917-120131-大阪-4negwn\plan.xlsx</v>
+        <v>20250917-134945-大阪-z9si9i\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250917-115024-大阪-3a938q</v>
+        <v>20250917-132134-大阪-zcdcft</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-09-17T02:50:24.794Z</v>
+        <v>2025-09-17T04:21:34.198Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
@@ -841,21 +841,21 @@
         <v>2</v>
       </c>
       <c r="H14">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="I14" t="str">
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250917-115024-大阪-3a938q\plan.xlsx</v>
+        <v>20250917-132134-大阪-zcdcft\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250916-171639-大阪-luxz9w</v>
+        <v>20250917-120131-大阪-4negwn</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-09-16T08:16:39.598Z</v>
+        <v>2025-09-17T03:01:31.740Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
@@ -879,15 +879,15 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250916-171639-大阪-luxz9w\plan.xlsx</v>
+        <v>20250917-120131-大阪-4negwn\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250916-165310-神戸-fdeba1</v>
+        <v>20250917-115024-大阪-3a938q</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-09-16T07:53:10.076Z</v>
+        <v>2025-09-17T02:50:24.794Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
@@ -896,30 +896,30 @@
         <v>東京</v>
       </c>
       <c r="E16" t="str">
-        <v>神戸</v>
+        <v>大阪</v>
       </c>
       <c r="F16" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="I16" t="str">
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250916-165310-神戸-fdeba1\plan.xlsx</v>
+        <v>20250917-115024-大阪-3a938q\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250916-164156-神戸-6fhgph</v>
+        <v>20250916-171639-大阪-luxz9w</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-09-16T07:41:56.301Z</v>
+        <v>2025-09-16T08:16:39.598Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
@@ -928,7 +928,7 @@
         <v>東京</v>
       </c>
       <c r="E17" t="str">
-        <v>神戸</v>
+        <v>大阪</v>
       </c>
       <c r="F17" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -937,21 +937,21 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <v>32500</v>
+        <v>50000</v>
       </c>
       <c r="I17" t="str">
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250916-164156-神戸-6fhgph\plan.xlsx</v>
+        <v>20250916-171639-大阪-luxz9w\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250916-154813-京都-8jefpa</v>
+        <v>20250916-165310-神戸-fdeba1</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-09-16T06:48:13.115Z</v>
+        <v>2025-09-16T07:53:10.076Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
@@ -960,30 +960,30 @@
         <v>東京</v>
       </c>
       <c r="E18" t="str">
-        <v>京都</v>
+        <v>神戸</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>26666</v>
+        <v>50000</v>
       </c>
       <c r="I18" t="str">
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250916-154813-京都-8jefpa\plan.xlsx</v>
+        <v>20250916-165310-神戸-fdeba1\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250916-154642-京都-5b16gs</v>
+        <v>20250916-164156-神戸-6fhgph</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-09-16T06:46:42.386Z</v>
+        <v>2025-09-16T07:41:56.301Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
@@ -992,7 +992,7 @@
         <v>東京</v>
       </c>
       <c r="E19" t="str">
-        <v>京都</v>
+        <v>神戸</v>
       </c>
       <c r="F19" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1001,21 +1001,21 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <v>40000</v>
+        <v>32500</v>
       </c>
       <c r="I19" t="str">
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250916-154642-京都-5b16gs\plan.xlsx</v>
+        <v>20250916-164156-神戸-6fhgph\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250916-152429-神戸-uw4i9j</v>
+        <v>20250916-154813-京都-8jefpa</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-09-16T06:24:29.892Z</v>
+        <v>2025-09-16T06:48:13.115Z</v>
       </c>
       <c r="C20" t="str">
         <v>Done</v>
@@ -1024,30 +1024,30 @@
         <v>東京</v>
       </c>
       <c r="E20" t="str">
-        <v>神戸</v>
+        <v>京都</v>
       </c>
       <c r="F20" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-25"}</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>70000</v>
+        <v>26666</v>
       </c>
       <c r="I20" t="str">
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250916-152429-神戸-uw4i9j\plan.xlsx</v>
+        <v>20250916-154813-京都-8jefpa\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250916-152105-神戸-gp72ow</v>
+        <v>20250916-154642-京都-5b16gs</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-09-16T06:21:05.339Z</v>
+        <v>2025-09-16T06:46:42.386Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
@@ -1056,7 +1056,7 @@
         <v>東京</v>
       </c>
       <c r="E21" t="str">
-        <v>神戸</v>
+        <v>京都</v>
       </c>
       <c r="F21" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1065,21 +1065,21 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I21" t="str">
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250916-152105-神戸-gp72ow\plan.xlsx</v>
+        <v>20250916-154642-京都-5b16gs\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250916-150238-神戸-zieafl</v>
+        <v>20250916-152429-神戸-uw4i9j</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-09-16T06:02:38.293Z</v>
+        <v>2025-09-16T06:24:29.892Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
@@ -1097,21 +1097,21 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="I22" t="str">
         <v>public</v>
       </c>
       <c r="J22" t="str">
-        <v>20250916-150238-神戸-zieafl\plan.xlsx</v>
+        <v>20250916-152429-神戸-uw4i9j\plan.xlsx</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20250916-145449-神戸-upocb1</v>
+        <v>20250916-152105-神戸-gp72ow</v>
       </c>
       <c r="B23" t="str">
-        <v>2025-09-16T05:54:49.237Z</v>
+        <v>2025-09-16T06:21:05.339Z</v>
       </c>
       <c r="C23" t="str">
         <v>Done</v>
@@ -1123,7 +1123,7 @@
         <v>神戸</v>
       </c>
       <c r="F23" t="str">
-        <v>{"start":"2025-09-22","end":"2025-09-23"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1135,15 +1135,15 @@
         <v>public</v>
       </c>
       <c r="J23" t="str">
-        <v>20250916-145449-神戸-upocb1\plan.xlsx</v>
+        <v>20250916-152105-神戸-gp72ow\plan.xlsx</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20250916-142942-神戸-2vft5n</v>
+        <v>20250916-150238-神戸-zieafl</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-09-16T05:29:42.473Z</v>
+        <v>2025-09-16T06:02:38.293Z</v>
       </c>
       <c r="C24" t="str">
         <v>Done</v>
@@ -1167,15 +1167,15 @@
         <v>public</v>
       </c>
       <c r="J24" t="str">
-        <v>20250916-142942-神戸-2vft5n\plan.xlsx</v>
+        <v>20250916-150238-神戸-zieafl\plan.xlsx</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20250911-162549-大阪-cndhza</v>
+        <v>20250916-145449-神戸-upocb1</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-09-11T07:25:49.950Z</v>
+        <v>2025-09-16T05:54:49.237Z</v>
       </c>
       <c r="C25" t="str">
         <v>Done</v>
@@ -1184,10 +1184,10 @@
         <v>東京</v>
       </c>
       <c r="E25" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F25" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-22","end":"2025-09-23"}</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1199,15 +1199,15 @@
         <v>public</v>
       </c>
       <c r="J25" t="str">
-        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
+        <v>20250916-145449-神戸-upocb1\plan.xlsx</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20250911-162243-大阪-egffua</v>
+        <v>20250916-142942-神戸-2vft5n</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-09-11T07:22:43.935Z</v>
+        <v>2025-09-16T05:29:42.473Z</v>
       </c>
       <c r="C26" t="str">
         <v>Done</v>
@@ -1216,10 +1216,10 @@
         <v>東京</v>
       </c>
       <c r="E26" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F26" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1231,27 +1231,27 @@
         <v>public</v>
       </c>
       <c r="J26" t="str">
-        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
+        <v>20250916-142942-神戸-2vft5n\plan.xlsx</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20250911-161850-京都-er5zjf</v>
+        <v>20250911-162549-大阪-cndhza</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-09-11T07:18:50.990Z</v>
+        <v>2025-09-11T07:25:49.950Z</v>
       </c>
       <c r="C27" t="str">
         <v>Done</v>
       </c>
       <c r="D27" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E27" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F27" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1263,15 +1263,15 @@
         <v>public</v>
       </c>
       <c r="J27" t="str">
-        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
+        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>20250911-161405-大阪-mlsbic</v>
+        <v>20250911-162243-大阪-egffua</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-09-11T07:14:05.655Z</v>
+        <v>2025-09-11T07:22:43.935Z</v>
       </c>
       <c r="C28" t="str">
         <v>Done</v>
@@ -1283,7 +1283,7 @@
         <v>大阪</v>
       </c>
       <c r="F28" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1295,24 +1295,24 @@
         <v>public</v>
       </c>
       <c r="J28" t="str">
-        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
+        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>20250911-160441-大阪-rgd338</v>
+        <v>20250911-161850-京都-er5zjf</v>
       </c>
       <c r="B29" t="str">
-        <v>2025-09-11T07:04:41.302Z</v>
+        <v>2025-09-11T07:18:50.990Z</v>
       </c>
       <c r="C29" t="str">
         <v>Done</v>
       </c>
       <c r="D29" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E29" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F29" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1327,15 +1327,15 @@
         <v>public</v>
       </c>
       <c r="J29" t="str">
-        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
+        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>20250911-154504-大阪-cs63fk</v>
+        <v>20250911-161405-大阪-mlsbic</v>
       </c>
       <c r="B30" t="str">
-        <v>2025-09-11T06:45:04.334Z</v>
+        <v>2025-09-11T07:14:05.655Z</v>
       </c>
       <c r="C30" t="str">
         <v>Done</v>
@@ -1347,7 +1347,7 @@
         <v>大阪</v>
       </c>
       <c r="F30" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1359,15 +1359,15 @@
         <v>public</v>
       </c>
       <c r="J30" t="str">
-        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
+        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>20250910-170829-大阪-1uizuy</v>
+        <v>20250911-160441-大阪-rgd338</v>
       </c>
       <c r="B31" t="str">
-        <v>2025-09-10T08:08:29.669Z</v>
+        <v>2025-09-11T07:04:41.302Z</v>
       </c>
       <c r="C31" t="str">
         <v>Done</v>
@@ -1391,15 +1391,15 @@
         <v>public</v>
       </c>
       <c r="J31" t="str">
-        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
+        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>20250910-164739-大阪-k94vfx</v>
+        <v>20250911-154504-大阪-cs63fk</v>
       </c>
       <c r="B32" t="str">
-        <v>2025-09-10T07:47:39.254Z</v>
+        <v>2025-09-11T06:45:04.334Z</v>
       </c>
       <c r="C32" t="str">
         <v>Done</v>
@@ -1411,7 +1411,7 @@
         <v>大阪</v>
       </c>
       <c r="F32" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1423,18 +1423,18 @@
         <v>public</v>
       </c>
       <c r="J32" t="str">
-        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
+        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>20250910-164415-大阪-ardukr</v>
+        <v>20250910-170829-大阪-1uizuy</v>
       </c>
       <c r="B33" t="str">
-        <v>2025-09-10T07:44:15.932Z</v>
+        <v>2025-09-10T08:08:29.669Z</v>
       </c>
       <c r="C33" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D33" t="str">
         <v>東京</v>
@@ -1443,7 +1443,7 @@
         <v>大阪</v>
       </c>
       <c r="F33" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1455,18 +1455,18 @@
         <v>public</v>
       </c>
       <c r="J33" t="str">
-        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
+        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>20250910-164116-大阪-dczoqr</v>
+        <v>20250910-164739-大阪-k94vfx</v>
       </c>
       <c r="B34" t="str">
-        <v>2025-09-10T07:41:16.470Z</v>
+        <v>2025-09-10T07:47:39.254Z</v>
       </c>
       <c r="C34" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D34" t="str">
         <v>東京</v>
@@ -1487,18 +1487,18 @@
         <v>public</v>
       </c>
       <c r="J34" t="str">
-        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
+        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>20250910-160855-大阪-3mfppc</v>
+        <v>20250910-164415-大阪-ardukr</v>
       </c>
       <c r="B35" t="str">
-        <v>2025-09-10T07:08:55.967Z</v>
+        <v>2025-09-10T07:44:15.932Z</v>
       </c>
       <c r="C35" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D35" t="str">
         <v>東京</v>
@@ -1507,7 +1507,7 @@
         <v>大阪</v>
       </c>
       <c r="F35" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1519,18 +1519,18 @@
         <v>public</v>
       </c>
       <c r="J35" t="str">
-        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250910-164116-大阪-dczoqr</v>
       </c>
       <c r="B36" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-10T07:41:16.470Z</v>
       </c>
       <c r="C36" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D36" t="str">
         <v>東京</v>
@@ -1551,15 +1551,15 @@
         <v>public</v>
       </c>
       <c r="J36" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250910-160855-大阪-3mfppc</v>
       </c>
       <c r="B37" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-10T07:08:55.967Z</v>
       </c>
       <c r="C37" t="str">
         <v>Done</v>
@@ -1583,15 +1583,15 @@
         <v>public</v>
       </c>
       <c r="J37" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B38" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C38" t="str">
         <v>Done</v>
@@ -1615,15 +1615,15 @@
         <v>public</v>
       </c>
       <c r="J38" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B39" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C39" t="str">
         <v>Done</v>
@@ -1647,15 +1647,15 @@
         <v>public</v>
       </c>
       <c r="J39" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B40" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C40" t="str">
         <v>Done</v>
@@ -1667,7 +1667,7 @@
         <v>大阪</v>
       </c>
       <c r="F40" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1679,15 +1679,15 @@
         <v>public</v>
       </c>
       <c r="J40" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B41" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C41" t="str">
         <v>Done</v>
@@ -1699,7 +1699,7 @@
         <v>大阪</v>
       </c>
       <c r="F41" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1711,15 +1711,15 @@
         <v>public</v>
       </c>
       <c r="J41" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B42" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C42" t="str">
         <v>Done</v>
@@ -1731,7 +1731,7 @@
         <v>大阪</v>
       </c>
       <c r="F42" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1743,18 +1743,18 @@
         <v>public</v>
       </c>
       <c r="J42" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B43" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C43" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D43" t="str">
         <v>東京</v>
@@ -1763,7 +1763,7 @@
         <v>大阪</v>
       </c>
       <c r="F43" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1775,15 +1775,15 @@
         <v>public</v>
       </c>
       <c r="J43" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B44" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C44" t="str">
         <v>Done</v>
@@ -1795,7 +1795,7 @@
         <v>大阪</v>
       </c>
       <c r="F44" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1807,18 +1807,18 @@
         <v>public</v>
       </c>
       <c r="J44" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B45" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C45" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D45" t="str">
         <v>東京</v>
@@ -1827,27 +1827,27 @@
         <v>大阪</v>
       </c>
       <c r="F45" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I45" t="str">
         <v>public</v>
       </c>
       <c r="J45" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B46" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C46" t="str">
         <v>Done</v>
@@ -1856,30 +1856,30 @@
         <v>東京</v>
       </c>
       <c r="E46" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F46" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I46" t="str">
         <v>public</v>
       </c>
       <c r="J46" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B47" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C47" t="str">
         <v>Done</v>
@@ -1891,27 +1891,27 @@
         <v>大阪</v>
       </c>
       <c r="F47" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I47" t="str">
         <v>public</v>
       </c>
       <c r="J47" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B48" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C48" t="str">
         <v>Done</v>
@@ -1920,30 +1920,30 @@
         <v>東京</v>
       </c>
       <c r="E48" t="str">
-        <v>沖縄</v>
+        <v>京都</v>
       </c>
       <c r="F48" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I48" t="str">
         <v>public</v>
       </c>
       <c r="J48" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B49" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C49" t="str">
         <v>Done</v>
@@ -1952,10 +1952,10 @@
         <v>東京</v>
       </c>
       <c r="E49" t="str">
-        <v>福岡</v>
+        <v>大阪</v>
       </c>
       <c r="F49" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -1967,59 +1967,59 @@
         <v>public</v>
       </c>
       <c r="J49" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B50" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C50" t="str">
         <v>Done</v>
       </c>
       <c r="D50" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E50" t="str">
-        <v>伊勢</v>
+        <v>沖縄</v>
       </c>
       <c r="F50" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
       <c r="H50">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I50" t="str">
         <v>public</v>
       </c>
       <c r="J50" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B51" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C51" t="str">
         <v>Done</v>
       </c>
       <c r="D51" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E51" t="str">
-        <v>東京</v>
+        <v>福岡</v>
       </c>
       <c r="F51" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2031,111 +2031,111 @@
         <v>public</v>
       </c>
       <c r="J51" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B52" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C52" t="str">
         <v>Done</v>
       </c>
       <c r="D52" t="str">
-        <v>八尾</v>
+        <v>調布</v>
       </c>
       <c r="E52" t="str">
-        <v>調布</v>
+        <v>伊勢</v>
       </c>
       <c r="F52" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I52" t="str">
         <v>public</v>
       </c>
       <c r="J52" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B53" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C53" t="str">
         <v>Done</v>
       </c>
       <c r="D53" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E53" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F53" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I53" t="str">
         <v>public</v>
       </c>
       <c r="J53" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B54" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C54" t="str">
         <v>Done</v>
       </c>
       <c r="D54" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E54" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F54" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I54" t="str">
         <v>public</v>
       </c>
       <c r="J54" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B55" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C55" t="str">
         <v>Done</v>
@@ -2147,27 +2147,27 @@
         <v>大阪</v>
       </c>
       <c r="F55" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
       <c r="H55">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="I55" t="str">
         <v>public</v>
       </c>
       <c r="J55" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B56" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C56" t="str">
         <v>Done</v>
@@ -2185,18 +2185,82 @@
         <v>2</v>
       </c>
       <c r="H56">
+        <v>80000</v>
+      </c>
+      <c r="I56" t="str">
+        <v>public</v>
+      </c>
+      <c r="J56" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B57" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D57" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E57" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F57" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>50000</v>
+      </c>
+      <c r="I57" t="str">
+        <v>public</v>
+      </c>
+      <c r="J57" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B58" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D58" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E58" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F58" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>110000</v>
       </c>
-      <c r="I56" t="str">
-        <v>public</v>
-      </c>
-      <c r="J56" t="str">
+      <c r="I58" t="str">
+        <v>public</v>
+      </c>
+      <c r="J58" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J58"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250917-175112-大阪-v6bp8o</v>
+        <v>20250918-122950-大阪-2n13mx</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-17T08:51:12.139Z</v>
+        <v>2025-09-18T03:29:50.355Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -463,15 +463,15 @@
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250917-175112-大阪-v6bp8o\plan.xlsx</v>
+        <v>20250918-122950-大阪-2n13mx\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250917-174009-大阪-eeurxe</v>
+        <v>20250917-180859-滋賀-yut3o9</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-17T08:40:09.687Z</v>
+        <v>2025-09-17T09:08:59.927Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -480,30 +480,30 @@
         <v>東京</v>
       </c>
       <c r="E3" t="str">
-        <v>大阪</v>
+        <v>滋賀</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="I3" t="str">
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250917-174009-大阪-eeurxe\plan.xlsx</v>
+        <v>20250917-180859-滋賀-yut3o9\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250917-170100-大阪-izkujb</v>
+        <v>20250917-180354-滋賀-4do1t7</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-17T08:01:00.500Z</v>
+        <v>2025-09-17T09:03:55.003Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -512,30 +512,30 @@
         <v>東京</v>
       </c>
       <c r="E4" t="str">
-        <v>大阪</v>
+        <v>滋賀</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>40000</v>
+        <v>500000</v>
       </c>
       <c r="I4" t="str">
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250917-170100-大阪-izkujb\plan.xlsx</v>
+        <v>20250917-180354-滋賀-4do1t7\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250917-165847-大阪-1v7hb8</v>
+        <v>20250917-180155-大阪-br5776</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-17T07:58:47.182Z</v>
+        <v>2025-09-17T09:01:55.660Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -547,27 +547,27 @@
         <v>大阪</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>50000</v>
+        <v>42500</v>
       </c>
       <c r="I5" t="str">
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250917-165847-大阪-1v7hb8\plan.xlsx</v>
+        <v>20250917-180155-大阪-br5776\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250917-165229-大阪-zhpmfd</v>
+        <v>20250917-175112-大阪-v6bp8o</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-17T07:52:29.171Z</v>
+        <v>2025-09-17T08:51:12.139Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -579,7 +579,7 @@
         <v>大阪</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -591,27 +591,27 @@
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250917-165229-大阪-zhpmfd\plan.xlsx</v>
+        <v>20250917-175112-大阪-v6bp8o\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250917-155925-東京-7l550x</v>
+        <v>20250917-174009-大阪-eeurxe</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-17T06:59:25.268Z</v>
+        <v>2025-09-17T08:40:09.687Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
       </c>
       <c r="D7" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E7" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -623,47 +623,47 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250917-155925-東京-7l550x\plan.xlsx</v>
+        <v>20250917-174009-大阪-eeurxe\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250917-155517-東京-oqqi9e</v>
+        <v>20250917-170100-大阪-izkujb</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-17T06:55:17.310Z</v>
+        <v>2025-09-17T08:01:00.500Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
       </c>
       <c r="D8" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E8" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I8" t="str">
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250917-155517-東京-oqqi9e\plan.xlsx</v>
+        <v>20250917-170100-大阪-izkujb\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250917-144210-大阪-t1t3yr</v>
+        <v>20250917-165847-大阪-1v7hb8</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-17T05:42:10.359Z</v>
+        <v>2025-09-17T07:58:47.182Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
@@ -675,7 +675,7 @@
         <v>大阪</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -687,27 +687,27 @@
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250917-144210-大阪-t1t3yr\plan.xlsx</v>
+        <v>20250917-165847-大阪-1v7hb8\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250917-143022-岐阜-2xkbs4</v>
+        <v>20250917-165229-大阪-zhpmfd</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-17T05:30:22.840Z</v>
+        <v>2025-09-17T07:52:29.171Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
       </c>
       <c r="D10" t="str">
-        <v>東京駅</v>
+        <v>東京</v>
       </c>
       <c r="E10" t="str">
-        <v>岐阜</v>
+        <v>大阪</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -719,24 +719,24 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250917-143022-岐阜-2xkbs4\plan.xlsx</v>
+        <v>20250917-165229-大阪-zhpmfd\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250917-141626-横浜-mey1cv</v>
+        <v>20250917-155925-東京-7l550x</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-09-17T05:16:26.756Z</v>
+        <v>2025-09-17T06:59:25.268Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
       </c>
       <c r="D11" t="str">
-        <v>仙台</v>
+        <v>大阪</v>
       </c>
       <c r="E11" t="str">
-        <v>横浜</v>
+        <v>東京</v>
       </c>
       <c r="F11" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -751,27 +751,27 @@
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250917-141626-横浜-mey1cv\plan.xlsx</v>
+        <v>20250917-155925-東京-7l550x\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250917-140019-京都-16k1ew</v>
+        <v>20250917-155517-東京-oqqi9e</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-09-17T05:00:19.591Z</v>
+        <v>2025-09-17T06:55:17.310Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
       </c>
       <c r="D12" t="str">
-        <v>福島</v>
+        <v>大阪</v>
       </c>
       <c r="E12" t="str">
-        <v>京都</v>
+        <v>東京</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -783,15 +783,15 @@
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250917-140019-京都-16k1ew\plan.xlsx</v>
+        <v>20250917-155517-東京-oqqi9e\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250917-134945-大阪-z9si9i</v>
+        <v>20250917-144210-大阪-t1t3yr</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-09-17T04:49:45.955Z</v>
+        <v>2025-09-17T05:42:10.359Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -803,7 +803,7 @@
         <v>大阪</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -815,27 +815,27 @@
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250917-134945-大阪-z9si9i\plan.xlsx</v>
+        <v>20250917-144210-大阪-t1t3yr\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250917-132134-大阪-zcdcft</v>
+        <v>20250917-143022-岐阜-2xkbs4</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-09-17T04:21:34.198Z</v>
+        <v>2025-09-17T05:30:22.840Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
       </c>
       <c r="D14" t="str">
-        <v>東京</v>
+        <v>東京駅</v>
       </c>
       <c r="E14" t="str">
-        <v>大阪</v>
+        <v>岐阜</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -847,24 +847,24 @@
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250917-132134-大阪-zcdcft\plan.xlsx</v>
+        <v>20250917-143022-岐阜-2xkbs4\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250917-120131-大阪-4negwn</v>
+        <v>20250917-141626-横浜-mey1cv</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-09-17T03:01:31.740Z</v>
+        <v>2025-09-17T05:16:26.756Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
       </c>
       <c r="D15" t="str">
-        <v>東京</v>
+        <v>仙台</v>
       </c>
       <c r="E15" t="str">
-        <v>大阪</v>
+        <v>横浜</v>
       </c>
       <c r="F15" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -879,24 +879,24 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250917-120131-大阪-4negwn\plan.xlsx</v>
+        <v>20250917-141626-横浜-mey1cv\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250917-115024-大阪-3a938q</v>
+        <v>20250917-140019-京都-16k1ew</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-09-17T02:50:24.794Z</v>
+        <v>2025-09-17T05:00:19.591Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
       </c>
       <c r="D16" t="str">
-        <v>東京</v>
+        <v>福島</v>
       </c>
       <c r="E16" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F16" t="str">
         <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
@@ -905,21 +905,21 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="I16" t="str">
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250917-115024-大阪-3a938q\plan.xlsx</v>
+        <v>20250917-140019-京都-16k1ew\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250916-171639-大阪-luxz9w</v>
+        <v>20250917-134945-大阪-z9si9i</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-09-16T08:16:39.598Z</v>
+        <v>2025-09-17T04:49:45.955Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
@@ -931,7 +931,7 @@
         <v>大阪</v>
       </c>
       <c r="F17" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -943,15 +943,15 @@
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250916-171639-大阪-luxz9w\plan.xlsx</v>
+        <v>20250917-134945-大阪-z9si9i\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250916-165310-神戸-fdeba1</v>
+        <v>20250917-132134-大阪-zcdcft</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-09-16T07:53:10.076Z</v>
+        <v>2025-09-17T04:21:34.198Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
@@ -960,10 +960,10 @@
         <v>東京</v>
       </c>
       <c r="E18" t="str">
-        <v>神戸</v>
+        <v>大阪</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -975,15 +975,15 @@
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250916-165310-神戸-fdeba1\plan.xlsx</v>
+        <v>20250917-132134-大阪-zcdcft\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250916-164156-神戸-6fhgph</v>
+        <v>20250917-120131-大阪-4negwn</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-09-16T07:41:56.301Z</v>
+        <v>2025-09-17T03:01:31.740Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
@@ -992,7 +992,7 @@
         <v>東京</v>
       </c>
       <c r="E19" t="str">
-        <v>神戸</v>
+        <v>大阪</v>
       </c>
       <c r="F19" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1001,21 +1001,21 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <v>32500</v>
+        <v>50000</v>
       </c>
       <c r="I19" t="str">
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250916-164156-神戸-6fhgph\plan.xlsx</v>
+        <v>20250917-120131-大阪-4negwn\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250916-154813-京都-8jefpa</v>
+        <v>20250917-115024-大阪-3a938q</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-09-16T06:48:13.115Z</v>
+        <v>2025-09-17T02:50:24.794Z</v>
       </c>
       <c r="C20" t="str">
         <v>Done</v>
@@ -1024,30 +1024,30 @@
         <v>東京</v>
       </c>
       <c r="E20" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F20" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>26666</v>
+        <v>35000</v>
       </c>
       <c r="I20" t="str">
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250916-154813-京都-8jefpa\plan.xlsx</v>
+        <v>20250917-115024-大阪-3a938q\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250916-154642-京都-5b16gs</v>
+        <v>20250916-171639-大阪-luxz9w</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-09-16T06:46:42.386Z</v>
+        <v>2025-09-16T08:16:39.598Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
@@ -1056,7 +1056,7 @@
         <v>東京</v>
       </c>
       <c r="E21" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F21" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1065,21 +1065,21 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I21" t="str">
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250916-154642-京都-5b16gs\plan.xlsx</v>
+        <v>20250916-171639-大阪-luxz9w\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250916-152429-神戸-uw4i9j</v>
+        <v>20250916-165310-神戸-fdeba1</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-09-16T06:24:29.892Z</v>
+        <v>2025-09-16T07:53:10.076Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
@@ -1097,21 +1097,21 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I22" t="str">
         <v>public</v>
       </c>
       <c r="J22" t="str">
-        <v>20250916-152429-神戸-uw4i9j\plan.xlsx</v>
+        <v>20250916-165310-神戸-fdeba1\plan.xlsx</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20250916-152105-神戸-gp72ow</v>
+        <v>20250916-164156-神戸-6fhgph</v>
       </c>
       <c r="B23" t="str">
-        <v>2025-09-16T06:21:05.339Z</v>
+        <v>2025-09-16T07:41:56.301Z</v>
       </c>
       <c r="C23" t="str">
         <v>Done</v>
@@ -1129,21 +1129,21 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>50000</v>
+        <v>32500</v>
       </c>
       <c r="I23" t="str">
         <v>public</v>
       </c>
       <c r="J23" t="str">
-        <v>20250916-152105-神戸-gp72ow\plan.xlsx</v>
+        <v>20250916-164156-神戸-6fhgph\plan.xlsx</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20250916-150238-神戸-zieafl</v>
+        <v>20250916-154813-京都-8jefpa</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-09-16T06:02:38.293Z</v>
+        <v>2025-09-16T06:48:13.115Z</v>
       </c>
       <c r="C24" t="str">
         <v>Done</v>
@@ -1152,30 +1152,30 @@
         <v>東京</v>
       </c>
       <c r="E24" t="str">
-        <v>神戸</v>
+        <v>京都</v>
       </c>
       <c r="F24" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-25"}</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>50000</v>
+        <v>26666</v>
       </c>
       <c r="I24" t="str">
         <v>public</v>
       </c>
       <c r="J24" t="str">
-        <v>20250916-150238-神戸-zieafl\plan.xlsx</v>
+        <v>20250916-154813-京都-8jefpa\plan.xlsx</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20250916-145449-神戸-upocb1</v>
+        <v>20250916-154642-京都-5b16gs</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-09-16T05:54:49.237Z</v>
+        <v>2025-09-16T06:46:42.386Z</v>
       </c>
       <c r="C25" t="str">
         <v>Done</v>
@@ -1184,30 +1184,30 @@
         <v>東京</v>
       </c>
       <c r="E25" t="str">
-        <v>神戸</v>
+        <v>京都</v>
       </c>
       <c r="F25" t="str">
-        <v>{"start":"2025-09-22","end":"2025-09-23"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I25" t="str">
         <v>public</v>
       </c>
       <c r="J25" t="str">
-        <v>20250916-145449-神戸-upocb1\plan.xlsx</v>
+        <v>20250916-154642-京都-5b16gs\plan.xlsx</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20250916-142942-神戸-2vft5n</v>
+        <v>20250916-152429-神戸-uw4i9j</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-09-16T05:29:42.473Z</v>
+        <v>2025-09-16T06:24:29.892Z</v>
       </c>
       <c r="C26" t="str">
         <v>Done</v>
@@ -1225,21 +1225,21 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="I26" t="str">
         <v>public</v>
       </c>
       <c r="J26" t="str">
-        <v>20250916-142942-神戸-2vft5n\plan.xlsx</v>
+        <v>20250916-152429-神戸-uw4i9j\plan.xlsx</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20250911-162549-大阪-cndhza</v>
+        <v>20250916-152105-神戸-gp72ow</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-09-11T07:25:49.950Z</v>
+        <v>2025-09-16T06:21:05.339Z</v>
       </c>
       <c r="C27" t="str">
         <v>Done</v>
@@ -1248,10 +1248,10 @@
         <v>東京</v>
       </c>
       <c r="E27" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F27" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1263,15 +1263,15 @@
         <v>public</v>
       </c>
       <c r="J27" t="str">
-        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
+        <v>20250916-152105-神戸-gp72ow\plan.xlsx</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>20250911-162243-大阪-egffua</v>
+        <v>20250916-150238-神戸-zieafl</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-09-11T07:22:43.935Z</v>
+        <v>2025-09-16T06:02:38.293Z</v>
       </c>
       <c r="C28" t="str">
         <v>Done</v>
@@ -1280,10 +1280,10 @@
         <v>東京</v>
       </c>
       <c r="E28" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F28" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1295,27 +1295,27 @@
         <v>public</v>
       </c>
       <c r="J28" t="str">
-        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
+        <v>20250916-150238-神戸-zieafl\plan.xlsx</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>20250911-161850-京都-er5zjf</v>
+        <v>20250916-145449-神戸-upocb1</v>
       </c>
       <c r="B29" t="str">
-        <v>2025-09-11T07:18:50.990Z</v>
+        <v>2025-09-16T05:54:49.237Z</v>
       </c>
       <c r="C29" t="str">
         <v>Done</v>
       </c>
       <c r="D29" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E29" t="str">
-        <v>京都</v>
+        <v>神戸</v>
       </c>
       <c r="F29" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-22","end":"2025-09-23"}</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1327,15 +1327,15 @@
         <v>public</v>
       </c>
       <c r="J29" t="str">
-        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
+        <v>20250916-145449-神戸-upocb1\plan.xlsx</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>20250911-161405-大阪-mlsbic</v>
+        <v>20250916-142942-神戸-2vft5n</v>
       </c>
       <c r="B30" t="str">
-        <v>2025-09-11T07:14:05.655Z</v>
+        <v>2025-09-16T05:29:42.473Z</v>
       </c>
       <c r="C30" t="str">
         <v>Done</v>
@@ -1344,7 +1344,7 @@
         <v>東京</v>
       </c>
       <c r="E30" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F30" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1359,15 +1359,15 @@
         <v>public</v>
       </c>
       <c r="J30" t="str">
-        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
+        <v>20250916-142942-神戸-2vft5n\plan.xlsx</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>20250911-160441-大阪-rgd338</v>
+        <v>20250911-162549-大阪-cndhza</v>
       </c>
       <c r="B31" t="str">
-        <v>2025-09-11T07:04:41.302Z</v>
+        <v>2025-09-11T07:25:49.950Z</v>
       </c>
       <c r="C31" t="str">
         <v>Done</v>
@@ -1379,7 +1379,7 @@
         <v>大阪</v>
       </c>
       <c r="F31" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1391,15 +1391,15 @@
         <v>public</v>
       </c>
       <c r="J31" t="str">
-        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
+        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>20250911-154504-大阪-cs63fk</v>
+        <v>20250911-162243-大阪-egffua</v>
       </c>
       <c r="B32" t="str">
-        <v>2025-09-11T06:45:04.334Z</v>
+        <v>2025-09-11T07:22:43.935Z</v>
       </c>
       <c r="C32" t="str">
         <v>Done</v>
@@ -1411,7 +1411,7 @@
         <v>大阪</v>
       </c>
       <c r="F32" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1423,24 +1423,24 @@
         <v>public</v>
       </c>
       <c r="J32" t="str">
-        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
+        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>20250910-170829-大阪-1uizuy</v>
+        <v>20250911-161850-京都-er5zjf</v>
       </c>
       <c r="B33" t="str">
-        <v>2025-09-10T08:08:29.669Z</v>
+        <v>2025-09-11T07:18:50.990Z</v>
       </c>
       <c r="C33" t="str">
         <v>Done</v>
       </c>
       <c r="D33" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E33" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F33" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1455,15 +1455,15 @@
         <v>public</v>
       </c>
       <c r="J33" t="str">
-        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
+        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>20250910-164739-大阪-k94vfx</v>
+        <v>20250911-161405-大阪-mlsbic</v>
       </c>
       <c r="B34" t="str">
-        <v>2025-09-10T07:47:39.254Z</v>
+        <v>2025-09-11T07:14:05.655Z</v>
       </c>
       <c r="C34" t="str">
         <v>Done</v>
@@ -1487,18 +1487,18 @@
         <v>public</v>
       </c>
       <c r="J34" t="str">
-        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
+        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>20250910-164415-大阪-ardukr</v>
+        <v>20250911-160441-大阪-rgd338</v>
       </c>
       <c r="B35" t="str">
-        <v>2025-09-10T07:44:15.932Z</v>
+        <v>2025-09-11T07:04:41.302Z</v>
       </c>
       <c r="C35" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D35" t="str">
         <v>東京</v>
@@ -1507,7 +1507,7 @@
         <v>大阪</v>
       </c>
       <c r="F35" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1519,18 +1519,18 @@
         <v>public</v>
       </c>
       <c r="J35" t="str">
-        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
+        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>20250910-164116-大阪-dczoqr</v>
+        <v>20250911-154504-大阪-cs63fk</v>
       </c>
       <c r="B36" t="str">
-        <v>2025-09-10T07:41:16.470Z</v>
+        <v>2025-09-11T06:45:04.334Z</v>
       </c>
       <c r="C36" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D36" t="str">
         <v>東京</v>
@@ -1539,7 +1539,7 @@
         <v>大阪</v>
       </c>
       <c r="F36" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1551,15 +1551,15 @@
         <v>public</v>
       </c>
       <c r="J36" t="str">
-        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
+        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>20250910-160855-大阪-3mfppc</v>
+        <v>20250910-170829-大阪-1uizuy</v>
       </c>
       <c r="B37" t="str">
-        <v>2025-09-10T07:08:55.967Z</v>
+        <v>2025-09-10T08:08:29.669Z</v>
       </c>
       <c r="C37" t="str">
         <v>Done</v>
@@ -1583,15 +1583,15 @@
         <v>public</v>
       </c>
       <c r="J37" t="str">
-        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250910-164739-大阪-k94vfx</v>
       </c>
       <c r="B38" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-10T07:47:39.254Z</v>
       </c>
       <c r="C38" t="str">
         <v>Done</v>
@@ -1615,18 +1615,18 @@
         <v>public</v>
       </c>
       <c r="J38" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250910-164415-大阪-ardukr</v>
       </c>
       <c r="B39" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-10T07:44:15.932Z</v>
       </c>
       <c r="C39" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D39" t="str">
         <v>東京</v>
@@ -1635,7 +1635,7 @@
         <v>大阪</v>
       </c>
       <c r="F39" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -1647,18 +1647,18 @@
         <v>public</v>
       </c>
       <c r="J39" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250910-164116-大阪-dczoqr</v>
       </c>
       <c r="B40" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-10T07:41:16.470Z</v>
       </c>
       <c r="C40" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D40" t="str">
         <v>東京</v>
@@ -1679,15 +1679,15 @@
         <v>public</v>
       </c>
       <c r="J40" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250910-160855-大阪-3mfppc</v>
       </c>
       <c r="B41" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-10T07:08:55.967Z</v>
       </c>
       <c r="C41" t="str">
         <v>Done</v>
@@ -1711,15 +1711,15 @@
         <v>public</v>
       </c>
       <c r="J41" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B42" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C42" t="str">
         <v>Done</v>
@@ -1731,7 +1731,7 @@
         <v>大阪</v>
       </c>
       <c r="F42" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1743,15 +1743,15 @@
         <v>public</v>
       </c>
       <c r="J42" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B43" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C43" t="str">
         <v>Done</v>
@@ -1763,7 +1763,7 @@
         <v>大阪</v>
       </c>
       <c r="F43" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1775,15 +1775,15 @@
         <v>public</v>
       </c>
       <c r="J43" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B44" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C44" t="str">
         <v>Done</v>
@@ -1795,7 +1795,7 @@
         <v>大阪</v>
       </c>
       <c r="F44" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1807,18 +1807,18 @@
         <v>public</v>
       </c>
       <c r="J44" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B45" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C45" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D45" t="str">
         <v>東京</v>
@@ -1839,15 +1839,15 @@
         <v>public</v>
       </c>
       <c r="J45" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B46" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C46" t="str">
         <v>Done</v>
@@ -1859,7 +1859,7 @@
         <v>大阪</v>
       </c>
       <c r="F46" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1871,15 +1871,15 @@
         <v>public</v>
       </c>
       <c r="J46" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B47" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C47" t="str">
         <v>Done</v>
@@ -1891,27 +1891,27 @@
         <v>大阪</v>
       </c>
       <c r="F47" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I47" t="str">
         <v>public</v>
       </c>
       <c r="J47" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B48" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C48" t="str">
         <v>Done</v>
@@ -1920,33 +1920,33 @@
         <v>東京</v>
       </c>
       <c r="E48" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F48" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I48" t="str">
         <v>public</v>
       </c>
       <c r="J48" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B49" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C49" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D49" t="str">
         <v>東京</v>
@@ -1955,7 +1955,7 @@
         <v>大阪</v>
       </c>
       <c r="F49" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -1967,15 +1967,15 @@
         <v>public</v>
       </c>
       <c r="J49" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B50" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C50" t="str">
         <v>Done</v>
@@ -1984,10 +1984,10 @@
         <v>東京</v>
       </c>
       <c r="E50" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F50" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1999,15 +1999,15 @@
         <v>public</v>
       </c>
       <c r="J50" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B51" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C51" t="str">
         <v>Done</v>
@@ -2016,7 +2016,7 @@
         <v>東京</v>
       </c>
       <c r="E51" t="str">
-        <v>福岡</v>
+        <v>大阪</v>
       </c>
       <c r="F51" t="str">
         <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
@@ -2025,65 +2025,65 @@
         <v>2</v>
       </c>
       <c r="H51">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I51" t="str">
         <v>public</v>
       </c>
       <c r="J51" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B52" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C52" t="str">
         <v>Done</v>
       </c>
       <c r="D52" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E52" t="str">
-        <v>伊勢</v>
+        <v>京都</v>
       </c>
       <c r="F52" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="I52" t="str">
         <v>public</v>
       </c>
       <c r="J52" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B53" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C53" t="str">
         <v>Done</v>
       </c>
       <c r="D53" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E53" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F53" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2095,27 +2095,27 @@
         <v>public</v>
       </c>
       <c r="J53" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B54" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C54" t="str">
         <v>Done</v>
       </c>
       <c r="D54" t="str">
-        <v>八尾</v>
+        <v>東京</v>
       </c>
       <c r="E54" t="str">
-        <v>調布</v>
+        <v>沖縄</v>
       </c>
       <c r="F54" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -2127,15 +2127,15 @@
         <v>public</v>
       </c>
       <c r="J54" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B55" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C55" t="str">
         <v>Done</v>
@@ -2144,74 +2144,74 @@
         <v>東京</v>
       </c>
       <c r="E55" t="str">
-        <v>大阪</v>
+        <v>福岡</v>
       </c>
       <c r="F55" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
       <c r="H55">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I55" t="str">
         <v>public</v>
       </c>
       <c r="J55" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B56" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C56" t="str">
         <v>Done</v>
       </c>
       <c r="D56" t="str">
-        <v>東京</v>
+        <v>調布</v>
       </c>
       <c r="E56" t="str">
-        <v>大阪</v>
+        <v>伊勢</v>
       </c>
       <c r="F56" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="I56" t="str">
         <v>public</v>
       </c>
       <c r="J56" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B57" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C57" t="str">
         <v>Done</v>
       </c>
       <c r="D57" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E57" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F57" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -2223,44 +2223,172 @@
         <v>public</v>
       </c>
       <c r="J57" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
+        <v>20250818-213030-調布-uw1wed</v>
+      </c>
+      <c r="B58" t="str">
+        <v>2025-08-18T12:30:30.962Z</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D58" t="str">
+        <v>八尾</v>
+      </c>
+      <c r="E58" t="str">
+        <v>調布</v>
+      </c>
+      <c r="F58" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>50000</v>
+      </c>
+      <c r="I58" t="str">
+        <v>public</v>
+      </c>
+      <c r="J58" t="str">
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>20250818-212005-大阪-vg64er</v>
+      </c>
+      <c r="B59" t="str">
+        <v>2025-08-18T12:20:05.656Z</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D59" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E59" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F59" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>70000</v>
+      </c>
+      <c r="I59" t="str">
+        <v>public</v>
+      </c>
+      <c r="J59" t="str">
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>20250810-221902-大阪-dltcb7</v>
+      </c>
+      <c r="B60" t="str">
+        <v>2025-08-10T13:19:02.849Z</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D60" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E60" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F60" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>80000</v>
+      </c>
+      <c r="I60" t="str">
+        <v>public</v>
+      </c>
+      <c r="J60" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B61" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D61" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E61" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F61" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>50000</v>
+      </c>
+      <c r="I61" t="str">
+        <v>public</v>
+      </c>
+      <c r="J61" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
         <v>20250810-215528-大阪-5085hg</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B62" t="str">
         <v>2025-08-10T12:55:28.641Z</v>
       </c>
-      <c r="C58" t="str">
-        <v>Done</v>
-      </c>
-      <c r="D58" t="str">
-        <v>東京</v>
-      </c>
-      <c r="E58" t="str">
-        <v>大阪</v>
-      </c>
-      <c r="F58" t="str">
+      <c r="C62" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D62" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E62" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F62" t="str">
         <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="H58">
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
         <v>110000</v>
       </c>
-      <c r="I58" t="str">
-        <v>public</v>
-      </c>
-      <c r="J58" t="str">
+      <c r="I62" t="str">
+        <v>public</v>
+      </c>
+      <c r="J62" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J62"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250918-122950-大阪-2n13mx</v>
+        <v>20250927-171927-大阪-pmhh8a</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-18T03:29:50.355Z</v>
+        <v>2025-09-27T08:19:27.415Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -451,27 +451,27 @@
         <v>大阪</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I2" t="str">
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250918-122950-大阪-2n13mx\plan.xlsx</v>
+        <v>20250927-171927-大阪-pmhh8a\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250917-180859-滋賀-yut3o9</v>
+        <v>20250927-171006-大阪-fasqvs</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-17T09:08:59.927Z</v>
+        <v>2025-09-27T08:10:06.379Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -480,30 +480,30 @@
         <v>東京</v>
       </c>
       <c r="E3" t="str">
-        <v>滋賀</v>
+        <v>大阪</v>
       </c>
       <c r="F3" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="I3" t="str">
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250917-180859-滋賀-yut3o9\plan.xlsx</v>
+        <v>20250927-171006-大阪-fasqvs\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250917-180354-滋賀-4do1t7</v>
+        <v>20250927-165525-奈良-2xexga</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-17T09:03:55.003Z</v>
+        <v>2025-09-27T07:55:25.897Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -512,30 +512,30 @@
         <v>東京</v>
       </c>
       <c r="E4" t="str">
-        <v>滋賀</v>
+        <v>奈良</v>
       </c>
       <c r="F4" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>500000</v>
+        <v>62500</v>
       </c>
       <c r="I4" t="str">
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250917-180354-滋賀-4do1t7\plan.xlsx</v>
+        <v>20250927-165525-奈良-2xexga\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250917-180155-大阪-br5776</v>
+        <v>20250927-164622-大宮-8rpk72</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-17T09:01:55.660Z</v>
+        <v>2025-09-27T07:46:22.990Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -544,30 +544,30 @@
         <v>東京</v>
       </c>
       <c r="E5" t="str">
-        <v>大阪</v>
+        <v>大宮</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-10-08","end":"2025-10-09"}</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>42500</v>
+        <v>65000</v>
       </c>
       <c r="I5" t="str">
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250917-180155-大阪-br5776\plan.xlsx</v>
+        <v>20250927-164622-大宮-8rpk72\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250917-175112-大阪-v6bp8o</v>
+        <v>20250927-163514-大阪-0mzjh5</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-17T08:51:12.139Z</v>
+        <v>2025-09-27T07:35:14.914Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -579,27 +579,27 @@
         <v>大阪</v>
       </c>
       <c r="F6" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I6" t="str">
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250917-175112-大阪-v6bp8o\plan.xlsx</v>
+        <v>20250927-163514-大阪-0mzjh5\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250917-174009-大阪-eeurxe</v>
+        <v>20250927-155939-大阪-pyxvw6</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-17T08:40:09.687Z</v>
+        <v>2025-09-27T06:59:39.745Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -611,27 +611,27 @@
         <v>大阪</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I7" t="str">
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250917-174009-大阪-eeurxe\plan.xlsx</v>
+        <v>20250927-155939-大阪-pyxvw6\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250917-170100-大阪-izkujb</v>
+        <v>20250925-192600-京都-32j7bz</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-17T08:01:00.500Z</v>
+        <v>2025-09-25T10:26:00.966Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
@@ -640,30 +640,30 @@
         <v>東京</v>
       </c>
       <c r="E8" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F8" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="I8" t="str">
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250917-170100-大阪-izkujb\plan.xlsx</v>
+        <v>20250925-192600-京都-32j7bz\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250917-165847-大阪-1v7hb8</v>
+        <v>20250925-181057-京都-zauxrg</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-17T07:58:47.182Z</v>
+        <v>2025-09-25T09:10:57.654Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
@@ -672,30 +672,30 @@
         <v>東京</v>
       </c>
       <c r="E9" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-26","end":"2025-09-27"}</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>50000</v>
+        <v>72500</v>
       </c>
       <c r="I9" t="str">
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250917-165847-大阪-1v7hb8\plan.xlsx</v>
+        <v>20250925-181057-京都-zauxrg\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250917-165229-大阪-zhpmfd</v>
+        <v>20250925-180139-京都-isggr1</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-17T07:52:29.171Z</v>
+        <v>2025-09-25T09:01:39.021Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
@@ -704,10 +704,10 @@
         <v>東京</v>
       </c>
       <c r="E10" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-26","end":"2025-09-27"}</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -719,79 +719,79 @@
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250917-165229-大阪-zhpmfd\plan.xlsx</v>
+        <v>20250925-180139-京都-isggr1\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250917-155925-東京-7l550x</v>
+        <v>20250925-175235-大阪-w7wetp</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-09-17T06:59:25.268Z</v>
+        <v>2025-09-25T08:52:35.853Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
       </c>
       <c r="D11" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E11" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-10-16","end":"2025-10-17"}</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="I11" t="str">
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250917-155925-東京-7l550x\plan.xlsx</v>
+        <v>20250925-175235-大阪-w7wetp\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250917-155517-東京-oqqi9e</v>
+        <v>20250925-173741-大阪-mbxeic</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-09-17T06:55:17.310Z</v>
+        <v>2025-09-25T08:37:41.333Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
       </c>
       <c r="D12" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E12" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-10-09","end":"2025-10-10"}</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>50000</v>
+        <v>67500</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250917-155517-東京-oqqi9e\plan.xlsx</v>
+        <v>20250925-173741-大阪-mbxeic\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250917-144210-大阪-t1t3yr</v>
+        <v>20250925-172952-大阪-8lu1ji</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-09-17T05:42:10.359Z</v>
+        <v>2025-09-25T08:29:52.681Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -803,68 +803,68 @@
         <v>大阪</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-26","end":"2025-09-27"}</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>50000</v>
+        <v>67500</v>
       </c>
       <c r="I13" t="str">
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250917-144210-大阪-t1t3yr\plan.xlsx</v>
+        <v>20250925-172952-大阪-8lu1ji\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250917-143022-岐阜-2xkbs4</v>
+        <v>20250925-170830-大阪-i2i31v</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-09-17T05:30:22.840Z</v>
+        <v>2025-09-25T08:08:30.983Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
       </c>
       <c r="D14" t="str">
-        <v>東京駅</v>
+        <v>東京</v>
       </c>
       <c r="E14" t="str">
-        <v>岐阜</v>
+        <v>大阪</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-30","end":"2025-10-01"}</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I14" t="str">
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250917-143022-岐阜-2xkbs4\plan.xlsx</v>
+        <v>20250925-170830-大阪-i2i31v\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250917-141626-横浜-mey1cv</v>
+        <v>20250918-133505-大阪-x0fh0e</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-09-17T05:16:26.756Z</v>
+        <v>2025-09-18T04:35:05.997Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
       </c>
       <c r="D15" t="str">
-        <v>仙台</v>
+        <v>東京</v>
       </c>
       <c r="E15" t="str">
-        <v>横浜</v>
+        <v>大阪</v>
       </c>
       <c r="F15" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -879,27 +879,27 @@
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250917-141626-横浜-mey1cv\plan.xlsx</v>
+        <v>20250918-133505-大阪-x0fh0e\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250917-140019-京都-16k1ew</v>
+        <v>20250918-133306-大阪-9pk60j</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-09-17T05:00:19.591Z</v>
+        <v>2025-09-18T04:33:06.667Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
       </c>
       <c r="D16" t="str">
-        <v>福島</v>
+        <v>東京</v>
       </c>
       <c r="E16" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F16" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -911,15 +911,15 @@
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250917-140019-京都-16k1ew\plan.xlsx</v>
+        <v>20250918-133306-大阪-9pk60j\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250917-134945-大阪-z9si9i</v>
+        <v>20250918-122950-大阪-2n13mx</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-09-17T04:49:45.955Z</v>
+        <v>2025-09-18T03:29:50.355Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
@@ -931,7 +931,7 @@
         <v>大阪</v>
       </c>
       <c r="F17" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -943,15 +943,15 @@
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250917-134945-大阪-z9si9i\plan.xlsx</v>
+        <v>20250918-122950-大阪-2n13mx\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250917-132134-大阪-zcdcft</v>
+        <v>20250917-180859-滋賀-yut3o9</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-09-17T04:21:34.198Z</v>
+        <v>2025-09-17T09:08:59.927Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
@@ -960,30 +960,30 @@
         <v>東京</v>
       </c>
       <c r="E18" t="str">
-        <v>大阪</v>
+        <v>滋賀</v>
       </c>
       <c r="F18" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="I18" t="str">
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250917-132134-大阪-zcdcft\plan.xlsx</v>
+        <v>20250917-180859-滋賀-yut3o9\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250917-120131-大阪-4negwn</v>
+        <v>20250917-180354-滋賀-4do1t7</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-09-17T03:01:31.740Z</v>
+        <v>2025-09-17T09:03:55.003Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
@@ -992,7 +992,7 @@
         <v>東京</v>
       </c>
       <c r="E19" t="str">
-        <v>大阪</v>
+        <v>滋賀</v>
       </c>
       <c r="F19" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1001,21 +1001,21 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="I19" t="str">
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250917-120131-大阪-4negwn\plan.xlsx</v>
+        <v>20250917-180354-滋賀-4do1t7\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250917-115024-大阪-3a938q</v>
+        <v>20250917-180155-大阪-br5776</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-09-17T02:50:24.794Z</v>
+        <v>2025-09-17T09:01:55.660Z</v>
       </c>
       <c r="C20" t="str">
         <v>Done</v>
@@ -1027,27 +1027,27 @@
         <v>大阪</v>
       </c>
       <c r="F20" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>35000</v>
+        <v>42500</v>
       </c>
       <c r="I20" t="str">
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250917-115024-大阪-3a938q\plan.xlsx</v>
+        <v>20250917-180155-大阪-br5776\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250916-171639-大阪-luxz9w</v>
+        <v>20250917-175112-大阪-v6bp8o</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-09-16T08:16:39.598Z</v>
+        <v>2025-09-17T08:51:12.139Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
@@ -1071,15 +1071,15 @@
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250916-171639-大阪-luxz9w\plan.xlsx</v>
+        <v>20250917-175112-大阪-v6bp8o\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250916-165310-神戸-fdeba1</v>
+        <v>20250917-174009-大阪-eeurxe</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-09-16T07:53:10.076Z</v>
+        <v>2025-09-17T08:40:09.687Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
@@ -1088,10 +1088,10 @@
         <v>東京</v>
       </c>
       <c r="E22" t="str">
-        <v>神戸</v>
+        <v>大阪</v>
       </c>
       <c r="F22" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1103,15 +1103,15 @@
         <v>public</v>
       </c>
       <c r="J22" t="str">
-        <v>20250916-165310-神戸-fdeba1\plan.xlsx</v>
+        <v>20250917-174009-大阪-eeurxe\plan.xlsx</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20250916-164156-神戸-6fhgph</v>
+        <v>20250917-170100-大阪-izkujb</v>
       </c>
       <c r="B23" t="str">
-        <v>2025-09-16T07:41:56.301Z</v>
+        <v>2025-09-17T08:01:00.500Z</v>
       </c>
       <c r="C23" t="str">
         <v>Done</v>
@@ -1120,30 +1120,30 @@
         <v>東京</v>
       </c>
       <c r="E23" t="str">
-        <v>神戸</v>
+        <v>大阪</v>
       </c>
       <c r="F23" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>32500</v>
+        <v>40000</v>
       </c>
       <c r="I23" t="str">
         <v>public</v>
       </c>
       <c r="J23" t="str">
-        <v>20250916-164156-神戸-6fhgph\plan.xlsx</v>
+        <v>20250917-170100-大阪-izkujb\plan.xlsx</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20250916-154813-京都-8jefpa</v>
+        <v>20250917-165847-大阪-1v7hb8</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-09-16T06:48:13.115Z</v>
+        <v>2025-09-17T07:58:47.182Z</v>
       </c>
       <c r="C24" t="str">
         <v>Done</v>
@@ -1152,30 +1152,30 @@
         <v>東京</v>
       </c>
       <c r="E24" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F24" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>26666</v>
+        <v>50000</v>
       </c>
       <c r="I24" t="str">
         <v>public</v>
       </c>
       <c r="J24" t="str">
-        <v>20250916-154813-京都-8jefpa\plan.xlsx</v>
+        <v>20250917-165847-大阪-1v7hb8\plan.xlsx</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20250916-154642-京都-5b16gs</v>
+        <v>20250917-165229-大阪-zhpmfd</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-09-16T06:46:42.386Z</v>
+        <v>2025-09-17T07:52:29.171Z</v>
       </c>
       <c r="C25" t="str">
         <v>Done</v>
@@ -1184,39 +1184,39 @@
         <v>東京</v>
       </c>
       <c r="E25" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F25" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I25" t="str">
         <v>public</v>
       </c>
       <c r="J25" t="str">
-        <v>20250916-154642-京都-5b16gs\plan.xlsx</v>
+        <v>20250917-165229-大阪-zhpmfd\plan.xlsx</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20250916-152429-神戸-uw4i9j</v>
+        <v>20250917-155925-東京-7l550x</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-09-16T06:24:29.892Z</v>
+        <v>2025-09-17T06:59:25.268Z</v>
       </c>
       <c r="C26" t="str">
         <v>Done</v>
       </c>
       <c r="D26" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E26" t="str">
-        <v>神戸</v>
+        <v>東京</v>
       </c>
       <c r="F26" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1225,30 +1225,30 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I26" t="str">
         <v>public</v>
       </c>
       <c r="J26" t="str">
-        <v>20250916-152429-神戸-uw4i9j\plan.xlsx</v>
+        <v>20250917-155925-東京-7l550x\plan.xlsx</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20250916-152105-神戸-gp72ow</v>
+        <v>20250917-155517-東京-oqqi9e</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-09-16T06:21:05.339Z</v>
+        <v>2025-09-17T06:55:17.310Z</v>
       </c>
       <c r="C27" t="str">
         <v>Done</v>
       </c>
       <c r="D27" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E27" t="str">
-        <v>神戸</v>
+        <v>東京</v>
       </c>
       <c r="F27" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1263,15 +1263,15 @@
         <v>public</v>
       </c>
       <c r="J27" t="str">
-        <v>20250916-152105-神戸-gp72ow\plan.xlsx</v>
+        <v>20250917-155517-東京-oqqi9e\plan.xlsx</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>20250916-150238-神戸-zieafl</v>
+        <v>20250917-144210-大阪-t1t3yr</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-09-16T06:02:38.293Z</v>
+        <v>2025-09-17T05:42:10.359Z</v>
       </c>
       <c r="C28" t="str">
         <v>Done</v>
@@ -1280,7 +1280,7 @@
         <v>東京</v>
       </c>
       <c r="E28" t="str">
-        <v>神戸</v>
+        <v>大阪</v>
       </c>
       <c r="F28" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1295,27 +1295,27 @@
         <v>public</v>
       </c>
       <c r="J28" t="str">
-        <v>20250916-150238-神戸-zieafl\plan.xlsx</v>
+        <v>20250917-144210-大阪-t1t3yr\plan.xlsx</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>20250916-145449-神戸-upocb1</v>
+        <v>20250917-143022-岐阜-2xkbs4</v>
       </c>
       <c r="B29" t="str">
-        <v>2025-09-16T05:54:49.237Z</v>
+        <v>2025-09-17T05:30:22.840Z</v>
       </c>
       <c r="C29" t="str">
         <v>Done</v>
       </c>
       <c r="D29" t="str">
-        <v>東京</v>
+        <v>東京駅</v>
       </c>
       <c r="E29" t="str">
-        <v>神戸</v>
+        <v>岐阜</v>
       </c>
       <c r="F29" t="str">
-        <v>{"start":"2025-09-22","end":"2025-09-23"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1327,24 +1327,24 @@
         <v>public</v>
       </c>
       <c r="J29" t="str">
-        <v>20250916-145449-神戸-upocb1\plan.xlsx</v>
+        <v>20250917-143022-岐阜-2xkbs4\plan.xlsx</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>20250916-142942-神戸-2vft5n</v>
+        <v>20250917-141626-横浜-mey1cv</v>
       </c>
       <c r="B30" t="str">
-        <v>2025-09-16T05:29:42.473Z</v>
+        <v>2025-09-17T05:16:26.756Z</v>
       </c>
       <c r="C30" t="str">
         <v>Done</v>
       </c>
       <c r="D30" t="str">
-        <v>東京</v>
+        <v>仙台</v>
       </c>
       <c r="E30" t="str">
-        <v>神戸</v>
+        <v>横浜</v>
       </c>
       <c r="F30" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1359,24 +1359,24 @@
         <v>public</v>
       </c>
       <c r="J30" t="str">
-        <v>20250916-142942-神戸-2vft5n\plan.xlsx</v>
+        <v>20250917-141626-横浜-mey1cv\plan.xlsx</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>20250911-162549-大阪-cndhza</v>
+        <v>20250917-140019-京都-16k1ew</v>
       </c>
       <c r="B31" t="str">
-        <v>2025-09-11T07:25:49.950Z</v>
+        <v>2025-09-17T05:00:19.591Z</v>
       </c>
       <c r="C31" t="str">
         <v>Done</v>
       </c>
       <c r="D31" t="str">
-        <v>東京</v>
+        <v>福島</v>
       </c>
       <c r="E31" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F31" t="str">
         <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
@@ -1391,15 +1391,15 @@
         <v>public</v>
       </c>
       <c r="J31" t="str">
-        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
+        <v>20250917-140019-京都-16k1ew\plan.xlsx</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>20250911-162243-大阪-egffua</v>
+        <v>20250917-134945-大阪-z9si9i</v>
       </c>
       <c r="B32" t="str">
-        <v>2025-09-11T07:22:43.935Z</v>
+        <v>2025-09-17T04:49:45.955Z</v>
       </c>
       <c r="C32" t="str">
         <v>Done</v>
@@ -1411,7 +1411,7 @@
         <v>大阪</v>
       </c>
       <c r="F32" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1423,27 +1423,27 @@
         <v>public</v>
       </c>
       <c r="J32" t="str">
-        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
+        <v>20250917-134945-大阪-z9si9i\plan.xlsx</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>20250911-161850-京都-er5zjf</v>
+        <v>20250917-132134-大阪-zcdcft</v>
       </c>
       <c r="B33" t="str">
-        <v>2025-09-11T07:18:50.990Z</v>
+        <v>2025-09-17T04:21:34.198Z</v>
       </c>
       <c r="C33" t="str">
         <v>Done</v>
       </c>
       <c r="D33" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E33" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F33" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1455,15 +1455,15 @@
         <v>public</v>
       </c>
       <c r="J33" t="str">
-        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
+        <v>20250917-132134-大阪-zcdcft\plan.xlsx</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>20250911-161405-大阪-mlsbic</v>
+        <v>20250917-120131-大阪-4negwn</v>
       </c>
       <c r="B34" t="str">
-        <v>2025-09-11T07:14:05.655Z</v>
+        <v>2025-09-17T03:01:31.740Z</v>
       </c>
       <c r="C34" t="str">
         <v>Done</v>
@@ -1487,15 +1487,15 @@
         <v>public</v>
       </c>
       <c r="J34" t="str">
-        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
+        <v>20250917-120131-大阪-4negwn\plan.xlsx</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>20250911-160441-大阪-rgd338</v>
+        <v>20250917-115024-大阪-3a938q</v>
       </c>
       <c r="B35" t="str">
-        <v>2025-09-11T07:04:41.302Z</v>
+        <v>2025-09-17T02:50:24.794Z</v>
       </c>
       <c r="C35" t="str">
         <v>Done</v>
@@ -1507,27 +1507,27 @@
         <v>大阪</v>
       </c>
       <c r="F35" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="I35" t="str">
         <v>public</v>
       </c>
       <c r="J35" t="str">
-        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
+        <v>20250917-115024-大阪-3a938q\plan.xlsx</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>20250911-154504-大阪-cs63fk</v>
+        <v>20250916-171639-大阪-luxz9w</v>
       </c>
       <c r="B36" t="str">
-        <v>2025-09-11T06:45:04.334Z</v>
+        <v>2025-09-16T08:16:39.598Z</v>
       </c>
       <c r="C36" t="str">
         <v>Done</v>
@@ -1539,7 +1539,7 @@
         <v>大阪</v>
       </c>
       <c r="F36" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1551,15 +1551,15 @@
         <v>public</v>
       </c>
       <c r="J36" t="str">
-        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
+        <v>20250916-171639-大阪-luxz9w\plan.xlsx</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>20250910-170829-大阪-1uizuy</v>
+        <v>20250916-165310-神戸-fdeba1</v>
       </c>
       <c r="B37" t="str">
-        <v>2025-09-10T08:08:29.669Z</v>
+        <v>2025-09-16T07:53:10.076Z</v>
       </c>
       <c r="C37" t="str">
         <v>Done</v>
@@ -1568,7 +1568,7 @@
         <v>東京</v>
       </c>
       <c r="E37" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F37" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1583,15 +1583,15 @@
         <v>public</v>
       </c>
       <c r="J37" t="str">
-        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
+        <v>20250916-165310-神戸-fdeba1\plan.xlsx</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>20250910-164739-大阪-k94vfx</v>
+        <v>20250916-164156-神戸-6fhgph</v>
       </c>
       <c r="B38" t="str">
-        <v>2025-09-10T07:47:39.254Z</v>
+        <v>2025-09-16T07:41:56.301Z</v>
       </c>
       <c r="C38" t="str">
         <v>Done</v>
@@ -1600,7 +1600,7 @@
         <v>東京</v>
       </c>
       <c r="E38" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F38" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1609,62 +1609,62 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>50000</v>
+        <v>32500</v>
       </c>
       <c r="I38" t="str">
         <v>public</v>
       </c>
       <c r="J38" t="str">
-        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
+        <v>20250916-164156-神戸-6fhgph\plan.xlsx</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>20250910-164415-大阪-ardukr</v>
+        <v>20250916-154813-京都-8jefpa</v>
       </c>
       <c r="B39" t="str">
-        <v>2025-09-10T07:44:15.932Z</v>
+        <v>2025-09-16T06:48:13.115Z</v>
       </c>
       <c r="C39" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D39" t="str">
         <v>東京</v>
       </c>
       <c r="E39" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F39" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-25"}</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>50000</v>
+        <v>26666</v>
       </c>
       <c r="I39" t="str">
         <v>public</v>
       </c>
       <c r="J39" t="str">
-        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
+        <v>20250916-154813-京都-8jefpa\plan.xlsx</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>20250910-164116-大阪-dczoqr</v>
+        <v>20250916-154642-京都-5b16gs</v>
       </c>
       <c r="B40" t="str">
-        <v>2025-09-10T07:41:16.470Z</v>
+        <v>2025-09-16T06:46:42.386Z</v>
       </c>
       <c r="C40" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D40" t="str">
         <v>東京</v>
       </c>
       <c r="E40" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F40" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1673,21 +1673,21 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I40" t="str">
         <v>public</v>
       </c>
       <c r="J40" t="str">
-        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
+        <v>20250916-154642-京都-5b16gs\plan.xlsx</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>20250910-160855-大阪-3mfppc</v>
+        <v>20250916-152429-神戸-uw4i9j</v>
       </c>
       <c r="B41" t="str">
-        <v>2025-09-10T07:08:55.967Z</v>
+        <v>2025-09-16T06:24:29.892Z</v>
       </c>
       <c r="C41" t="str">
         <v>Done</v>
@@ -1696,7 +1696,7 @@
         <v>東京</v>
       </c>
       <c r="E41" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F41" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1705,21 +1705,21 @@
         <v>2</v>
       </c>
       <c r="H41">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="I41" t="str">
         <v>public</v>
       </c>
       <c r="J41" t="str">
-        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+        <v>20250916-152429-神戸-uw4i9j\plan.xlsx</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250916-152105-神戸-gp72ow</v>
       </c>
       <c r="B42" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-16T06:21:05.339Z</v>
       </c>
       <c r="C42" t="str">
         <v>Done</v>
@@ -1728,7 +1728,7 @@
         <v>東京</v>
       </c>
       <c r="E42" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F42" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1743,15 +1743,15 @@
         <v>public</v>
       </c>
       <c r="J42" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250916-152105-神戸-gp72ow\plan.xlsx</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250916-150238-神戸-zieafl</v>
       </c>
       <c r="B43" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-16T06:02:38.293Z</v>
       </c>
       <c r="C43" t="str">
         <v>Done</v>
@@ -1760,7 +1760,7 @@
         <v>東京</v>
       </c>
       <c r="E43" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F43" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1775,15 +1775,15 @@
         <v>public</v>
       </c>
       <c r="J43" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250916-150238-神戸-zieafl\plan.xlsx</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250916-145449-神戸-upocb1</v>
       </c>
       <c r="B44" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-16T05:54:49.237Z</v>
       </c>
       <c r="C44" t="str">
         <v>Done</v>
@@ -1792,10 +1792,10 @@
         <v>東京</v>
       </c>
       <c r="E44" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F44" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-22","end":"2025-09-23"}</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1807,15 +1807,15 @@
         <v>public</v>
       </c>
       <c r="J44" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250916-145449-神戸-upocb1\plan.xlsx</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250916-142942-神戸-2vft5n</v>
       </c>
       <c r="B45" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-16T05:29:42.473Z</v>
       </c>
       <c r="C45" t="str">
         <v>Done</v>
@@ -1824,7 +1824,7 @@
         <v>東京</v>
       </c>
       <c r="E45" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F45" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1839,15 +1839,15 @@
         <v>public</v>
       </c>
       <c r="J45" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250916-142942-神戸-2vft5n\plan.xlsx</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250911-162549-大阪-cndhza</v>
       </c>
       <c r="B46" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-11T07:25:49.950Z</v>
       </c>
       <c r="C46" t="str">
         <v>Done</v>
@@ -1859,7 +1859,7 @@
         <v>大阪</v>
       </c>
       <c r="F46" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1871,15 +1871,15 @@
         <v>public</v>
       </c>
       <c r="J46" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250911-162243-大阪-egffua</v>
       </c>
       <c r="B47" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-11T07:22:43.935Z</v>
       </c>
       <c r="C47" t="str">
         <v>Done</v>
@@ -1891,7 +1891,7 @@
         <v>大阪</v>
       </c>
       <c r="F47" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -1903,27 +1903,27 @@
         <v>public</v>
       </c>
       <c r="J47" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250911-161850-京都-er5zjf</v>
       </c>
       <c r="B48" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-11T07:18:50.990Z</v>
       </c>
       <c r="C48" t="str">
         <v>Done</v>
       </c>
       <c r="D48" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E48" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F48" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1935,18 +1935,18 @@
         <v>public</v>
       </c>
       <c r="J48" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250911-161405-大阪-mlsbic</v>
       </c>
       <c r="B49" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-11T07:14:05.655Z</v>
       </c>
       <c r="C49" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D49" t="str">
         <v>東京</v>
@@ -1967,15 +1967,15 @@
         <v>public</v>
       </c>
       <c r="J49" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250911-160441-大阪-rgd338</v>
       </c>
       <c r="B50" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-11T07:04:41.302Z</v>
       </c>
       <c r="C50" t="str">
         <v>Done</v>
@@ -1987,7 +1987,7 @@
         <v>大阪</v>
       </c>
       <c r="F50" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1999,15 +1999,15 @@
         <v>public</v>
       </c>
       <c r="J50" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250911-154504-大阪-cs63fk</v>
       </c>
       <c r="B51" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-11T06:45:04.334Z</v>
       </c>
       <c r="C51" t="str">
         <v>Done</v>
@@ -2019,27 +2019,27 @@
         <v>大阪</v>
       </c>
       <c r="F51" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I51" t="str">
         <v>public</v>
       </c>
       <c r="J51" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250910-170829-大阪-1uizuy</v>
       </c>
       <c r="B52" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-10T08:08:29.669Z</v>
       </c>
       <c r="C52" t="str">
         <v>Done</v>
@@ -2048,30 +2048,30 @@
         <v>東京</v>
       </c>
       <c r="E52" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F52" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I52" t="str">
         <v>public</v>
       </c>
       <c r="J52" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250910-164739-大阪-k94vfx</v>
       </c>
       <c r="B53" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-09-10T07:47:39.254Z</v>
       </c>
       <c r="C53" t="str">
         <v>Done</v>
@@ -2083,7 +2083,7 @@
         <v>大阪</v>
       </c>
       <c r="F53" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2095,27 +2095,27 @@
         <v>public</v>
       </c>
       <c r="J53" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250910-164415-大阪-ardukr</v>
       </c>
       <c r="B54" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-09-10T07:44:15.932Z</v>
       </c>
       <c r="C54" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D54" t="str">
         <v>東京</v>
       </c>
       <c r="E54" t="str">
-        <v>沖縄</v>
+        <v>大阪</v>
       </c>
       <c r="F54" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -2127,27 +2127,27 @@
         <v>public</v>
       </c>
       <c r="J54" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250910-164116-大阪-dczoqr</v>
       </c>
       <c r="B55" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-09-10T07:41:16.470Z</v>
       </c>
       <c r="C55" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D55" t="str">
         <v>東京</v>
       </c>
       <c r="E55" t="str">
-        <v>福岡</v>
+        <v>大阪</v>
       </c>
       <c r="F55" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2159,59 +2159,59 @@
         <v>public</v>
       </c>
       <c r="J55" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250910-160855-大阪-3mfppc</v>
       </c>
       <c r="B56" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-09-10T07:08:55.967Z</v>
       </c>
       <c r="C56" t="str">
         <v>Done</v>
       </c>
       <c r="D56" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E56" t="str">
-        <v>伊勢</v>
+        <v>大阪</v>
       </c>
       <c r="F56" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I56" t="str">
         <v>public</v>
       </c>
       <c r="J56" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B57" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C57" t="str">
         <v>Done</v>
       </c>
       <c r="D57" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E57" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F57" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -2223,27 +2223,27 @@
         <v>public</v>
       </c>
       <c r="J57" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B58" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C58" t="str">
         <v>Done</v>
       </c>
       <c r="D58" t="str">
-        <v>八尾</v>
+        <v>東京</v>
       </c>
       <c r="E58" t="str">
-        <v>調布</v>
+        <v>大阪</v>
       </c>
       <c r="F58" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2255,15 +2255,15 @@
         <v>public</v>
       </c>
       <c r="J58" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B59" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C59" t="str">
         <v>Done</v>
@@ -2275,27 +2275,27 @@
         <v>大阪</v>
       </c>
       <c r="F59" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
       <c r="H59">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I59" t="str">
         <v>public</v>
       </c>
       <c r="J59" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B60" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C60" t="str">
         <v>Done</v>
@@ -2307,27 +2307,27 @@
         <v>大阪</v>
       </c>
       <c r="F60" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G60">
         <v>2</v>
       </c>
       <c r="H60">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I60" t="str">
         <v>public</v>
       </c>
       <c r="J60" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B61" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C61" t="str">
         <v>Done</v>
@@ -2339,7 +2339,7 @@
         <v>大阪</v>
       </c>
       <c r="F61" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2351,44 +2351,524 @@
         <v>public</v>
       </c>
       <c r="J61" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
+        <v>20250908-215229-大阪-f0qlk1</v>
+      </c>
+      <c r="B62" t="str">
+        <v>2025-09-08T12:52:29.938Z</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D62" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E62" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F62" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>50000</v>
+      </c>
+      <c r="I62" t="str">
+        <v>public</v>
+      </c>
+      <c r="J62" t="str">
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>20250906-173619-大阪-t3ac2v</v>
+      </c>
+      <c r="B63" t="str">
+        <v>2025-09-06T08:36:19.656Z</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D63" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E63" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F63" t="str">
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>50000</v>
+      </c>
+      <c r="I63" t="str">
+        <v>public</v>
+      </c>
+      <c r="J63" t="str">
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>20250906-172815-大阪-wzz7ig</v>
+      </c>
+      <c r="B64" t="str">
+        <v>2025-09-06T08:28:15.534Z</v>
+      </c>
+      <c r="C64" t="str">
+        <v>In Progress</v>
+      </c>
+      <c r="D64" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E64" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F64" t="str">
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>50000</v>
+      </c>
+      <c r="I64" t="str">
+        <v>public</v>
+      </c>
+      <c r="J64" t="str">
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>20250901-182353-大阪-3t1jzw</v>
+      </c>
+      <c r="B65" t="str">
+        <v>2025-09-01T09:23:53.534Z</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D65" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E65" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F65" t="str">
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>50000</v>
+      </c>
+      <c r="I65" t="str">
+        <v>public</v>
+      </c>
+      <c r="J65" t="str">
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>20250820-212053-大阪-1gkfou</v>
+      </c>
+      <c r="B66" t="str">
+        <v>2025-08-20T12:20:53.348Z</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D66" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E66" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F66" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>60000</v>
+      </c>
+      <c r="I66" t="str">
+        <v>public</v>
+      </c>
+      <c r="J66" t="str">
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>20250820-170346-京都-7c5mv9</v>
+      </c>
+      <c r="B67" t="str">
+        <v>2025-08-20T08:03:46.933Z</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D67" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E67" t="str">
+        <v>京都</v>
+      </c>
+      <c r="F67" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>65000</v>
+      </c>
+      <c r="I67" t="str">
+        <v>public</v>
+      </c>
+      <c r="J67" t="str">
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>20250820-164118-大阪-ejuebg</v>
+      </c>
+      <c r="B68" t="str">
+        <v>2025-08-20T07:41:18.385Z</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D68" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E68" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F68" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>50000</v>
+      </c>
+      <c r="I68" t="str">
+        <v>public</v>
+      </c>
+      <c r="J68" t="str">
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>20250818-230735-沖縄-hnc1c9</v>
+      </c>
+      <c r="B69" t="str">
+        <v>2025-08-18T14:07:35.390Z</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D69" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E69" t="str">
+        <v>沖縄</v>
+      </c>
+      <c r="F69" t="str">
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>50000</v>
+      </c>
+      <c r="I69" t="str">
+        <v>public</v>
+      </c>
+      <c r="J69" t="str">
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>20250818-225810-福岡-ujsgyv</v>
+      </c>
+      <c r="B70" t="str">
+        <v>2025-08-18T13:58:10.125Z</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D70" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E70" t="str">
+        <v>福岡</v>
+      </c>
+      <c r="F70" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>50000</v>
+      </c>
+      <c r="I70" t="str">
+        <v>public</v>
+      </c>
+      <c r="J70" t="str">
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>20250818-222943-伊勢-hk9oks</v>
+      </c>
+      <c r="B71" t="str">
+        <v>2025-08-18T13:29:43.544Z</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D71" t="str">
+        <v>調布</v>
+      </c>
+      <c r="E71" t="str">
+        <v>伊勢</v>
+      </c>
+      <c r="F71" t="str">
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>45000</v>
+      </c>
+      <c r="I71" t="str">
+        <v>public</v>
+      </c>
+      <c r="J71" t="str">
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>20250818-215150-東京-k7y53m</v>
+      </c>
+      <c r="B72" t="str">
+        <v>2025-08-18T12:51:50.553Z</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D72" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="E72" t="str">
+        <v>東京</v>
+      </c>
+      <c r="F72" t="str">
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>50000</v>
+      </c>
+      <c r="I72" t="str">
+        <v>public</v>
+      </c>
+      <c r="J72" t="str">
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>20250818-213030-調布-uw1wed</v>
+      </c>
+      <c r="B73" t="str">
+        <v>2025-08-18T12:30:30.962Z</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D73" t="str">
+        <v>八尾</v>
+      </c>
+      <c r="E73" t="str">
+        <v>調布</v>
+      </c>
+      <c r="F73" t="str">
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>50000</v>
+      </c>
+      <c r="I73" t="str">
+        <v>public</v>
+      </c>
+      <c r="J73" t="str">
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>20250818-212005-大阪-vg64er</v>
+      </c>
+      <c r="B74" t="str">
+        <v>2025-08-18T12:20:05.656Z</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D74" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E74" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F74" t="str">
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>70000</v>
+      </c>
+      <c r="I74" t="str">
+        <v>public</v>
+      </c>
+      <c r="J74" t="str">
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>20250810-221902-大阪-dltcb7</v>
+      </c>
+      <c r="B75" t="str">
+        <v>2025-08-10T13:19:02.849Z</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D75" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E75" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F75" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>80000</v>
+      </c>
+      <c r="I75" t="str">
+        <v>public</v>
+      </c>
+      <c r="J75" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B76" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D76" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E76" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F76" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>50000</v>
+      </c>
+      <c r="I76" t="str">
+        <v>public</v>
+      </c>
+      <c r="J76" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
         <v>20250810-215528-大阪-5085hg</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B77" t="str">
         <v>2025-08-10T12:55:28.641Z</v>
       </c>
-      <c r="C62" t="str">
-        <v>Done</v>
-      </c>
-      <c r="D62" t="str">
-        <v>東京</v>
-      </c>
-      <c r="E62" t="str">
-        <v>大阪</v>
-      </c>
-      <c r="F62" t="str">
+      <c r="C77" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D77" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E77" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F77" t="str">
         <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62">
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
         <v>110000</v>
       </c>
-      <c r="I62" t="str">
-        <v>public</v>
-      </c>
-      <c r="J62" t="str">
+      <c r="I77" t="str">
+        <v>public</v>
+      </c>
+      <c r="J77" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J62"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J77"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/plans/Index.xlsx
+++ b/server/plans/Index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +436,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20250927-171927-大阪-pmhh8a</v>
+        <v>20250927-173226-福岡-bly1gy</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-09-27T08:19:27.415Z</v>
+        <v>2025-09-27T08:32:26.048Z</v>
       </c>
       <c r="C2" t="str">
         <v>Done</v>
@@ -448,30 +448,30 @@
         <v>東京</v>
       </c>
       <c r="E2" t="str">
-        <v>大阪</v>
+        <v>福岡</v>
       </c>
       <c r="F2" t="str">
-        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
+        <v>{"start":"2025-10-14","end":"2025-10-16"}</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>60000</v>
+        <v>43333</v>
       </c>
       <c r="I2" t="str">
         <v>public</v>
       </c>
       <c r="J2" t="str">
-        <v>20250927-171927-大阪-pmhh8a\plan.xlsx</v>
+        <v>20250927-173226-福岡-bly1gy\plan.xlsx</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20250927-171006-大阪-fasqvs</v>
+        <v>20250927-172608-福岡-7hdlqj</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-09-27T08:10:06.379Z</v>
+        <v>2025-09-27T08:26:08.599Z</v>
       </c>
       <c r="C3" t="str">
         <v>Done</v>
@@ -480,7 +480,7 @@
         <v>東京</v>
       </c>
       <c r="E3" t="str">
-        <v>大阪</v>
+        <v>福岡</v>
       </c>
       <c r="F3" t="str">
         <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
@@ -495,15 +495,15 @@
         <v>public</v>
       </c>
       <c r="J3" t="str">
-        <v>20250927-171006-大阪-fasqvs\plan.xlsx</v>
+        <v>20250927-172608-福岡-7hdlqj\plan.xlsx</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20250927-165525-奈良-2xexga</v>
+        <v>20250927-171927-大阪-pmhh8a</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-09-27T07:55:25.897Z</v>
+        <v>2025-09-27T08:19:27.415Z</v>
       </c>
       <c r="C4" t="str">
         <v>Done</v>
@@ -512,7 +512,7 @@
         <v>東京</v>
       </c>
       <c r="E4" t="str">
-        <v>奈良</v>
+        <v>大阪</v>
       </c>
       <c r="F4" t="str">
         <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
@@ -521,21 +521,21 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>62500</v>
+        <v>60000</v>
       </c>
       <c r="I4" t="str">
         <v>public</v>
       </c>
       <c r="J4" t="str">
-        <v>20250927-165525-奈良-2xexga\plan.xlsx</v>
+        <v>20250927-171927-大阪-pmhh8a\plan.xlsx</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20250927-164622-大宮-8rpk72</v>
+        <v>20250927-171006-大阪-fasqvs</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-09-27T07:46:22.990Z</v>
+        <v>2025-09-27T08:10:06.379Z</v>
       </c>
       <c r="C5" t="str">
         <v>Done</v>
@@ -544,30 +544,30 @@
         <v>東京</v>
       </c>
       <c r="E5" t="str">
-        <v>大宮</v>
+        <v>大阪</v>
       </c>
       <c r="F5" t="str">
-        <v>{"start":"2025-10-08","end":"2025-10-09"}</v>
+        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="I5" t="str">
         <v>public</v>
       </c>
       <c r="J5" t="str">
-        <v>20250927-164622-大宮-8rpk72\plan.xlsx</v>
+        <v>20250927-171006-大阪-fasqvs\plan.xlsx</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20250927-163514-大阪-0mzjh5</v>
+        <v>20250927-165525-奈良-2xexga</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-09-27T07:35:14.914Z</v>
+        <v>2025-09-27T07:55:25.897Z</v>
       </c>
       <c r="C6" t="str">
         <v>Done</v>
@@ -576,7 +576,7 @@
         <v>東京</v>
       </c>
       <c r="E6" t="str">
-        <v>大阪</v>
+        <v>奈良</v>
       </c>
       <c r="F6" t="str">
         <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
@@ -585,21 +585,21 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>65000</v>
+        <v>62500</v>
       </c>
       <c r="I6" t="str">
         <v>public</v>
       </c>
       <c r="J6" t="str">
-        <v>20250927-163514-大阪-0mzjh5\plan.xlsx</v>
+        <v>20250927-165525-奈良-2xexga\plan.xlsx</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20250927-155939-大阪-pyxvw6</v>
+        <v>20250927-164622-大宮-8rpk72</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-09-27T06:59:39.745Z</v>
+        <v>2025-09-27T07:46:22.990Z</v>
       </c>
       <c r="C7" t="str">
         <v>Done</v>
@@ -608,10 +608,10 @@
         <v>東京</v>
       </c>
       <c r="E7" t="str">
-        <v>大阪</v>
+        <v>大宮</v>
       </c>
       <c r="F7" t="str">
-        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
+        <v>{"start":"2025-10-08","end":"2025-10-09"}</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -623,15 +623,15 @@
         <v>public</v>
       </c>
       <c r="J7" t="str">
-        <v>20250927-155939-大阪-pyxvw6\plan.xlsx</v>
+        <v>20250927-164622-大宮-8rpk72\plan.xlsx</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20250925-192600-京都-32j7bz</v>
+        <v>20250927-163514-大阪-0mzjh5</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-09-25T10:26:00.966Z</v>
+        <v>2025-09-27T07:35:14.914Z</v>
       </c>
       <c r="C8" t="str">
         <v>Done</v>
@@ -640,7 +640,7 @@
         <v>東京</v>
       </c>
       <c r="E8" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F8" t="str">
         <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
@@ -649,21 +649,21 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="I8" t="str">
         <v>public</v>
       </c>
       <c r="J8" t="str">
-        <v>20250925-192600-京都-32j7bz\plan.xlsx</v>
+        <v>20250927-163514-大阪-0mzjh5\plan.xlsx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20250925-181057-京都-zauxrg</v>
+        <v>20250927-155939-大阪-pyxvw6</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-09-25T09:10:57.654Z</v>
+        <v>2025-09-27T06:59:39.745Z</v>
       </c>
       <c r="C9" t="str">
         <v>Done</v>
@@ -672,30 +672,30 @@
         <v>東京</v>
       </c>
       <c r="E9" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F9" t="str">
-        <v>{"start":"2025-09-26","end":"2025-09-27"}</v>
+        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>72500</v>
+        <v>65000</v>
       </c>
       <c r="I9" t="str">
         <v>public</v>
       </c>
       <c r="J9" t="str">
-        <v>20250925-181057-京都-zauxrg\plan.xlsx</v>
+        <v>20250927-155939-大阪-pyxvw6\plan.xlsx</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20250925-180139-京都-isggr1</v>
+        <v>20250925-192600-京都-32j7bz</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-09-25T09:01:39.021Z</v>
+        <v>2025-09-25T10:26:00.966Z</v>
       </c>
       <c r="C10" t="str">
         <v>Done</v>
@@ -707,27 +707,27 @@
         <v>京都</v>
       </c>
       <c r="F10" t="str">
-        <v>{"start":"2025-09-26","end":"2025-09-27"}</v>
+        <v>{"start":"2025-09-29","end":"2025-09-30"}</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="I10" t="str">
         <v>public</v>
       </c>
       <c r="J10" t="str">
-        <v>20250925-180139-京都-isggr1\plan.xlsx</v>
+        <v>20250925-192600-京都-32j7bz\plan.xlsx</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20250925-175235-大阪-w7wetp</v>
+        <v>20250925-181057-京都-zauxrg</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-09-25T08:52:35.853Z</v>
+        <v>2025-09-25T09:10:57.654Z</v>
       </c>
       <c r="C11" t="str">
         <v>Done</v>
@@ -736,30 +736,30 @@
         <v>東京</v>
       </c>
       <c r="E11" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F11" t="str">
-        <v>{"start":"2025-10-16","end":"2025-10-17"}</v>
+        <v>{"start":"2025-09-26","end":"2025-09-27"}</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>75000</v>
+        <v>72500</v>
       </c>
       <c r="I11" t="str">
         <v>public</v>
       </c>
       <c r="J11" t="str">
-        <v>20250925-175235-大阪-w7wetp\plan.xlsx</v>
+        <v>20250925-181057-京都-zauxrg\plan.xlsx</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20250925-173741-大阪-mbxeic</v>
+        <v>20250925-180139-京都-isggr1</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-09-25T08:37:41.333Z</v>
+        <v>2025-09-25T09:01:39.021Z</v>
       </c>
       <c r="C12" t="str">
         <v>Done</v>
@@ -768,30 +768,30 @@
         <v>東京</v>
       </c>
       <c r="E12" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F12" t="str">
-        <v>{"start":"2025-10-09","end":"2025-10-10"}</v>
+        <v>{"start":"2025-09-26","end":"2025-09-27"}</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>67500</v>
+        <v>50000</v>
       </c>
       <c r="I12" t="str">
         <v>public</v>
       </c>
       <c r="J12" t="str">
-        <v>20250925-173741-大阪-mbxeic\plan.xlsx</v>
+        <v>20250925-180139-京都-isggr1\plan.xlsx</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20250925-172952-大阪-8lu1ji</v>
+        <v>20250925-175235-大阪-w7wetp</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-09-25T08:29:52.681Z</v>
+        <v>2025-09-25T08:52:35.853Z</v>
       </c>
       <c r="C13" t="str">
         <v>Done</v>
@@ -803,27 +803,27 @@
         <v>大阪</v>
       </c>
       <c r="F13" t="str">
-        <v>{"start":"2025-09-26","end":"2025-09-27"}</v>
+        <v>{"start":"2025-10-16","end":"2025-10-17"}</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>67500</v>
+        <v>75000</v>
       </c>
       <c r="I13" t="str">
         <v>public</v>
       </c>
       <c r="J13" t="str">
-        <v>20250925-172952-大阪-8lu1ji\plan.xlsx</v>
+        <v>20250925-175235-大阪-w7wetp\plan.xlsx</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20250925-170830-大阪-i2i31v</v>
+        <v>20250925-173741-大阪-mbxeic</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-09-25T08:08:30.983Z</v>
+        <v>2025-09-25T08:37:41.333Z</v>
       </c>
       <c r="C14" t="str">
         <v>Done</v>
@@ -835,27 +835,27 @@
         <v>大阪</v>
       </c>
       <c r="F14" t="str">
-        <v>{"start":"2025-09-30","end":"2025-10-01"}</v>
+        <v>{"start":"2025-10-09","end":"2025-10-10"}</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>65000</v>
+        <v>67500</v>
       </c>
       <c r="I14" t="str">
         <v>public</v>
       </c>
       <c r="J14" t="str">
-        <v>20250925-170830-大阪-i2i31v\plan.xlsx</v>
+        <v>20250925-173741-大阪-mbxeic\plan.xlsx</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20250918-133505-大阪-x0fh0e</v>
+        <v>20250925-172952-大阪-8lu1ji</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-09-18T04:35:05.997Z</v>
+        <v>2025-09-25T08:29:52.681Z</v>
       </c>
       <c r="C15" t="str">
         <v>Done</v>
@@ -867,27 +867,27 @@
         <v>大阪</v>
       </c>
       <c r="F15" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-26","end":"2025-09-27"}</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>50000</v>
+        <v>67500</v>
       </c>
       <c r="I15" t="str">
         <v>public</v>
       </c>
       <c r="J15" t="str">
-        <v>20250918-133505-大阪-x0fh0e\plan.xlsx</v>
+        <v>20250925-172952-大阪-8lu1ji\plan.xlsx</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20250918-133306-大阪-9pk60j</v>
+        <v>20250925-170830-大阪-i2i31v</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-09-18T04:33:06.667Z</v>
+        <v>2025-09-25T08:08:30.983Z</v>
       </c>
       <c r="C16" t="str">
         <v>Done</v>
@@ -899,27 +899,27 @@
         <v>大阪</v>
       </c>
       <c r="F16" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-30","end":"2025-10-01"}</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I16" t="str">
         <v>public</v>
       </c>
       <c r="J16" t="str">
-        <v>20250918-133306-大阪-9pk60j\plan.xlsx</v>
+        <v>20250925-170830-大阪-i2i31v\plan.xlsx</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20250918-122950-大阪-2n13mx</v>
+        <v>20250918-133505-大阪-x0fh0e</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-09-18T03:29:50.355Z</v>
+        <v>2025-09-18T04:35:05.997Z</v>
       </c>
       <c r="C17" t="str">
         <v>Done</v>
@@ -943,15 +943,15 @@
         <v>public</v>
       </c>
       <c r="J17" t="str">
-        <v>20250918-122950-大阪-2n13mx\plan.xlsx</v>
+        <v>20250918-133505-大阪-x0fh0e\plan.xlsx</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20250917-180859-滋賀-yut3o9</v>
+        <v>20250918-133306-大阪-9pk60j</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-09-17T09:08:59.927Z</v>
+        <v>2025-09-18T04:33:06.667Z</v>
       </c>
       <c r="C18" t="str">
         <v>Done</v>
@@ -960,7 +960,7 @@
         <v>東京</v>
       </c>
       <c r="E18" t="str">
-        <v>滋賀</v>
+        <v>大阪</v>
       </c>
       <c r="F18" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -969,21 +969,21 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="I18" t="str">
         <v>public</v>
       </c>
       <c r="J18" t="str">
-        <v>20250917-180859-滋賀-yut3o9\plan.xlsx</v>
+        <v>20250918-133306-大阪-9pk60j\plan.xlsx</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20250917-180354-滋賀-4do1t7</v>
+        <v>20250918-122950-大阪-2n13mx</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-09-17T09:03:55.003Z</v>
+        <v>2025-09-18T03:29:50.355Z</v>
       </c>
       <c r="C19" t="str">
         <v>Done</v>
@@ -992,7 +992,7 @@
         <v>東京</v>
       </c>
       <c r="E19" t="str">
-        <v>滋賀</v>
+        <v>大阪</v>
       </c>
       <c r="F19" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1001,21 +1001,21 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="I19" t="str">
         <v>public</v>
       </c>
       <c r="J19" t="str">
-        <v>20250917-180354-滋賀-4do1t7\plan.xlsx</v>
+        <v>20250918-122950-大阪-2n13mx\plan.xlsx</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20250917-180155-大阪-br5776</v>
+        <v>20250917-180859-滋賀-yut3o9</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-09-17T09:01:55.660Z</v>
+        <v>2025-09-17T09:08:59.927Z</v>
       </c>
       <c r="C20" t="str">
         <v>Done</v>
@@ -1024,7 +1024,7 @@
         <v>東京</v>
       </c>
       <c r="E20" t="str">
-        <v>大阪</v>
+        <v>滋賀</v>
       </c>
       <c r="F20" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1033,21 +1033,21 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>42500</v>
+        <v>15000</v>
       </c>
       <c r="I20" t="str">
         <v>public</v>
       </c>
       <c r="J20" t="str">
-        <v>20250917-180155-大阪-br5776\plan.xlsx</v>
+        <v>20250917-180859-滋賀-yut3o9\plan.xlsx</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20250917-175112-大阪-v6bp8o</v>
+        <v>20250917-180354-滋賀-4do1t7</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-09-17T08:51:12.139Z</v>
+        <v>2025-09-17T09:03:55.003Z</v>
       </c>
       <c r="C21" t="str">
         <v>Done</v>
@@ -1056,7 +1056,7 @@
         <v>東京</v>
       </c>
       <c r="E21" t="str">
-        <v>大阪</v>
+        <v>滋賀</v>
       </c>
       <c r="F21" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1065,21 +1065,21 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="I21" t="str">
         <v>public</v>
       </c>
       <c r="J21" t="str">
-        <v>20250917-175112-大阪-v6bp8o\plan.xlsx</v>
+        <v>20250917-180354-滋賀-4do1t7\plan.xlsx</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20250917-174009-大阪-eeurxe</v>
+        <v>20250917-180155-大阪-br5776</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-09-17T08:40:09.687Z</v>
+        <v>2025-09-17T09:01:55.660Z</v>
       </c>
       <c r="C22" t="str">
         <v>Done</v>
@@ -1091,27 +1091,27 @@
         <v>大阪</v>
       </c>
       <c r="F22" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>50000</v>
+        <v>42500</v>
       </c>
       <c r="I22" t="str">
         <v>public</v>
       </c>
       <c r="J22" t="str">
-        <v>20250917-174009-大阪-eeurxe\plan.xlsx</v>
+        <v>20250917-180155-大阪-br5776\plan.xlsx</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20250917-170100-大阪-izkujb</v>
+        <v>20250917-175112-大阪-v6bp8o</v>
       </c>
       <c r="B23" t="str">
-        <v>2025-09-17T08:01:00.500Z</v>
+        <v>2025-09-17T08:51:12.139Z</v>
       </c>
       <c r="C23" t="str">
         <v>Done</v>
@@ -1123,27 +1123,27 @@
         <v>大阪</v>
       </c>
       <c r="F23" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I23" t="str">
         <v>public</v>
       </c>
       <c r="J23" t="str">
-        <v>20250917-170100-大阪-izkujb\plan.xlsx</v>
+        <v>20250917-175112-大阪-v6bp8o\plan.xlsx</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20250917-165847-大阪-1v7hb8</v>
+        <v>20250917-174009-大阪-eeurxe</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-09-17T07:58:47.182Z</v>
+        <v>2025-09-17T08:40:09.687Z</v>
       </c>
       <c r="C24" t="str">
         <v>Done</v>
@@ -1155,7 +1155,7 @@
         <v>大阪</v>
       </c>
       <c r="F24" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1167,15 +1167,15 @@
         <v>public</v>
       </c>
       <c r="J24" t="str">
-        <v>20250917-165847-大阪-1v7hb8\plan.xlsx</v>
+        <v>20250917-174009-大阪-eeurxe\plan.xlsx</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20250917-165229-大阪-zhpmfd</v>
+        <v>20250917-170100-大阪-izkujb</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-09-17T07:52:29.171Z</v>
+        <v>2025-09-17T08:01:00.500Z</v>
       </c>
       <c r="C25" t="str">
         <v>Done</v>
@@ -1193,33 +1193,33 @@
         <v>2</v>
       </c>
       <c r="H25">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I25" t="str">
         <v>public</v>
       </c>
       <c r="J25" t="str">
-        <v>20250917-165229-大阪-zhpmfd\plan.xlsx</v>
+        <v>20250917-170100-大阪-izkujb\plan.xlsx</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20250917-155925-東京-7l550x</v>
+        <v>20250917-165847-大阪-1v7hb8</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-09-17T06:59:25.268Z</v>
+        <v>2025-09-17T07:58:47.182Z</v>
       </c>
       <c r="C26" t="str">
         <v>Done</v>
       </c>
       <c r="D26" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E26" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F26" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1231,27 +1231,27 @@
         <v>public</v>
       </c>
       <c r="J26" t="str">
-        <v>20250917-155925-東京-7l550x\plan.xlsx</v>
+        <v>20250917-165847-大阪-1v7hb8\plan.xlsx</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20250917-155517-東京-oqqi9e</v>
+        <v>20250917-165229-大阪-zhpmfd</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-09-17T06:55:17.310Z</v>
+        <v>2025-09-17T07:52:29.171Z</v>
       </c>
       <c r="C27" t="str">
         <v>Done</v>
       </c>
       <c r="D27" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E27" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="F27" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1263,24 +1263,24 @@
         <v>public</v>
       </c>
       <c r="J27" t="str">
-        <v>20250917-155517-東京-oqqi9e\plan.xlsx</v>
+        <v>20250917-165229-大阪-zhpmfd\plan.xlsx</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>20250917-144210-大阪-t1t3yr</v>
+        <v>20250917-155925-東京-7l550x</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-09-17T05:42:10.359Z</v>
+        <v>2025-09-17T06:59:25.268Z</v>
       </c>
       <c r="C28" t="str">
         <v>Done</v>
       </c>
       <c r="D28" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E28" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F28" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1295,24 +1295,24 @@
         <v>public</v>
       </c>
       <c r="J28" t="str">
-        <v>20250917-144210-大阪-t1t3yr\plan.xlsx</v>
+        <v>20250917-155925-東京-7l550x\plan.xlsx</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>20250917-143022-岐阜-2xkbs4</v>
+        <v>20250917-155517-東京-oqqi9e</v>
       </c>
       <c r="B29" t="str">
-        <v>2025-09-17T05:30:22.840Z</v>
+        <v>2025-09-17T06:55:17.310Z</v>
       </c>
       <c r="C29" t="str">
         <v>Done</v>
       </c>
       <c r="D29" t="str">
-        <v>東京駅</v>
+        <v>大阪</v>
       </c>
       <c r="E29" t="str">
-        <v>岐阜</v>
+        <v>東京</v>
       </c>
       <c r="F29" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1327,24 +1327,24 @@
         <v>public</v>
       </c>
       <c r="J29" t="str">
-        <v>20250917-143022-岐阜-2xkbs4\plan.xlsx</v>
+        <v>20250917-155517-東京-oqqi9e\plan.xlsx</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>20250917-141626-横浜-mey1cv</v>
+        <v>20250917-144210-大阪-t1t3yr</v>
       </c>
       <c r="B30" t="str">
-        <v>2025-09-17T05:16:26.756Z</v>
+        <v>2025-09-17T05:42:10.359Z</v>
       </c>
       <c r="C30" t="str">
         <v>Done</v>
       </c>
       <c r="D30" t="str">
-        <v>仙台</v>
+        <v>東京</v>
       </c>
       <c r="E30" t="str">
-        <v>横浜</v>
+        <v>大阪</v>
       </c>
       <c r="F30" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1359,27 +1359,27 @@
         <v>public</v>
       </c>
       <c r="J30" t="str">
-        <v>20250917-141626-横浜-mey1cv\plan.xlsx</v>
+        <v>20250917-144210-大阪-t1t3yr\plan.xlsx</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>20250917-140019-京都-16k1ew</v>
+        <v>20250917-143022-岐阜-2xkbs4</v>
       </c>
       <c r="B31" t="str">
-        <v>2025-09-17T05:00:19.591Z</v>
+        <v>2025-09-17T05:30:22.840Z</v>
       </c>
       <c r="C31" t="str">
         <v>Done</v>
       </c>
       <c r="D31" t="str">
-        <v>福島</v>
+        <v>東京駅</v>
       </c>
       <c r="E31" t="str">
-        <v>京都</v>
+        <v>岐阜</v>
       </c>
       <c r="F31" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1391,27 +1391,27 @@
         <v>public</v>
       </c>
       <c r="J31" t="str">
-        <v>20250917-140019-京都-16k1ew\plan.xlsx</v>
+        <v>20250917-143022-岐阜-2xkbs4\plan.xlsx</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>20250917-134945-大阪-z9si9i</v>
+        <v>20250917-141626-横浜-mey1cv</v>
       </c>
       <c r="B32" t="str">
-        <v>2025-09-17T04:49:45.955Z</v>
+        <v>2025-09-17T05:16:26.756Z</v>
       </c>
       <c r="C32" t="str">
         <v>Done</v>
       </c>
       <c r="D32" t="str">
-        <v>東京</v>
+        <v>仙台</v>
       </c>
       <c r="E32" t="str">
-        <v>大阪</v>
+        <v>横浜</v>
       </c>
       <c r="F32" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1423,24 +1423,24 @@
         <v>public</v>
       </c>
       <c r="J32" t="str">
-        <v>20250917-134945-大阪-z9si9i\plan.xlsx</v>
+        <v>20250917-141626-横浜-mey1cv\plan.xlsx</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>20250917-132134-大阪-zcdcft</v>
+        <v>20250917-140019-京都-16k1ew</v>
       </c>
       <c r="B33" t="str">
-        <v>2025-09-17T04:21:34.198Z</v>
+        <v>2025-09-17T05:00:19.591Z</v>
       </c>
       <c r="C33" t="str">
         <v>Done</v>
       </c>
       <c r="D33" t="str">
-        <v>東京</v>
+        <v>福島</v>
       </c>
       <c r="E33" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F33" t="str">
         <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
@@ -1455,15 +1455,15 @@
         <v>public</v>
       </c>
       <c r="J33" t="str">
-        <v>20250917-132134-大阪-zcdcft\plan.xlsx</v>
+        <v>20250917-140019-京都-16k1ew\plan.xlsx</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>20250917-120131-大阪-4negwn</v>
+        <v>20250917-134945-大阪-z9si9i</v>
       </c>
       <c r="B34" t="str">
-        <v>2025-09-17T03:01:31.740Z</v>
+        <v>2025-09-17T04:49:45.955Z</v>
       </c>
       <c r="C34" t="str">
         <v>Done</v>
@@ -1475,7 +1475,7 @@
         <v>大阪</v>
       </c>
       <c r="F34" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1487,15 +1487,15 @@
         <v>public</v>
       </c>
       <c r="J34" t="str">
-        <v>20250917-120131-大阪-4negwn\plan.xlsx</v>
+        <v>20250917-134945-大阪-z9si9i\plan.xlsx</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>20250917-115024-大阪-3a938q</v>
+        <v>20250917-132134-大阪-zcdcft</v>
       </c>
       <c r="B35" t="str">
-        <v>2025-09-17T02:50:24.794Z</v>
+        <v>2025-09-17T04:21:34.198Z</v>
       </c>
       <c r="C35" t="str">
         <v>Done</v>
@@ -1513,21 +1513,21 @@
         <v>2</v>
       </c>
       <c r="H35">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="I35" t="str">
         <v>public</v>
       </c>
       <c r="J35" t="str">
-        <v>20250917-115024-大阪-3a938q\plan.xlsx</v>
+        <v>20250917-132134-大阪-zcdcft\plan.xlsx</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>20250916-171639-大阪-luxz9w</v>
+        <v>20250917-120131-大阪-4negwn</v>
       </c>
       <c r="B36" t="str">
-        <v>2025-09-16T08:16:39.598Z</v>
+        <v>2025-09-17T03:01:31.740Z</v>
       </c>
       <c r="C36" t="str">
         <v>Done</v>
@@ -1551,15 +1551,15 @@
         <v>public</v>
       </c>
       <c r="J36" t="str">
-        <v>20250916-171639-大阪-luxz9w\plan.xlsx</v>
+        <v>20250917-120131-大阪-4negwn\plan.xlsx</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>20250916-165310-神戸-fdeba1</v>
+        <v>20250917-115024-大阪-3a938q</v>
       </c>
       <c r="B37" t="str">
-        <v>2025-09-16T07:53:10.076Z</v>
+        <v>2025-09-17T02:50:24.794Z</v>
       </c>
       <c r="C37" t="str">
         <v>Done</v>
@@ -1568,30 +1568,30 @@
         <v>東京</v>
       </c>
       <c r="E37" t="str">
-        <v>神戸</v>
+        <v>大阪</v>
       </c>
       <c r="F37" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="I37" t="str">
         <v>public</v>
       </c>
       <c r="J37" t="str">
-        <v>20250916-165310-神戸-fdeba1\plan.xlsx</v>
+        <v>20250917-115024-大阪-3a938q\plan.xlsx</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>20250916-164156-神戸-6fhgph</v>
+        <v>20250916-171639-大阪-luxz9w</v>
       </c>
       <c r="B38" t="str">
-        <v>2025-09-16T07:41:56.301Z</v>
+        <v>2025-09-16T08:16:39.598Z</v>
       </c>
       <c r="C38" t="str">
         <v>Done</v>
@@ -1600,7 +1600,7 @@
         <v>東京</v>
       </c>
       <c r="E38" t="str">
-        <v>神戸</v>
+        <v>大阪</v>
       </c>
       <c r="F38" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1609,21 +1609,21 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>32500</v>
+        <v>50000</v>
       </c>
       <c r="I38" t="str">
         <v>public</v>
       </c>
       <c r="J38" t="str">
-        <v>20250916-164156-神戸-6fhgph\plan.xlsx</v>
+        <v>20250916-171639-大阪-luxz9w\plan.xlsx</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>20250916-154813-京都-8jefpa</v>
+        <v>20250916-165310-神戸-fdeba1</v>
       </c>
       <c r="B39" t="str">
-        <v>2025-09-16T06:48:13.115Z</v>
+        <v>2025-09-16T07:53:10.076Z</v>
       </c>
       <c r="C39" t="str">
         <v>Done</v>
@@ -1632,30 +1632,30 @@
         <v>東京</v>
       </c>
       <c r="E39" t="str">
-        <v>京都</v>
+        <v>神戸</v>
       </c>
       <c r="F39" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>26666</v>
+        <v>50000</v>
       </c>
       <c r="I39" t="str">
         <v>public</v>
       </c>
       <c r="J39" t="str">
-        <v>20250916-154813-京都-8jefpa\plan.xlsx</v>
+        <v>20250916-165310-神戸-fdeba1\plan.xlsx</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>20250916-154642-京都-5b16gs</v>
+        <v>20250916-164156-神戸-6fhgph</v>
       </c>
       <c r="B40" t="str">
-        <v>2025-09-16T06:46:42.386Z</v>
+        <v>2025-09-16T07:41:56.301Z</v>
       </c>
       <c r="C40" t="str">
         <v>Done</v>
@@ -1664,7 +1664,7 @@
         <v>東京</v>
       </c>
       <c r="E40" t="str">
-        <v>京都</v>
+        <v>神戸</v>
       </c>
       <c r="F40" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1673,21 +1673,21 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>40000</v>
+        <v>32500</v>
       </c>
       <c r="I40" t="str">
         <v>public</v>
       </c>
       <c r="J40" t="str">
-        <v>20250916-154642-京都-5b16gs\plan.xlsx</v>
+        <v>20250916-164156-神戸-6fhgph\plan.xlsx</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>20250916-152429-神戸-uw4i9j</v>
+        <v>20250916-154813-京都-8jefpa</v>
       </c>
       <c r="B41" t="str">
-        <v>2025-09-16T06:24:29.892Z</v>
+        <v>2025-09-16T06:48:13.115Z</v>
       </c>
       <c r="C41" t="str">
         <v>Done</v>
@@ -1696,30 +1696,30 @@
         <v>東京</v>
       </c>
       <c r="E41" t="str">
-        <v>神戸</v>
+        <v>京都</v>
       </c>
       <c r="F41" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-25"}</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>70000</v>
+        <v>26666</v>
       </c>
       <c r="I41" t="str">
         <v>public</v>
       </c>
       <c r="J41" t="str">
-        <v>20250916-152429-神戸-uw4i9j\plan.xlsx</v>
+        <v>20250916-154813-京都-8jefpa\plan.xlsx</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>20250916-152105-神戸-gp72ow</v>
+        <v>20250916-154642-京都-5b16gs</v>
       </c>
       <c r="B42" t="str">
-        <v>2025-09-16T06:21:05.339Z</v>
+        <v>2025-09-16T06:46:42.386Z</v>
       </c>
       <c r="C42" t="str">
         <v>Done</v>
@@ -1728,7 +1728,7 @@
         <v>東京</v>
       </c>
       <c r="E42" t="str">
-        <v>神戸</v>
+        <v>京都</v>
       </c>
       <c r="F42" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1737,21 +1737,21 @@
         <v>2</v>
       </c>
       <c r="H42">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="I42" t="str">
         <v>public</v>
       </c>
       <c r="J42" t="str">
-        <v>20250916-152105-神戸-gp72ow\plan.xlsx</v>
+        <v>20250916-154642-京都-5b16gs\plan.xlsx</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>20250916-150238-神戸-zieafl</v>
+        <v>20250916-152429-神戸-uw4i9j</v>
       </c>
       <c r="B43" t="str">
-        <v>2025-09-16T06:02:38.293Z</v>
+        <v>2025-09-16T06:24:29.892Z</v>
       </c>
       <c r="C43" t="str">
         <v>Done</v>
@@ -1769,21 +1769,21 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="I43" t="str">
         <v>public</v>
       </c>
       <c r="J43" t="str">
-        <v>20250916-150238-神戸-zieafl\plan.xlsx</v>
+        <v>20250916-152429-神戸-uw4i9j\plan.xlsx</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>20250916-145449-神戸-upocb1</v>
+        <v>20250916-152105-神戸-gp72ow</v>
       </c>
       <c r="B44" t="str">
-        <v>2025-09-16T05:54:49.237Z</v>
+        <v>2025-09-16T06:21:05.339Z</v>
       </c>
       <c r="C44" t="str">
         <v>Done</v>
@@ -1795,7 +1795,7 @@
         <v>神戸</v>
       </c>
       <c r="F44" t="str">
-        <v>{"start":"2025-09-22","end":"2025-09-23"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1807,15 +1807,15 @@
         <v>public</v>
       </c>
       <c r="J44" t="str">
-        <v>20250916-145449-神戸-upocb1\plan.xlsx</v>
+        <v>20250916-152105-神戸-gp72ow\plan.xlsx</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>20250916-142942-神戸-2vft5n</v>
+        <v>20250916-150238-神戸-zieafl</v>
       </c>
       <c r="B45" t="str">
-        <v>2025-09-16T05:29:42.473Z</v>
+        <v>2025-09-16T06:02:38.293Z</v>
       </c>
       <c r="C45" t="str">
         <v>Done</v>
@@ -1839,15 +1839,15 @@
         <v>public</v>
       </c>
       <c r="J45" t="str">
-        <v>20250916-142942-神戸-2vft5n\plan.xlsx</v>
+        <v>20250916-150238-神戸-zieafl\plan.xlsx</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>20250911-162549-大阪-cndhza</v>
+        <v>20250916-145449-神戸-upocb1</v>
       </c>
       <c r="B46" t="str">
-        <v>2025-09-11T07:25:49.950Z</v>
+        <v>2025-09-16T05:54:49.237Z</v>
       </c>
       <c r="C46" t="str">
         <v>Done</v>
@@ -1856,10 +1856,10 @@
         <v>東京</v>
       </c>
       <c r="E46" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F46" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-22","end":"2025-09-23"}</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1871,15 +1871,15 @@
         <v>public</v>
       </c>
       <c r="J46" t="str">
-        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
+        <v>20250916-145449-神戸-upocb1\plan.xlsx</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>20250911-162243-大阪-egffua</v>
+        <v>20250916-142942-神戸-2vft5n</v>
       </c>
       <c r="B47" t="str">
-        <v>2025-09-11T07:22:43.935Z</v>
+        <v>2025-09-16T05:29:42.473Z</v>
       </c>
       <c r="C47" t="str">
         <v>Done</v>
@@ -1888,10 +1888,10 @@
         <v>東京</v>
       </c>
       <c r="E47" t="str">
-        <v>大阪</v>
+        <v>神戸</v>
       </c>
       <c r="F47" t="str">
-        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -1903,27 +1903,27 @@
         <v>public</v>
       </c>
       <c r="J47" t="str">
-        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
+        <v>20250916-142942-神戸-2vft5n\plan.xlsx</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>20250911-161850-京都-er5zjf</v>
+        <v>20250911-162549-大阪-cndhza</v>
       </c>
       <c r="B48" t="str">
-        <v>2025-09-11T07:18:50.990Z</v>
+        <v>2025-09-11T07:25:49.950Z</v>
       </c>
       <c r="C48" t="str">
         <v>Done</v>
       </c>
       <c r="D48" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E48" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F48" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1935,15 +1935,15 @@
         <v>public</v>
       </c>
       <c r="J48" t="str">
-        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
+        <v>20250911-162549-大阪-cndhza\plan.xlsx</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>20250911-161405-大阪-mlsbic</v>
+        <v>20250911-162243-大阪-egffua</v>
       </c>
       <c r="B49" t="str">
-        <v>2025-09-11T07:14:05.655Z</v>
+        <v>2025-09-11T07:22:43.935Z</v>
       </c>
       <c r="C49" t="str">
         <v>Done</v>
@@ -1955,7 +1955,7 @@
         <v>大阪</v>
       </c>
       <c r="F49" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-25","end":"2025-09-26"}</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -1967,24 +1967,24 @@
         <v>public</v>
       </c>
       <c r="J49" t="str">
-        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
+        <v>20250911-162243-大阪-egffua\plan.xlsx</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>20250911-160441-大阪-rgd338</v>
+        <v>20250911-161850-京都-er5zjf</v>
       </c>
       <c r="B50" t="str">
-        <v>2025-09-11T07:04:41.302Z</v>
+        <v>2025-09-11T07:18:50.990Z</v>
       </c>
       <c r="C50" t="str">
         <v>Done</v>
       </c>
       <c r="D50" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E50" t="str">
-        <v>大阪</v>
+        <v>京都</v>
       </c>
       <c r="F50" t="str">
         <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
@@ -1999,15 +1999,15 @@
         <v>public</v>
       </c>
       <c r="J50" t="str">
-        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
+        <v>20250911-161850-京都-er5zjf\plan.xlsx</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>20250911-154504-大阪-cs63fk</v>
+        <v>20250911-161405-大阪-mlsbic</v>
       </c>
       <c r="B51" t="str">
-        <v>2025-09-11T06:45:04.334Z</v>
+        <v>2025-09-11T07:14:05.655Z</v>
       </c>
       <c r="C51" t="str">
         <v>Done</v>
@@ -2019,7 +2019,7 @@
         <v>大阪</v>
       </c>
       <c r="F51" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2031,15 +2031,15 @@
         <v>public</v>
       </c>
       <c r="J51" t="str">
-        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
+        <v>20250911-161405-大阪-mlsbic\plan.xlsx</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>20250910-170829-大阪-1uizuy</v>
+        <v>20250911-160441-大阪-rgd338</v>
       </c>
       <c r="B52" t="str">
-        <v>2025-09-10T08:08:29.669Z</v>
+        <v>2025-09-11T07:04:41.302Z</v>
       </c>
       <c r="C52" t="str">
         <v>Done</v>
@@ -2063,15 +2063,15 @@
         <v>public</v>
       </c>
       <c r="J52" t="str">
-        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
+        <v>20250911-160441-大阪-rgd338\plan.xlsx</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>20250910-164739-大阪-k94vfx</v>
+        <v>20250911-154504-大阪-cs63fk</v>
       </c>
       <c r="B53" t="str">
-        <v>2025-09-10T07:47:39.254Z</v>
+        <v>2025-09-11T06:45:04.334Z</v>
       </c>
       <c r="C53" t="str">
         <v>Done</v>
@@ -2083,7 +2083,7 @@
         <v>大阪</v>
       </c>
       <c r="F53" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2095,18 +2095,18 @@
         <v>public</v>
       </c>
       <c r="J53" t="str">
-        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
+        <v>20250911-154504-大阪-cs63fk\plan.xlsx</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>20250910-164415-大阪-ardukr</v>
+        <v>20250910-170829-大阪-1uizuy</v>
       </c>
       <c r="B54" t="str">
-        <v>2025-09-10T07:44:15.932Z</v>
+        <v>2025-09-10T08:08:29.669Z</v>
       </c>
       <c r="C54" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D54" t="str">
         <v>東京</v>
@@ -2115,7 +2115,7 @@
         <v>大阪</v>
       </c>
       <c r="F54" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -2127,18 +2127,18 @@
         <v>public</v>
       </c>
       <c r="J54" t="str">
-        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
+        <v>20250910-170829-大阪-1uizuy\plan.xlsx</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>20250910-164116-大阪-dczoqr</v>
+        <v>20250910-164739-大阪-k94vfx</v>
       </c>
       <c r="B55" t="str">
-        <v>2025-09-10T07:41:16.470Z</v>
+        <v>2025-09-10T07:47:39.254Z</v>
       </c>
       <c r="C55" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D55" t="str">
         <v>東京</v>
@@ -2159,18 +2159,18 @@
         <v>public</v>
       </c>
       <c r="J55" t="str">
-        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
+        <v>20250910-164739-大阪-k94vfx\plan.xlsx</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>20250910-160855-大阪-3mfppc</v>
+        <v>20250910-164415-大阪-ardukr</v>
       </c>
       <c r="B56" t="str">
-        <v>2025-09-10T07:08:55.967Z</v>
+        <v>2025-09-10T07:44:15.932Z</v>
       </c>
       <c r="C56" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D56" t="str">
         <v>東京</v>
@@ -2179,7 +2179,7 @@
         <v>大阪</v>
       </c>
       <c r="F56" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2191,18 +2191,18 @@
         <v>public</v>
       </c>
       <c r="J56" t="str">
-        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
+        <v>20250910-164415-大阪-ardukr\plan.xlsx</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>20250910-154435-大阪-0n4m1i</v>
+        <v>20250910-164116-大阪-dczoqr</v>
       </c>
       <c r="B57" t="str">
-        <v>2025-09-10T06:44:35.762Z</v>
+        <v>2025-09-10T07:41:16.470Z</v>
       </c>
       <c r="C57" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D57" t="str">
         <v>東京</v>
@@ -2223,15 +2223,15 @@
         <v>public</v>
       </c>
       <c r="J57" t="str">
-        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
+        <v>20250910-164116-大阪-dczoqr\plan.xlsx</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>20250910-153342-大阪-ycltn0</v>
+        <v>20250910-160855-大阪-3mfppc</v>
       </c>
       <c r="B58" t="str">
-        <v>2025-09-10T06:33:42.594Z</v>
+        <v>2025-09-10T07:08:55.967Z</v>
       </c>
       <c r="C58" t="str">
         <v>Done</v>
@@ -2255,15 +2255,15 @@
         <v>public</v>
       </c>
       <c r="J58" t="str">
-        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
+        <v>20250910-160855-大阪-3mfppc\plan.xlsx</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>20250910-152827-大阪-zkdout</v>
+        <v>20250910-154435-大阪-0n4m1i</v>
       </c>
       <c r="B59" t="str">
-        <v>2025-09-10T06:28:27.488Z</v>
+        <v>2025-09-10T06:44:35.762Z</v>
       </c>
       <c r="C59" t="str">
         <v>Done</v>
@@ -2287,15 +2287,15 @@
         <v>public</v>
       </c>
       <c r="J59" t="str">
-        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
+        <v>20250910-154435-大阪-0n4m1i\plan.xlsx</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>20250910-145936-大阪-78p72o</v>
+        <v>20250910-153342-大阪-ycltn0</v>
       </c>
       <c r="B60" t="str">
-        <v>2025-09-10T05:59:36.175Z</v>
+        <v>2025-09-10T06:33:42.594Z</v>
       </c>
       <c r="C60" t="str">
         <v>Done</v>
@@ -2319,15 +2319,15 @@
         <v>public</v>
       </c>
       <c r="J60" t="str">
-        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
+        <v>20250910-153342-大阪-ycltn0\plan.xlsx</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>20250908-220434-大阪-b46o3s</v>
+        <v>20250910-152827-大阪-zkdout</v>
       </c>
       <c r="B61" t="str">
-        <v>2025-09-08T13:04:34.111Z</v>
+        <v>2025-09-10T06:28:27.488Z</v>
       </c>
       <c r="C61" t="str">
         <v>Done</v>
@@ -2339,7 +2339,7 @@
         <v>大阪</v>
       </c>
       <c r="F61" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2351,15 +2351,15 @@
         <v>public</v>
       </c>
       <c r="J61" t="str">
-        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
+        <v>20250910-152827-大阪-zkdout\plan.xlsx</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>20250908-215229-大阪-f0qlk1</v>
+        <v>20250910-145936-大阪-78p72o</v>
       </c>
       <c r="B62" t="str">
-        <v>2025-09-08T12:52:29.938Z</v>
+        <v>2025-09-10T05:59:36.175Z</v>
       </c>
       <c r="C62" t="str">
         <v>Done</v>
@@ -2371,7 +2371,7 @@
         <v>大阪</v>
       </c>
       <c r="F62" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2383,15 +2383,15 @@
         <v>public</v>
       </c>
       <c r="J62" t="str">
-        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
+        <v>20250910-145936-大阪-78p72o\plan.xlsx</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>20250906-173619-大阪-t3ac2v</v>
+        <v>20250908-220434-大阪-b46o3s</v>
       </c>
       <c r="B63" t="str">
-        <v>2025-09-06T08:36:19.656Z</v>
+        <v>2025-09-08T13:04:34.111Z</v>
       </c>
       <c r="C63" t="str">
         <v>Done</v>
@@ -2403,7 +2403,7 @@
         <v>大阪</v>
       </c>
       <c r="F63" t="str">
-        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -2415,18 +2415,18 @@
         <v>public</v>
       </c>
       <c r="J63" t="str">
-        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
+        <v>20250908-220434-大阪-b46o3s\plan.xlsx</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>20250906-172815-大阪-wzz7ig</v>
+        <v>20250908-215229-大阪-f0qlk1</v>
       </c>
       <c r="B64" t="str">
-        <v>2025-09-06T08:28:15.534Z</v>
+        <v>2025-09-08T12:52:29.938Z</v>
       </c>
       <c r="C64" t="str">
-        <v>In Progress</v>
+        <v>Done</v>
       </c>
       <c r="D64" t="str">
         <v>東京</v>
@@ -2435,7 +2435,7 @@
         <v>大阪</v>
       </c>
       <c r="F64" t="str">
-        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2447,15 +2447,15 @@
         <v>public</v>
       </c>
       <c r="J64" t="str">
-        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
+        <v>20250908-215229-大阪-f0qlk1\plan.xlsx</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>20250901-182353-大阪-3t1jzw</v>
+        <v>20250906-173619-大阪-t3ac2v</v>
       </c>
       <c r="B65" t="str">
-        <v>2025-09-01T09:23:53.534Z</v>
+        <v>2025-09-06T08:36:19.656Z</v>
       </c>
       <c r="C65" t="str">
         <v>Done</v>
@@ -2467,7 +2467,7 @@
         <v>大阪</v>
       </c>
       <c r="F65" t="str">
-        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
+        <v>{"start":"2025-09-17","end":"2025-09-18"}</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -2479,18 +2479,18 @@
         <v>public</v>
       </c>
       <c r="J65" t="str">
-        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
+        <v>20250906-173619-大阪-t3ac2v\plan.xlsx</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>20250820-212053-大阪-1gkfou</v>
+        <v>20250906-172815-大阪-wzz7ig</v>
       </c>
       <c r="B66" t="str">
-        <v>2025-08-20T12:20:53.348Z</v>
+        <v>2025-09-06T08:28:15.534Z</v>
       </c>
       <c r="C66" t="str">
-        <v>Done</v>
+        <v>In Progress</v>
       </c>
       <c r="D66" t="str">
         <v>東京</v>
@@ -2499,27 +2499,27 @@
         <v>大阪</v>
       </c>
       <c r="F66" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-24","end":"2025-09-25"}</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
       <c r="H66">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I66" t="str">
         <v>public</v>
       </c>
       <c r="J66" t="str">
-        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
+        <v>20250906-172815-大阪-wzz7ig\plan.xlsx</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>20250820-170346-京都-7c5mv9</v>
+        <v>20250901-182353-大阪-3t1jzw</v>
       </c>
       <c r="B67" t="str">
-        <v>2025-08-20T08:03:46.933Z</v>
+        <v>2025-09-01T09:23:53.534Z</v>
       </c>
       <c r="C67" t="str">
         <v>Done</v>
@@ -2528,30 +2528,30 @@
         <v>東京</v>
       </c>
       <c r="E67" t="str">
-        <v>京都</v>
+        <v>大阪</v>
       </c>
       <c r="F67" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-09-11","end":"2025-09-12"}</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
       <c r="H67">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="I67" t="str">
         <v>public</v>
       </c>
       <c r="J67" t="str">
-        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
+        <v>20250901-182353-大阪-3t1jzw\plan.xlsx</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>20250820-164118-大阪-ejuebg</v>
+        <v>20250820-212053-大阪-1gkfou</v>
       </c>
       <c r="B68" t="str">
-        <v>2025-08-20T07:41:18.385Z</v>
+        <v>2025-08-20T12:20:53.348Z</v>
       </c>
       <c r="C68" t="str">
         <v>Done</v>
@@ -2563,27 +2563,27 @@
         <v>大阪</v>
       </c>
       <c r="F68" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G68">
         <v>2</v>
       </c>
       <c r="H68">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="I68" t="str">
         <v>public</v>
       </c>
       <c r="J68" t="str">
-        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
+        <v>20250820-212053-大阪-1gkfou\plan.xlsx</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>20250818-230735-沖縄-hnc1c9</v>
+        <v>20250820-170346-京都-7c5mv9</v>
       </c>
       <c r="B69" t="str">
-        <v>2025-08-18T14:07:35.390Z</v>
+        <v>2025-08-20T08:03:46.933Z</v>
       </c>
       <c r="C69" t="str">
         <v>Done</v>
@@ -2592,30 +2592,30 @@
         <v>東京</v>
       </c>
       <c r="E69" t="str">
-        <v>沖縄</v>
+        <v>京都</v>
       </c>
       <c r="F69" t="str">
-        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G69">
         <v>2</v>
       </c>
       <c r="H69">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I69" t="str">
         <v>public</v>
       </c>
       <c r="J69" t="str">
-        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
+        <v>20250820-170346-京都-7c5mv9\plan.xlsx</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>20250818-225810-福岡-ujsgyv</v>
+        <v>20250820-164118-大阪-ejuebg</v>
       </c>
       <c r="B70" t="str">
-        <v>2025-08-18T13:58:10.125Z</v>
+        <v>2025-08-20T07:41:18.385Z</v>
       </c>
       <c r="C70" t="str">
         <v>Done</v>
@@ -2624,10 +2624,10 @@
         <v>東京</v>
       </c>
       <c r="E70" t="str">
-        <v>福岡</v>
+        <v>大阪</v>
       </c>
       <c r="F70" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -2639,59 +2639,59 @@
         <v>public</v>
       </c>
       <c r="J70" t="str">
-        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
+        <v>20250820-164118-大阪-ejuebg\plan.xlsx</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>20250818-222943-伊勢-hk9oks</v>
+        <v>20250818-230735-沖縄-hnc1c9</v>
       </c>
       <c r="B71" t="str">
-        <v>2025-08-18T13:29:43.544Z</v>
+        <v>2025-08-18T14:07:35.390Z</v>
       </c>
       <c r="C71" t="str">
         <v>Done</v>
       </c>
       <c r="D71" t="str">
-        <v>調布</v>
+        <v>東京</v>
       </c>
       <c r="E71" t="str">
-        <v>伊勢</v>
+        <v>沖縄</v>
       </c>
       <c r="F71" t="str">
-        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
+        <v>{"start":"2025-08-29","end":"2025-08-30"}</v>
       </c>
       <c r="G71">
         <v>2</v>
       </c>
       <c r="H71">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I71" t="str">
         <v>public</v>
       </c>
       <c r="J71" t="str">
-        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
+        <v>20250818-230735-沖縄-hnc1c9\plan.xlsx</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>20250818-215150-東京-k7y53m</v>
+        <v>20250818-225810-福岡-ujsgyv</v>
       </c>
       <c r="B72" t="str">
-        <v>2025-08-18T12:51:50.553Z</v>
+        <v>2025-08-18T13:58:10.125Z</v>
       </c>
       <c r="C72" t="str">
         <v>Done</v>
       </c>
       <c r="D72" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="E72" t="str">
-        <v>東京</v>
+        <v>福岡</v>
       </c>
       <c r="F72" t="str">
-        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -2703,111 +2703,111 @@
         <v>public</v>
       </c>
       <c r="J72" t="str">
-        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
+        <v>20250818-225810-福岡-ujsgyv\plan.xlsx</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>20250818-213030-調布-uw1wed</v>
+        <v>20250818-222943-伊勢-hk9oks</v>
       </c>
       <c r="B73" t="str">
-        <v>2025-08-18T12:30:30.962Z</v>
+        <v>2025-08-18T13:29:43.544Z</v>
       </c>
       <c r="C73" t="str">
         <v>Done</v>
       </c>
       <c r="D73" t="str">
-        <v>八尾</v>
+        <v>調布</v>
       </c>
       <c r="E73" t="str">
-        <v>調布</v>
+        <v>伊勢</v>
       </c>
       <c r="F73" t="str">
-        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
+        <v>{"start":"2025-08-20","end":"2025-08-21"}</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
       <c r="H73">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="I73" t="str">
         <v>public</v>
       </c>
       <c r="J73" t="str">
-        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
+        <v>20250818-222943-伊勢-hk9oks\plan.xlsx</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>20250818-212005-大阪-vg64er</v>
+        <v>20250818-215150-東京-k7y53m</v>
       </c>
       <c r="B74" t="str">
-        <v>2025-08-18T12:20:05.656Z</v>
+        <v>2025-08-18T12:51:50.553Z</v>
       </c>
       <c r="C74" t="str">
         <v>Done</v>
       </c>
       <c r="D74" t="str">
-        <v>東京</v>
+        <v>大阪</v>
       </c>
       <c r="E74" t="str">
-        <v>大阪</v>
+        <v>東京</v>
       </c>
       <c r="F74" t="str">
-        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
+        <v>{"start":"2025-08-28","end":"2025-08-29"}</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="I74" t="str">
         <v>public</v>
       </c>
       <c r="J74" t="str">
-        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
+        <v>20250818-215150-東京-k7y53m\plan.xlsx</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>20250810-221902-大阪-dltcb7</v>
+        <v>20250818-213030-調布-uw1wed</v>
       </c>
       <c r="B75" t="str">
-        <v>2025-08-10T13:19:02.849Z</v>
+        <v>2025-08-18T12:30:30.962Z</v>
       </c>
       <c r="C75" t="str">
         <v>Done</v>
       </c>
       <c r="D75" t="str">
-        <v>東京</v>
+        <v>八尾</v>
       </c>
       <c r="E75" t="str">
-        <v>大阪</v>
+        <v>調布</v>
       </c>
       <c r="F75" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-08-27","end":"2025-08-28"}</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I75" t="str">
         <v>public</v>
       </c>
       <c r="J75" t="str">
-        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+        <v>20250818-213030-調布-uw1wed\plan.xlsx</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>20250810-221411-大阪-j5rs41</v>
+        <v>20250818-212005-大阪-vg64er</v>
       </c>
       <c r="B76" t="str">
-        <v>2025-08-10T13:14:11.920Z</v>
+        <v>2025-08-18T12:20:05.656Z</v>
       </c>
       <c r="C76" t="str">
         <v>Done</v>
@@ -2819,27 +2819,27 @@
         <v>大阪</v>
       </c>
       <c r="F76" t="str">
-        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+        <v>{"start":"2025-09-23","end":"2025-09-24"}</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
       <c r="H76">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="I76" t="str">
         <v>public</v>
       </c>
       <c r="J76" t="str">
-        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+        <v>20250818-212005-大阪-vg64er\plan.xlsx</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>20250810-215528-大阪-5085hg</v>
+        <v>20250810-221902-大阪-dltcb7</v>
       </c>
       <c r="B77" t="str">
-        <v>2025-08-10T12:55:28.641Z</v>
+        <v>2025-08-10T13:19:02.849Z</v>
       </c>
       <c r="C77" t="str">
         <v>Done</v>
@@ -2857,18 +2857,82 @@
         <v>2</v>
       </c>
       <c r="H77">
+        <v>80000</v>
+      </c>
+      <c r="I77" t="str">
+        <v>public</v>
+      </c>
+      <c r="J77" t="str">
+        <v>20250810-221902-大阪-dltcb7\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>20250810-221411-大阪-j5rs41</v>
+      </c>
+      <c r="B78" t="str">
+        <v>2025-08-10T13:14:11.920Z</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D78" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E78" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F78" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>50000</v>
+      </c>
+      <c r="I78" t="str">
+        <v>public</v>
+      </c>
+      <c r="J78" t="str">
+        <v>20250810-221411-大阪-j5rs41\plan.xlsx</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>20250810-215528-大阪-5085hg</v>
+      </c>
+      <c r="B79" t="str">
+        <v>2025-08-10T12:55:28.641Z</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Done</v>
+      </c>
+      <c r="D79" t="str">
+        <v>東京</v>
+      </c>
+      <c r="E79" t="str">
+        <v>大阪</v>
+      </c>
+      <c r="F79" t="str">
+        <v>{"start":"2025-08-26","end":"2025-08-27"}</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
         <v>110000</v>
       </c>
-      <c r="I77" t="str">
-        <v>public</v>
-      </c>
-      <c r="J77" t="str">
+      <c r="I79" t="str">
+        <v>public</v>
+      </c>
+      <c r="J79" t="str">
         <v>20250810-215528-大阪-5085hg\plan.xlsx</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J77"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J79"/>
   </ignoredErrors>
 </worksheet>
 </file>